--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\CRUX\Models\eps-1.4.2-india-v2WIP\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="96" windowWidth="19428" windowHeight="11028" tabRatio="742"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="19425" windowHeight="11025" tabRatio="742" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1302,7 +1302,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1338,151 +1337,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.849302086624257E-4</c:v>
+                  <c:v>5.7798269059054991E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.9049448042748884E-4</c:v>
+                  <c:v>5.9534965244166516E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.9605875219255373E-4</c:v>
+                  <c:v>6.1271661429278257E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>2.0162302395761687E-4</c:v>
+                  <c:v>6.3008357614389998E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>2.0718729572268176E-4</c:v>
+                  <c:v>6.4745053799501739E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>2.127515674877449E-4</c:v>
+                  <c:v>6.6481749984613134E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,7 +1566,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1889,7 +1887,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2158,7 +2155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2412,7 +2408,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2448,151 +2443,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>1.689503624731988E-4</c:v>
+                  <c:v>3.4165027849915303E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,7 +2672,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2930,7 +2924,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3183,7 +3176,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3466,7 +3458,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3749,7 +3740,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4075,7 +4065,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4400,7 +4389,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5444,12 +5432,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="107.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5629,9 +5617,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -6450,9 +6438,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -7271,9 +7259,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -8092,9 +8080,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -8913,9 +8901,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -9734,9 +9722,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -10701,9 +10689,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -11657,13 +11645,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:AL9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -11854,109 +11844,109 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>1.9049448042748884E-4</v>
+        <v>5.9534965244166516E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>1.9605875219255373E-4</v>
+        <v>6.1271661429278257E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>2.0162302395761687E-4</v>
+        <v>6.3008357614389998E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>2.0718729572268176E-4</v>
+        <v>6.4745053799501739E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AH8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AI8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AJ8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AK8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AL8" s="4">
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -11970,109 +11960,109 @@
         <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AH9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AI9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AJ9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AK9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AL9" s="4">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -13246,9 +13236,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13358,7 +13348,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
@@ -13601,199 +13591,199 @@
       <c r="V2" s="11"/>
       <c r="W2" s="17">
         <f t="shared" ref="W2:AJ3" si="0">$AK2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="X2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="Y2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="Z2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AA2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AB2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AC2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AD2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AE2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AF2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AG2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AH2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AI2" s="17">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AJ2" s="14">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AK2" s="15">
         <f>BNVFE!D8</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="AL2" s="16">
         <f>BNVFE!E8</f>
-        <v>1.9049448042748884E-4</v>
+        <v>5.9534965244166516E-4</v>
       </c>
       <c r="AM2" s="16">
         <f>BNVFE!F8</f>
-        <v>1.9605875219255373E-4</v>
+        <v>6.1271661429278257E-4</v>
       </c>
       <c r="AN2" s="16">
         <f>BNVFE!G8</f>
-        <v>2.0162302395761687E-4</v>
+        <v>6.3008357614389998E-4</v>
       </c>
       <c r="AO2" s="16">
         <f>BNVFE!H8</f>
-        <v>2.0718729572268176E-4</v>
+        <v>6.4745053799501739E-4</v>
       </c>
       <c r="AP2" s="16">
         <f>BNVFE!I8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AQ2" s="16">
         <f>BNVFE!J8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AR2" s="16">
         <f>BNVFE!K8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AS2" s="16">
         <f>BNVFE!L8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AT2" s="16">
         <f>BNVFE!M8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AU2" s="16">
         <f>BNVFE!N8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AV2" s="16">
         <f>BNVFE!O8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AW2" s="16">
         <f>BNVFE!P8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AX2" s="16">
         <f>BNVFE!Q8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AY2" s="16">
         <f>BNVFE!R8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AZ2" s="16">
         <f>BNVFE!S8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BA2" s="16">
         <f>BNVFE!T8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BB2" s="16">
         <f>BNVFE!U8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BC2" s="16">
         <f>BNVFE!V8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BD2" s="16">
         <f>BNVFE!W8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BE2" s="16">
         <f>BNVFE!X8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BF2" s="16">
         <f>BNVFE!Y8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BG2" s="16">
         <f>BNVFE!Z8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BH2" s="16">
         <f>BNVFE!AA8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BI2" s="16">
         <f>BNVFE!AB8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BJ2" s="16">
         <f>BNVFE!AC8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BK2" s="16">
         <f>BNVFE!AD8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BL2" s="16">
         <f>BNVFE!AE8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BM2" s="16">
         <f>BNVFE!AF8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BN2" s="16">
         <f>BNVFE!AG8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BO2" s="16">
         <f>BNVFE!AH8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BP2" s="16">
         <f>BNVFE!AI8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BQ2" s="16">
         <f>BNVFE!AJ8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BR2" s="16">
         <f>BNVFE!AK8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BS2" s="16">
         <f>BNVFE!AL8</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="BT2" s="4"/>
     </row>
@@ -13826,199 +13816,199 @@
       <c r="V3" s="11"/>
       <c r="W3" s="17">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="X3" s="17">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Y3" s="17">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Z3" s="17">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AA3" s="17">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AB3" s="17">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AC3" s="17">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AD3" s="17">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AE3" s="17">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AF3" s="17">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AG3" s="17">
         <f>$AK3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AH3" s="17">
         <f t="shared" ref="AH3:AJ3" si="1">$AK3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AI3" s="17">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AJ3" s="14">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AK3" s="15">
         <f>BNVFE!D9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AL3" s="16">
         <f>BNVFE!E9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AM3" s="16">
         <f>BNVFE!F9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AN3" s="16">
         <f>BNVFE!G9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AO3" s="16">
         <f>BNVFE!H9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AP3" s="16">
         <f>BNVFE!I9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AQ3" s="16">
         <f>BNVFE!J9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AR3" s="16">
         <f>BNVFE!K9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AS3" s="16">
         <f>BNVFE!L9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AT3" s="16">
         <f>BNVFE!M9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AU3" s="16">
         <f>BNVFE!N9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AV3" s="16">
         <f>BNVFE!O9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AW3" s="16">
         <f>BNVFE!P9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AX3" s="16">
         <f>BNVFE!Q9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AY3" s="16">
         <f>BNVFE!R9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AZ3" s="16">
         <f>BNVFE!S9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BA3" s="16">
         <f>BNVFE!T9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BB3" s="16">
         <f>BNVFE!U9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BC3" s="16">
         <f>BNVFE!V9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BD3" s="16">
         <f>BNVFE!W9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BE3" s="16">
         <f>BNVFE!X9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BF3" s="16">
         <f>BNVFE!Y9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BG3" s="16">
         <f>BNVFE!Z9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BH3" s="16">
         <f>BNVFE!AA9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BI3" s="16">
         <f>BNVFE!AB9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BJ3" s="16">
         <f>BNVFE!AC9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BK3" s="16">
         <f>BNVFE!AD9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BL3" s="16">
         <f>BNVFE!AE9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BM3" s="16">
         <f>BNVFE!AF9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BN3" s="16">
         <f>BNVFE!AG9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BO3" s="16">
         <f>BNVFE!AH9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BP3" s="16">
         <f>BNVFE!AI9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BQ3" s="16">
         <f>BNVFE!AJ9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BR3" s="16">
         <f>BNVFE!AK9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BS3" s="16">
         <f>BNVFE!AL9</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="BT3" s="4"/>
     </row>
@@ -14054,7 +14044,7 @@
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="17">
-        <f t="shared" ref="I4:AJ5" si="2">$AK4</f>
+        <f t="shared" ref="AA4:AJ5" si="2">$AK4</f>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AB4" s="17">
@@ -14713,7 +14703,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="4">
-        <f t="shared" ref="M7:AI7" si="4">TREND($AK7:$BS7,$AK$1:$BS$1,Q$1)-($AO7-$AK7)</f>
+        <f t="shared" ref="Q7:AI7" si="4">TREND($AK7:$BS7,$AK$1:$BS$1,Q$1)-($AO7-$AK7)</f>
         <v>7.9693047335343542E-5</v>
       </c>
       <c r="R7" s="4">
@@ -16313,7 +16303,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="4">
-        <f t="shared" ref="T13:AI13" si="7">$AK13</f>
+        <f t="shared" ref="AA13:AI13" si="7">$AK13</f>
         <v>2.8695692967972252E-4</v>
       </c>
       <c r="AB13" s="4">
@@ -16508,9 +16498,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -16626,143 +16616,143 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.8404185674067506E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>6.0657452978226702E-4</v>
+        <v>1.8957186301431965E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>6.2429234250786835E-4</v>
+        <v>1.9510186928796494E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>6.4201015523346415E-4</v>
+        <v>2.0063187556161022E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>6.5972796795906547E-4</v>
+        <v>2.0616188183525549E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
       <c r="AJ2" s="4">
         <f>AJ$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7744578068466127E-4</v>
+        <v>2.1169188810889967E-3</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -16771,143 +16761,143 @@
       </c>
       <c r="B3" s="4">
         <f>B$4</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:AJ5" si="0">C$4</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9049448042748884E-4</v>
+        <v>5.9534965244166516E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9605875219255373E-4</v>
+        <v>6.1271661429278257E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>2.0162302395761687E-4</v>
+        <v>6.3008357614389998E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>2.0718729572268176E-4</v>
+        <v>6.4745053799501739E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AH3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AI3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AJ3" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -16916,143 +16906,143 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!W2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!X2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!Y2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!Z2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AA2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>1.9049448042748884E-4</v>
+        <v>5.9534965244166516E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>1.9605875219255373E-4</v>
+        <v>6.1271661429278257E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>2.0162302395761687E-4</v>
+        <v>6.3008357614389998E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>2.0718729572268176E-4</v>
+        <v>6.4745053799501739E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AG4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AH4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AI4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AJ4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -17061,143 +17051,143 @@
       </c>
       <c r="B5" s="4">
         <f>B$4</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>1.849302086624257E-4</v>
+        <v>5.7798269059054991E-4</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>1.9049448042748884E-4</v>
+        <v>5.9534965244166516E-4</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>1.9605875219255373E-4</v>
+        <v>6.1271661429278257E-4</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>2.0162302395761687E-4</v>
+        <v>6.3008357614389998E-4</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>2.0718729572268176E-4</v>
+        <v>6.4745053799501739E-4</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="0"/>
-        <v>2.127515674877449E-4</v>
+        <v>6.6481749984613134E-4</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -17206,143 +17196,143 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.2723224228394605E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>4.1933850757261686E-4</v>
+        <v>1.3105525901775073E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>4.3158722686597678E-4</v>
+        <v>1.3487827575155594E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>4.4383594615933291E-4</v>
+        <v>1.3870129248536112E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>4.5608466545269278E-4</v>
+        <v>1.425243092191663E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AH$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="AI6" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AI$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
       <c r="AJ6" s="4">
         <f>AJ$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AJ$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6833338474604891E-4</v>
+        <v>1.4634732595297073E-3</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -17469,9 +17459,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -17587,143 +17577,143 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
       <c r="AJ2" s="4">
         <f>AJ$4/(1-'Other Values'!$B$2)</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157239E-3</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -17732,143 +17722,143 @@
       </c>
       <c r="B3" s="4">
         <f>B$4</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:AJ3" si="0">C$4</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AH3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AI3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AJ3" s="4">
         <f t="shared" si="0"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -17877,143 +17867,143 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!W3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!X3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!Y3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!Z3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AA3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AB3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AC3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AD3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AE3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AF3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AG3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AH3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AI3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AJ3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AK3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AL3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AM3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AN3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AO3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AP3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AQ3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AR3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AS3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AT3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AU3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AV3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!AW3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!AX3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!AY3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!AZ3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BA3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AG4" s="4">
         <f>Extrapolations!BB3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AH4" s="4">
         <f>Extrapolations!BC3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AI4" s="4">
         <f>Extrapolations!BD3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AJ4" s="4">
         <f>Extrapolations!BE3</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -18022,143 +18012,143 @@
       </c>
       <c r="B5" s="4">
         <f>B$4</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:AJ5" si="1">C$4</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="1"/>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -18167,143 +18157,143 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AH$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="AI6" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AI$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
       <c r="AJ6" s="4">
         <f>AJ$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AJ$4*(1-'Other Values'!$B$6)</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.5208015253826698E-4</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -18430,9 +18420,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -19391,9 +19381,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -20352,9 +20342,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FA980C-FB8F-457F-8DFD-79D5525CA89A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -41,7 +40,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="78">
   <si>
     <t>Sources:</t>
   </si>
@@ -268,17 +267,38 @@
   <si>
     <t>The technology multiplier for LPG is the same as that of Gasoline &amp; Diesel, from BNVFE sheet.</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>km/l</t>
+  </si>
+  <si>
+    <t>BTU/km</t>
+  </si>
+  <si>
+    <t>BTU/psgr-km</t>
+  </si>
+  <si>
+    <t>psgr-km/BTU</t>
+  </si>
+  <si>
+    <t>psgr-mi/BTU</t>
+  </si>
+  <si>
+    <t>Psgr LDVs, Gasoline (psgr-mi/BTU)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -950,33 +970,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1108,7 +1128,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1175,7 +1195,7 @@
     <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1184,159 +1204,159 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="153">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1366,6 +1386,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1401,151 +1422,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.2113409683035476E-3</c:v>
+                  <c:v>6.3882446012192978E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.2477387925424188E-3</c:v>
+                  <c:v>6.574596268394961E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.284136616781284E-3</c:v>
+                  <c:v>6.7609479355706936E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.3205344410201492E-3</c:v>
+                  <c:v>6.9472996027463568E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.3569322652590143E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>1.3933300894978799E-3</c:v>
+                  <c:v>7.133651269922097E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,6 +1651,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1951,6 +1973,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1986,139 +2009,139 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24">
-                  <c:v>1.9289849122619326E-3</c:v>
+                  <c:v>1.5431879298095448E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9289849122619326E-3</c:v>
+                  <c:v>1.5431879298095448E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.9289849122619326E-3</c:v>
+                  <c:v>1.5431879298095448E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9289849122619326E-3</c:v>
+                  <c:v>1.5431879298095448E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.9289849122619326E-3</c:v>
+                  <c:v>1.5431879298095448E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.9289849122619326E-3</c:v>
+                  <c:v>1.5431879298095448E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9289849122619326E-3</c:v>
+                  <c:v>1.5431879298095448E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9289849122619326E-3</c:v>
+                  <c:v>1.5431879298095448E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.9289849122619326E-3</c:v>
+                  <c:v>1.5431879298095448E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9289849122619326E-3</c:v>
+                  <c:v>1.5431879298095448E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.9289849122619321E-3</c:v>
+                  <c:v>1.5431879298095457E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,6 +2242,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2254,139 +2278,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>2.8695692967972252E-4</c:v>
+                  <c:v>1.1883392852619099E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2736,6 +2760,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3240,6 +3265,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3522,6 +3548,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3804,6 +3831,22 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>rail psgr</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3816,234 +3859,223 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Extrapolations!$A$8:$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>rail</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>psgr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>series</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$8:$BT$8</c:f>
+              <c:f>Extrapolations!$C$8:$BS$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.6880206543420136E-4</c:v>
+                  <c:v>2.4412212193692241E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.6880206543420093E-4</c:v>
+                  <c:v>2.4412212193692232E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4129,11 +4161,22 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1496062992125984E-2"/>
+          <c:y val="0.19989079832174264"/>
+          <c:w val="0.93590551181102366"/>
+          <c:h val="0.67333716497116691"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -4164,211 +4207,211 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.9178616427142195E-3</c:v>
+                  <c:v>7.0214683806076091E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.9178616427142247E-3</c:v>
+                  <c:v>7.0214683806076135E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4453,6 +4496,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5355,23 +5399,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5407,23 +5434,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5599,17 +5609,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="107.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5781,7 +5791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5791,12 +5801,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -6692,7 +6702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6702,12 +6712,12 @@
       <selection activeCell="B7" sqref="B7:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -7141,139 +7151,139 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!C8</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!D8</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!E8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!F8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!G8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!H8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!I8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!J8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!K8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!L8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!M8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!N8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!O8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!P8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Q8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!R8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!S8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!T8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!U8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!V8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!W8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!X8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!Y8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!Z8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AA8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AB8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AC8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AD8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AE8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AF8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AG8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AG5" s="4">
         <f>Extrapolations!AH8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AH5" s="4">
         <f>Extrapolations!AI8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AI5" s="4">
         <f>Extrapolations!AJ8</f>
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -7603,7 +7613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7613,12 +7623,12 @@
       <selection activeCell="B7" sqref="B7:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -8052,139 +8062,139 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!C9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!D9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!E9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!F9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!G9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!H9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!I9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!J9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!K9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!L9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!M9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!N9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!O9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!P9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Q9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!R9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!S9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!T9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!U9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!V9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!W9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!X9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!Y9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!Z9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AA9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AB9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AC9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AD9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AE9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AF9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AG9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AG5" s="4">
         <f>Extrapolations!AH9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AH5" s="4">
         <f>Extrapolations!AI9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AI5" s="4">
         <f>Extrapolations!AJ9</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -8514,7 +8524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8524,12 +8534,12 @@
       <selection activeCell="B7" sqref="B7:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -9425,7 +9435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9435,12 +9445,12 @@
       <selection activeCell="B7" sqref="B7:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -10336,7 +10346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10346,12 +10356,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -10464,139 +10474,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287844E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287844E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287844E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287844E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287844E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287844E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287844E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287844E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287844E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287844E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)</f>
-        <v>6.1422940627287826E-3</v>
+        <v>4.9138352501830263E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -10605,139 +10615,139 @@
       </c>
       <c r="B3" s="4">
         <f>B$4</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:AI3" si="0">C$4</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AH3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AI3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -10746,139 +10756,139 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AA12</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AB12</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AC12</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AD12</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AE12</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AF12</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AG12</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AH12</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AI12</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AJ12</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AK12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AL12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AM12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AN12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AO12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AP12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AQ12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AR12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AS12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AT12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AU12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AV12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AW12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AX12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AY12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AZ12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BA12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BB12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BC12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BD12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BE12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AG4" s="4">
         <f>Extrapolations!BF12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AH4" s="4">
         <f>Extrapolations!BG12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AI4" s="4">
         <f>Extrapolations!BH12</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -10887,139 +10897,139 @@
       </c>
       <c r="B5" s="4">
         <f>B$4</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:AI5" si="1">C$4</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -11028,139 +11038,139 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AH$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
       <c r="AI6" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AI$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2463049450186998E-3</v>
+        <v>3.3970439560149601E-3</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -11169,139 +11179,139 @@
       </c>
       <c r="B7" s="4">
         <f>B4</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:AI7" si="2">C4</f>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AF7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AH7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AI7" s="4">
         <f t="shared" si="2"/>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -11423,7 +11433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11433,12 +11443,12 @@
       <selection activeCell="C8" sqref="C8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -11551,139 +11561,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)</f>
-        <v>9.1373127608543206E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -11692,139 +11702,139 @@
       </c>
       <c r="B3" s="4">
         <f>B$4</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:AI3" si="0">C$4</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AH3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AI3" s="4">
         <f t="shared" si="0"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -11833,139 +11843,139 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AA13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AB13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AC13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AD13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AE13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AF13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AG13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AH13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AI13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AJ13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AK13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AL13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AM13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AN13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AO13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AP13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AQ13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AR13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AS13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AT13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AU13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AV13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AW13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AX13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AY13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AZ13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BA13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BB13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BC13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BD13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BE13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AG4" s="4">
         <f>Extrapolations!BF13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AH4" s="4">
         <f>Extrapolations!BG13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AI4" s="4">
         <f>Extrapolations!BH13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -11974,139 +11984,139 @@
       </c>
       <c r="B5" s="4">
         <f>B$4</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:AI5" si="1">C$4</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="1"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -12115,139 +12125,139 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AH$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="AI6" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AI$4*(1-'Other Values'!$B$6)</f>
-        <v>6.3168282020286282E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -12256,139 +12266,139 @@
       </c>
       <c r="B7" s="4">
         <f>B4</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:AI7" si="2">C4</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AF7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AH7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AI7" s="4">
         <f t="shared" si="2"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -12504,18 +12514,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:AK15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -12702,106 +12712,106 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>1.2477387925424188E-3</v>
+        <v>6.574596268394961E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>1.284136616781284E-3</v>
+        <v>6.7609479355706936E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>1.3205344410201492E-3</v>
+        <v>6.9472996027463568E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>1.3569322652590143E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AH8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AI8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AJ8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AK8" s="4">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -13380,106 +13390,106 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="E14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="F14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="G14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="H14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="I14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="J14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="K14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="L14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="M14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="N14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="O14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="P14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="Q14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="R14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="S14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="T14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="U14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="V14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="W14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="X14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="Y14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="Z14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AA14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AB14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AC14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AD14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AE14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AF14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AG14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AH14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AI14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AJ14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AK14" s="4">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -13493,106 +13503,106 @@
         <v>5</v>
       </c>
       <c r="D15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="E15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="F15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="G15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="H15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="I15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="J15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="K15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="L15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="M15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="N15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="O15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="P15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="Q15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="R15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="S15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="T15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="U15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="V15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="W15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="X15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="Y15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="Z15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AA15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AB15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AC15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AD15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AE15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AF15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AG15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AH15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AI15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AJ15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AK15" s="4">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -13832,106 +13842,106 @@
         <v>4</v>
       </c>
       <c r="D18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="E18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="F18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="G18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="H18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="I18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="J18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="K18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="L18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="M18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="N18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="O18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="P18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Q18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="R18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="S18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="T18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="U18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="V18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="W18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="X18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Y18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="Z18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AA18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AB18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AC18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AD18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AE18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AF18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AG18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AH18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AI18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AJ18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AK18" s="4">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -13945,106 +13955,106 @@
         <v>4</v>
       </c>
       <c r="D19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="E19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="F19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="G19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="H19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="I19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="J19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="K19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="L19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="M19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="N19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="O19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="P19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Q19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="R19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="S19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="T19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="U19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="V19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="W19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="X19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Y19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="Z19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AA19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AB19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AC19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AD19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AE19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AF19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AG19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AH19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AI19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AJ19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AK19" s="4">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
     </row>
   </sheetData>
@@ -14053,19 +14063,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -14382,17 +14392,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BT13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BT56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
@@ -14633,201 +14643,201 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
-      <c r="W2" s="17">
-        <f t="shared" ref="W2:AJ3" si="0">$AK2</f>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="X2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="Y2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="Z2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AA2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AB2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AC2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AD2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AE2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AF2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AG2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AH2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AI2" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+      <c r="W2" s="14">
+        <f t="shared" ref="W2:AJ2" si="0">X2</f>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="X2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="Y2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="Z2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AA2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AB2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AC2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AD2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AE2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AF2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AG2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AH2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AI2" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="AJ2" s="14">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AK2" s="15">
-        <f>BNVFE!D8</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AK2" s="14">
+        <f>AL2</f>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="AL2" s="16">
         <f>BNVFE!D8</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="AM2" s="16">
         <f>BNVFE!E8</f>
-        <v>1.2477387925424188E-3</v>
+        <v>6.574596268394961E-4</v>
       </c>
       <c r="AN2" s="16">
         <f>BNVFE!F8</f>
-        <v>1.284136616781284E-3</v>
+        <v>6.7609479355706936E-4</v>
       </c>
       <c r="AO2" s="16">
         <f>BNVFE!G8</f>
-        <v>1.3205344410201492E-3</v>
+        <v>6.9472996027463568E-4</v>
       </c>
       <c r="AP2" s="16">
         <f>BNVFE!H8</f>
-        <v>1.3569322652590143E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AQ2" s="16">
         <f>BNVFE!I8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AR2" s="16">
         <f>BNVFE!J8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AS2" s="16">
         <f>BNVFE!K8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AT2" s="16">
         <f>BNVFE!L8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AU2" s="16">
         <f>BNVFE!M8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AV2" s="16">
         <f>BNVFE!N8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AW2" s="16">
         <f>BNVFE!O8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AX2" s="16">
         <f>BNVFE!P8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AY2" s="16">
         <f>BNVFE!Q8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AZ2" s="16">
         <f>BNVFE!R8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BA2" s="16">
         <f>BNVFE!S8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BB2" s="16">
         <f>BNVFE!T8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BC2" s="16">
         <f>BNVFE!U8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BD2" s="16">
         <f>BNVFE!V8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BE2" s="16">
         <f>BNVFE!W8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BF2" s="16">
         <f>BNVFE!X8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BG2" s="16">
         <f>BNVFE!Y8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BH2" s="16">
         <f>BNVFE!Z8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BI2" s="16">
         <f>BNVFE!AA8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BJ2" s="16">
         <f>BNVFE!AB8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BK2" s="16">
         <f>BNVFE!AC8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BL2" s="16">
         <f>BNVFE!AD8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BM2" s="16">
         <f>BNVFE!AE8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BN2" s="16">
         <f>BNVFE!AF8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BO2" s="16">
         <f>BNVFE!AG8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BP2" s="16">
         <f>BNVFE!AH8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BQ2" s="16">
         <f>BNVFE!AI8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BR2" s="16">
         <f>BNVFE!AJ8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BS2" s="16">
         <f>BNVFE!AK8</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BT2" s="4"/>
     </row>
@@ -14859,43 +14869,43 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W3:AF3" si="1">$AK3</f>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="X3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="Y3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="Z3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AA3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AB3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AC3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AD3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AE3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AF3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AG3" s="17">
@@ -14903,15 +14913,15 @@
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AH3" s="17">
-        <f t="shared" ref="AH3:AJ3" si="1">$AK3</f>
+        <f t="shared" ref="AH3:AJ3" si="2">$AK3</f>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AI3" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AJ3" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AK3" s="15">
@@ -15088,43 +15098,43 @@
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="17">
-        <f t="shared" ref="AA4:AJ5" si="2">$AK4</f>
+        <f t="shared" ref="AA4:AJ5" si="3">$AK4</f>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AB4" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AC4" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AD4" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AE4" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AF4" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AG4" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AH4" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AI4" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AJ4" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AK4" s="15">
@@ -15301,43 +15311,43 @@
       <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
       <c r="AA5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AB5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AC5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AD5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AE5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AF5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AG5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AH5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AI5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AJ5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AK5" s="15">
@@ -15504,83 +15514,83 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="4">
-        <f t="shared" ref="C6:AJ12" si="3">TREND($AK6:$BS6,$AK$1:$BS$1,Q$1)</f>
+        <f t="shared" ref="C6:AJ12" si="4">TREND($AK6:$BS6,$AK$1:$BS$1,Q$1)</f>
         <v>4.3772593496740637E-4</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3997234608807861E-4</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4221875720874999E-4</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4446516832942137E-4</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4671157945009275E-4</v>
       </c>
       <c r="V6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4895799057076413E-4</v>
       </c>
       <c r="W6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5120440169143551E-4</v>
       </c>
       <c r="X6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5345081281210689E-4</v>
       </c>
       <c r="Y6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5569722393277827E-4</v>
       </c>
       <c r="Z6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5794363505344965E-4</v>
       </c>
       <c r="AA6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6019004617412103E-4</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6243645729479241E-4</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6468286841546465E-4</v>
       </c>
       <c r="AD6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6692927953613603E-4</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6917569065680741E-4</v>
       </c>
       <c r="AF6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7142210177747879E-4</v>
       </c>
       <c r="AG6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7366851289815017E-4</v>
       </c>
       <c r="AH6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7591492401882155E-4</v>
       </c>
       <c r="AI6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7816133513949293E-4</v>
       </c>
       <c r="AJ6" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8040774626016431E-4</v>
       </c>
       <c r="AK6" s="15">
@@ -15747,79 +15757,79 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="4">
-        <f t="shared" ref="Q7:AI7" si="4">TREND($AK7:$BS7,$AK$1:$BS$1,Q$1)-($AO7-$AK7)</f>
+        <f t="shared" ref="Q7:AI7" si="5">TREND($AK7:$BS7,$AK$1:$BS$1,Q$1)-($AO7-$AK7)</f>
         <v>8.0797052950278472E-5</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.2316915313046646E-5</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.3836777675815253E-5</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.5356640038583426E-5</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.68765024013516E-5</v>
       </c>
       <c r="V7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.8396364764119773E-5</v>
       </c>
       <c r="W7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9916227126887946E-5</v>
       </c>
       <c r="X7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.143608948965612E-5</v>
       </c>
       <c r="Y7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.2955951852424293E-5</v>
       </c>
       <c r="Z7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.4475814215192467E-5</v>
       </c>
       <c r="AA7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.599567657796064E-5</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.7515538940728814E-5</v>
       </c>
       <c r="AC7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9035401303496987E-5</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0055526366626516E-4</v>
       </c>
       <c r="AE7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0207512602903333E-4</v>
       </c>
       <c r="AF7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0359498839180151E-4</v>
       </c>
       <c r="AG7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0511485075457011E-4</v>
       </c>
       <c r="AH7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0663471311733829E-4</v>
       </c>
       <c r="AI7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0815457548010646E-4</v>
       </c>
       <c r="AJ7" s="14">
@@ -15976,280 +15986,280 @@
         <v>20</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:D8" si="5">$AK8</f>
-        <v>8.6880206543420093E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="5"/>
-        <v>8.6880206543420093E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="V8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="X8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="Y8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="Z8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AA8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AB8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AC8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AD8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AE8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AF8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AG8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AH8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AI8" s="4">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AJ8" s="14">
-        <f t="shared" si="3"/>
-        <v>8.6880206543420136E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AK8" s="15">
         <f>BNVFE!D14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AL8" s="16">
         <f>BNVFE!D14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AM8" s="16">
         <f>BNVFE!E14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AN8" s="16">
         <f>BNVFE!F14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AO8" s="16">
         <f>BNVFE!G14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AP8" s="16">
         <f>BNVFE!H14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AQ8" s="16">
         <f>BNVFE!I14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AR8" s="16">
         <f>BNVFE!J14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AS8" s="16">
         <f>BNVFE!K14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AT8" s="16">
         <f>BNVFE!L14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AU8" s="16">
         <f>BNVFE!M14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AV8" s="16">
         <f>BNVFE!N14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AW8" s="16">
         <f>BNVFE!O14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AX8" s="16">
         <f>BNVFE!P14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AY8" s="16">
         <f>BNVFE!Q14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AZ8" s="16">
         <f>BNVFE!R14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BA8" s="16">
         <f>BNVFE!S14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BB8" s="16">
         <f>BNVFE!T14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BC8" s="16">
         <f>BNVFE!U14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BD8" s="16">
         <f>BNVFE!V14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BE8" s="16">
         <f>BNVFE!W14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BF8" s="16">
         <f>BNVFE!X14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BG8" s="16">
         <f>BNVFE!Y14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BH8" s="16">
         <f>BNVFE!Z14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BI8" s="16">
         <f>BNVFE!AA14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BJ8" s="16">
         <f>BNVFE!AB14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BK8" s="16">
         <f>BNVFE!AC14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BL8" s="16">
         <f>BNVFE!AD14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BM8" s="16">
         <f>BNVFE!AE14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BN8" s="16">
         <f>BNVFE!AF14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BO8" s="16">
         <f>BNVFE!AG14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BP8" s="16">
         <f>BNVFE!AH14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BQ8" s="16">
         <f>BNVFE!AI14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BR8" s="16">
         <f>BNVFE!AJ14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BS8" s="16">
         <f>BNVFE!AK14</f>
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BT8" s="4"/>
     </row>
@@ -16261,280 +16271,280 @@
         <v>21</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="F9" s="4">
         <f>TREND($AK9:$BS9,$AK$1:$BS$1,F$1)</f>
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="V9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Y9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Z9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AA9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AB9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AC9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AD9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AE9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AF9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AG9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AH9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AI9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AJ9" s="14">
-        <f t="shared" si="3"/>
-        <v>5.9178616427142195E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AK9" s="15">
         <f>BNVFE!D15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AL9" s="16">
         <f>BNVFE!D15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AM9" s="16">
         <f>BNVFE!E15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AN9" s="16">
         <f>BNVFE!F15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AO9" s="16">
         <f>BNVFE!G15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AP9" s="16">
         <f>BNVFE!H15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AQ9" s="16">
         <f>BNVFE!I15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AR9" s="16">
         <f>BNVFE!J15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AS9" s="16">
         <f>BNVFE!K15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AT9" s="16">
         <f>BNVFE!L15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AU9" s="16">
         <f>BNVFE!M15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AV9" s="16">
         <f>BNVFE!N15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AW9" s="16">
         <f>BNVFE!O15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AX9" s="16">
         <f>BNVFE!P15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AY9" s="16">
         <f>BNVFE!Q15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AZ9" s="16">
         <f>BNVFE!R15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BA9" s="16">
         <f>BNVFE!S15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BB9" s="16">
         <f>BNVFE!T15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BC9" s="16">
         <f>BNVFE!U15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BD9" s="16">
         <f>BNVFE!V15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BE9" s="16">
         <f>BNVFE!W15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BF9" s="16">
         <f>BNVFE!X15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BG9" s="16">
         <f>BNVFE!Y15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BH9" s="16">
         <f>BNVFE!Z15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BI9" s="16">
         <f>BNVFE!AA15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BJ9" s="16">
         <f>BNVFE!AB15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BK9" s="16">
         <f>BNVFE!AC15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BL9" s="16">
         <f>BNVFE!AD15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BM9" s="16">
         <f>BNVFE!AE15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BN9" s="16">
         <f>BNVFE!AF15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BO9" s="16">
         <f>BNVFE!AG15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BP9" s="16">
         <f>BNVFE!AH15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BQ9" s="16">
         <f>BNVFE!AI15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BR9" s="16">
         <f>BNVFE!AJ15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BS9" s="16">
         <f>BNVFE!AK15</f>
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BT9" s="4"/>
     </row>
@@ -16551,131 +16561,131 @@
         <v>1.9362141353943107E-4</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AC10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AD10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AE10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AF10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AG10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AH10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AI10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AJ10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AK10" s="15">
@@ -16833,7 +16843,7 @@
         <v>3.3209939763395591E-3</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3814550029391821E-3</v>
       </c>
       <c r="F11" s="4">
@@ -16841,123 +16851,123 @@
         <v>3.441916029538819E-3</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5023770561384421E-3</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5628380827380651E-3</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6232991093377021E-3</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6837601359373251E-3</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7442211625369481E-3</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8046821891365851E-3</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8651432157362081E-3</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.925604242335845E-3</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9860652689354681E-3</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0465262955350911E-3</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1069873221347281E-3</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1674483487343511E-3</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2279093753339742E-3</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2883704019336111E-3</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3488314285332341E-3</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.409292455132871E-3</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4697534817324941E-3</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5302145083321171E-3</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5906755349317541E-3</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6511365615313771E-3</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7115975881310002E-3</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7720586147306371E-3</v>
       </c>
       <c r="AC11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8325196413302601E-3</v>
       </c>
       <c r="AD11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8929806679298971E-3</v>
       </c>
       <c r="AE11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9534416945295201E-3</v>
       </c>
       <c r="AF11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0139027211291431E-3</v>
       </c>
       <c r="AG11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0743637477287801E-3</v>
       </c>
       <c r="AH11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1348247743284031E-3</v>
       </c>
       <c r="AI11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1952858009280262E-3</v>
       </c>
       <c r="AJ11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2557468275276631E-3</v>
       </c>
       <c r="AK11" s="15">
@@ -17134,184 +17144,184 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9289849122619326E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9289849122619326E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9289849122619326E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9289849122619326E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9289849122619326E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AF12" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9289849122619326E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9289849122619326E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AH12" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9289849122619326E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9289849122619326E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AJ12" s="14">
-        <f t="shared" si="3"/>
-        <v>1.9289849122619326E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AK12" s="15">
         <f>BNVFE!D18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AL12" s="16">
         <f>BNVFE!D18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AM12" s="16">
         <f>BNVFE!E18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AN12" s="16">
         <f>BNVFE!F18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AO12" s="16">
         <f>BNVFE!G18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AP12" s="16">
         <f>BNVFE!H18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AQ12" s="16">
         <f>BNVFE!I18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AR12" s="16">
         <f>BNVFE!J18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AS12" s="16">
         <f>BNVFE!K18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AT12" s="16">
         <f>BNVFE!L18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AU12" s="16">
         <f>BNVFE!M18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AV12" s="16">
         <f>BNVFE!N18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AW12" s="16">
         <f>BNVFE!O18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AX12" s="16">
         <f>BNVFE!P18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AY12" s="16">
         <f>BNVFE!Q18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AZ12" s="16">
         <f>BNVFE!R18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BA12" s="16">
         <f>BNVFE!S18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BB12" s="16">
         <f>BNVFE!T18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BC12" s="16">
         <f>BNVFE!U18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BD12" s="16">
         <f>BNVFE!V18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BE12" s="16">
         <f>BNVFE!W18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BF12" s="16">
         <f>BNVFE!X18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BG12" s="16">
         <f>BNVFE!Y18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BH12" s="16">
         <f>BNVFE!Z18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BI12" s="16">
         <f>BNVFE!AA18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BJ12" s="16">
         <f>BNVFE!AB18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BK12" s="16">
         <f>BNVFE!AC18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BL12" s="16">
         <f>BNVFE!AD18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BM12" s="16">
         <f>BNVFE!AE18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BN12" s="16">
         <f>BNVFE!AF18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BO12" s="16">
         <f>BNVFE!AG18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BP12" s="16">
         <f>BNVFE!AH18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BQ12" s="16">
         <f>BNVFE!AI18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BR12" s="16">
         <f>BNVFE!AJ18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BS12" s="16">
         <f>BNVFE!AK18</f>
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BT12" s="4"/>
     </row>
@@ -17348,183 +17358,620 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="4">
         <f t="shared" ref="AA13:AI13" si="7">$AK13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AB13" s="4">
         <f t="shared" si="7"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AC13" s="4">
         <f t="shared" si="7"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AD13" s="4">
         <f t="shared" si="7"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AE13" s="4">
         <f t="shared" si="7"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AF13" s="4">
         <f t="shared" si="7"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="7"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AH13" s="4">
         <f t="shared" si="7"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AI13" s="4">
         <f t="shared" si="7"/>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AJ13" s="14">
         <f>$AK13</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AK13" s="15">
         <f>BNVFE!D19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AL13" s="16">
         <f>BNVFE!D19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AM13" s="16">
         <f>BNVFE!E19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AN13" s="16">
         <f>BNVFE!F19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AO13" s="16">
         <f>BNVFE!G19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AP13" s="16">
         <f>BNVFE!H19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AQ13" s="16">
         <f>BNVFE!I19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AR13" s="16">
         <f>BNVFE!J19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AS13" s="16">
         <f>BNVFE!K19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AT13" s="16">
         <f>BNVFE!L19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AU13" s="16">
         <f>BNVFE!M19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AV13" s="16">
         <f>BNVFE!N19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AW13" s="16">
         <f>BNVFE!O19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AX13" s="16">
         <f>BNVFE!P19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AY13" s="16">
         <f>BNVFE!Q19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AZ13" s="16">
         <f>BNVFE!R19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BA13" s="16">
         <f>BNVFE!S19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BB13" s="16">
         <f>BNVFE!T19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BC13" s="16">
         <f>BNVFE!U19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BD13" s="16">
         <f>BNVFE!V19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BE13" s="16">
         <f>BNVFE!W19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BF13" s="16">
         <f>BNVFE!X19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BG13" s="16">
         <f>BNVFE!Y19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BH13" s="16">
         <f>BNVFE!Z19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BI13" s="16">
         <f>BNVFE!AA19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BJ13" s="16">
         <f>BNVFE!AB19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BK13" s="16">
         <f>BNVFE!AC19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BL13" s="16">
         <f>BNVFE!AD19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BM13" s="16">
         <f>BNVFE!AE19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BN13" s="16">
         <f>BNVFE!AF19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BO13" s="16">
         <f>BNVFE!AG19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BP13" s="16">
         <f>BNVFE!AH19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BQ13" s="16">
         <f>BNVFE!AI19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BR13" s="16">
         <f>BNVFE!AJ19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BS13" s="16">
         <f>BNVFE!AK19</f>
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47">
+        <v>2021</v>
+      </c>
+      <c r="D47">
+        <v>20.709724091851811</v>
+      </c>
+      <c r="E47">
+        <v>1560.8681637371849</v>
+      </c>
+      <c r="F47">
+        <v>411.91631433310613</v>
+      </c>
+      <c r="G47">
+        <v>2.4276775772258579E-3</v>
+      </c>
+      <c r="H47">
+        <v>1.5084926598642038E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48">
+        <v>2016</v>
+      </c>
+      <c r="D48">
+        <v>18.004733712284658</v>
+      </c>
+      <c r="E48">
+        <v>1795.3694584606365</v>
+      </c>
+      <c r="F48">
+        <v>473.80168766120875</v>
+      </c>
+      <c r="G48">
+        <v>2.1105876699937984E-3</v>
+      </c>
+      <c r="H48">
+        <v>1.3114616364433857E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:48">
+      <c r="C49">
+        <v>2012</v>
+      </c>
+      <c r="D49">
+        <v>17.211393460387786</v>
+      </c>
+      <c r="E49">
+        <v>1878.1250390416772</v>
+      </c>
+      <c r="F49">
+        <v>495.64105535118767</v>
+      </c>
+      <c r="G49">
+        <v>2.0175891185839068E-3</v>
+      </c>
+      <c r="H49">
+        <v>1.2536748720493537E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:48">
+      <c r="C50">
+        <v>2011</v>
+      </c>
+      <c r="D50">
+        <v>17.211393460387786</v>
+      </c>
+      <c r="E50">
+        <v>1878.1250390416772</v>
+      </c>
+      <c r="F50">
+        <v>495.64105535118767</v>
+      </c>
+      <c r="G50">
+        <v>2.0175891185839068E-3</v>
+      </c>
+      <c r="H50">
+        <v>1.2536748720493537E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:48">
+      <c r="C51">
+        <v>2010</v>
+      </c>
+      <c r="D51">
+        <v>16.96226746103957</v>
+      </c>
+      <c r="E51">
+        <v>1905.7091918282579</v>
+      </c>
+      <c r="F51">
+        <v>502.92056992764282</v>
+      </c>
+      <c r="G51">
+        <v>1.9883855618470208E-3</v>
+      </c>
+      <c r="H51">
+        <v>1.2355285780798469E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:48">
+      <c r="C52">
+        <v>2009</v>
+      </c>
+      <c r="D52">
+        <v>16.601821590736861</v>
+      </c>
+      <c r="E52">
+        <v>1947.0844713081717</v>
+      </c>
+      <c r="F52">
+        <v>513.83959116455617</v>
+      </c>
+      <c r="G52">
+        <v>1.9461326398256297E-3</v>
+      </c>
+      <c r="H52">
+        <v>1.2092737642919642E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:48">
+      <c r="C53">
+        <v>2006</v>
+      </c>
+      <c r="D53">
+        <v>15.301305075439725</v>
+      </c>
+      <c r="E53">
+        <v>2112.5746369594244</v>
+      </c>
+      <c r="F53">
+        <v>557.51278578608299</v>
+      </c>
+      <c r="G53">
+        <v>1.7936808365569912E-3</v>
+      </c>
+      <c r="H53">
+        <v>1.1145443700877325E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:48">
+      <c r="D55">
+        <v>2006</v>
+      </c>
+      <c r="E55">
+        <v>2007</v>
+      </c>
+      <c r="F55">
+        <v>2008</v>
+      </c>
+      <c r="G55">
+        <v>2009</v>
+      </c>
+      <c r="H55">
+        <v>2010</v>
+      </c>
+      <c r="I55">
+        <v>2011</v>
+      </c>
+      <c r="J55">
+        <v>2012</v>
+      </c>
+      <c r="K55">
+        <v>2013</v>
+      </c>
+      <c r="L55">
+        <v>2014</v>
+      </c>
+      <c r="M55">
+        <v>2015</v>
+      </c>
+      <c r="N55">
+        <v>2016</v>
+      </c>
+      <c r="O55">
+        <v>2017</v>
+      </c>
+      <c r="P55">
+        <v>2018</v>
+      </c>
+      <c r="Q55">
+        <v>2019</v>
+      </c>
+      <c r="R55">
+        <v>2020</v>
+      </c>
+      <c r="S55">
+        <v>2021</v>
+      </c>
+      <c r="T55">
+        <v>2022</v>
+      </c>
+      <c r="U55">
+        <v>2023</v>
+      </c>
+      <c r="V55">
+        <v>2024</v>
+      </c>
+      <c r="W55">
+        <v>2025</v>
+      </c>
+      <c r="X55">
+        <v>2026</v>
+      </c>
+      <c r="Y55">
+        <v>2027</v>
+      </c>
+      <c r="Z55">
+        <v>2028</v>
+      </c>
+      <c r="AA55">
+        <v>2029</v>
+      </c>
+      <c r="AB55">
+        <v>2030</v>
+      </c>
+      <c r="AC55">
+        <v>2031</v>
+      </c>
+      <c r="AD55">
+        <v>2032</v>
+      </c>
+      <c r="AE55">
+        <v>2033</v>
+      </c>
+      <c r="AF55">
+        <v>2034</v>
+      </c>
+      <c r="AG55">
+        <v>2035</v>
+      </c>
+      <c r="AH55">
+        <v>2036</v>
+      </c>
+      <c r="AI55">
+        <v>2037</v>
+      </c>
+      <c r="AJ55">
+        <v>2038</v>
+      </c>
+      <c r="AK55">
+        <v>2039</v>
+      </c>
+      <c r="AL55">
+        <v>2040</v>
+      </c>
+      <c r="AM55">
+        <v>2041</v>
+      </c>
+      <c r="AN55">
+        <v>2042</v>
+      </c>
+      <c r="AO55">
+        <v>2043</v>
+      </c>
+      <c r="AP55">
+        <v>2044</v>
+      </c>
+      <c r="AQ55">
+        <v>2045</v>
+      </c>
+      <c r="AR55">
+        <v>2046</v>
+      </c>
+      <c r="AS55">
+        <v>2047</v>
+      </c>
+      <c r="AT55">
+        <v>2048</v>
+      </c>
+      <c r="AU55">
+        <v>2049</v>
+      </c>
+      <c r="AV55">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="56" spans="3:48">
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>6.5405985853042581E-4</v>
+      </c>
+      <c r="E56">
+        <v>6.7259020923837731E-4</v>
+      </c>
+      <c r="F56">
+        <v>6.9112055994632882E-4</v>
+      </c>
+      <c r="G56">
+        <v>7.0965091065427772E-4</v>
+      </c>
+      <c r="H56">
+        <v>7.2505830066289041E-4</v>
+      </c>
+      <c r="I56">
+        <v>7.3570728224234326E-4</v>
+      </c>
+      <c r="J56">
+        <v>7.3570728224234272E-4</v>
+      </c>
+      <c r="K56">
+        <v>7.4418518674728568E-4</v>
+      </c>
+      <c r="L56">
+        <v>7.5266309125222516E-4</v>
+      </c>
+      <c r="M56">
+        <v>7.6114099575716465E-4</v>
+      </c>
+      <c r="N56">
+        <v>7.6961890026210566E-4</v>
+      </c>
+      <c r="O56">
+        <v>7.9274406006073217E-4</v>
+      </c>
+      <c r="P56">
+        <v>8.1586921985937061E-4</v>
+      </c>
+      <c r="Q56">
+        <v>8.3899437965800211E-4</v>
+      </c>
+      <c r="R56">
+        <v>8.6211953945663361E-4</v>
+      </c>
+      <c r="S56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="T56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="U56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="V56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="W56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="X56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="Y56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="Z56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AA56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AB56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AC56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AD56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AE56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AF56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AG56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AH56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AI56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AJ56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AK56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AL56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AM56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AN56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AO56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AP56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AQ56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AR56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AS56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AT56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AU56">
+        <v>8.8524469925526836E-4</v>
+      </c>
+      <c r="AV56">
+        <v>8.8524469925526836E-4</v>
       </c>
     </row>
   </sheetData>
@@ -17534,7 +17981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -17544,12 +17991,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -17662,139 +18109,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>3.8571646622297165E-3</v>
+        <v>2.0341515703882498E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>3.9730629973061225E-3</v>
+        <v>2.0934898644099742E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>4.088961332382509E-3</v>
+        <v>2.1528281584317203E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>4.2048596674588955E-3</v>
+        <v>2.2121664524534447E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>4.3207580025352819E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)</f>
-        <v>4.4366563376116693E-3</v>
+        <v>2.2715047464751934E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -17803,139 +18250,139 @@
       </c>
       <c r="B3" s="4">
         <f>B$4</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:AI5" si="0">C$4</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2477387925424188E-3</v>
+        <v>6.574596268394961E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>1.284136616781284E-3</v>
+        <v>6.7609479355706936E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3205344410201492E-3</v>
+        <v>6.9472996027463568E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3569322652590143E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AH3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AI3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -17944,139 +18391,139 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!W2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!X2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!Y2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!Z2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AA2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>1.2477387925424188E-3</v>
+        <v>6.574596268394961E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>1.284136616781284E-3</v>
+        <v>6.7609479355706936E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>1.3205344410201492E-3</v>
+        <v>6.9472996027463568E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>1.3569322652590143E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AG4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AH4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AI4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -18085,139 +18532,139 @@
       </c>
       <c r="B5" s="4">
         <f>B$4</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2477387925424188E-3</v>
+        <v>6.574596268394961E-4</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>1.284136616781284E-3</v>
+        <v>6.7609479355706936E-4</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3205344410201492E-3</v>
+        <v>6.9472996027463568E-4</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3569322652590143E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="0"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -18226,139 +18673,139 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>2.6665439999629405E-3</v>
+        <v>1.406254370768406E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>2.7466671051624559E-3</v>
+        <v>1.4472762575032591E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>2.8267902103619579E-3</v>
+        <v>1.4882981442381274E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>2.9069133155614599E-3</v>
+        <v>1.5293200309729807E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>2.9870364207609619E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AH$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
       <c r="AI6" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AI$4*(1-'Other Values'!$B$6)</f>
-        <v>3.0671595259604643E-3</v>
+        <v>1.5703419177078507E-3</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -18367,139 +18814,139 @@
       </c>
       <c r="B7" s="4">
         <f>B4</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:AI7" si="1">C4</f>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2477387925424188E-3</v>
+        <v>6.574596268394961E-4</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="1"/>
-        <v>1.284136616781284E-3</v>
+        <v>6.7609479355706936E-4</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3205344410201492E-3</v>
+        <v>6.9472996027463568E-4</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3569322652590143E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AF7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AH7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AI7" s="4">
         <f t="shared" si="1"/>
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -18615,7 +19062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18625,12 +19072,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -19696,7 +20143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -19706,12 +20153,12 @@
       <selection activeCell="B7" sqref="B7:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -20777,7 +21224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -20787,12 +21234,12 @@
       <selection activeCell="B7" sqref="B7:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -21858,7 +22305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21868,12 +22315,12 @@
       <selection activeCell="B7" sqref="B7:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
   <si>
     <t>Sources:</t>
   </si>
@@ -288,6 +288,30 @@
   <si>
     <t>Psgr LDVs, Gasoline (psgr-mi/BTU)</t>
   </si>
+  <si>
+    <t>Hydrogen vs. Gasoline Efficiency</t>
+  </si>
+  <si>
+    <t>gasoline car efficiency</t>
+  </si>
+  <si>
+    <t>hydrogen FCV efficiency</t>
+  </si>
+  <si>
+    <t>distance multiplier for hydrogen vehicles</t>
+  </si>
+  <si>
+    <t>U.S. Department of Energy Hydrogen Program</t>
+  </si>
+  <si>
+    <t>Hydrogen Fuel Cells</t>
+  </si>
+  <si>
+    <t>https://www.californiahydrogen.org/wp-content/uploads/files/doe_fuelcell_factsheet.pdf</t>
+  </si>
+  <si>
+    <t>Hydrogen Efficiency Adjustment</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +324,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +572,14 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -918,7 +950,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
@@ -1173,8 +1205,9 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1202,8 +1235,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="153"/>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="154">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
     <cellStyle name="20% - Accent2 2" xfId="9"/>
     <cellStyle name="20% - Accent3 2" xfId="10"/>
@@ -1272,6 +1306,7 @@
     <cellStyle name="Hed Top" xfId="69"/>
     <cellStyle name="Hed Top - SECTION" xfId="70"/>
     <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="72"/>
     <cellStyle name="Input 2" xfId="73"/>
     <cellStyle name="Linked Cell 2" xfId="74"/>
@@ -1386,7 +1421,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1651,7 +1685,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1973,7 +2006,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2242,7 +2274,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2760,7 +2791,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3265,7 +3295,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3548,7 +3577,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3846,7 +3874,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4161,7 +4188,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4496,7 +4522,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5610,10 +5635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5676,117 +5701,148 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="7"/>
+    </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="19"/>
+    <row r="23" spans="1:2">
+      <c r="A23" s="19"/>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="19" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="19" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="19" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="19" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="19" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="19" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="19" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="19" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="19" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10352,8 +10408,8 @@
   </sheetPr>
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11318,107 +11374,141 @@
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>0</v>
+      <c r="B8" s="4">
+        <f>B4*'Other Values'!$B$31</f>
+        <v>3.8579698245238621E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C4*'Other Values'!$B$31</f>
+        <v>3.8579698245238621E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D4*'Other Values'!$B$31</f>
+        <v>3.8579698245238621E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <f>E4*'Other Values'!$B$31</f>
+        <v>3.8579698245238621E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F4*'Other Values'!$B$31</f>
+        <v>3.8579698245238621E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <f>G4*'Other Values'!$B$31</f>
+        <v>3.8579698245238621E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H4*'Other Values'!$B$31</f>
+        <v>3.8579698245238621E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <f>I4*'Other Values'!$B$31</f>
+        <v>3.8579698245238621E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>J4*'Other Values'!$B$31</f>
+        <v>3.8579698245238621E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <f>K4*'Other Values'!$B$31</f>
+        <v>3.8579698245238621E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <f>M4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <f>N4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <f>O4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="P8" s="4">
+        <f>P4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="R8" s="4">
+        <f>R4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="S8" s="4">
+        <f>S4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="T8" s="4">
+        <f>T4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="U8" s="4">
+        <f>U4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="V8" s="4">
+        <f>V4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <f>W4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="X8" s="4">
+        <f>X4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>Y4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Z4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>AA4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>AB4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>AC4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>AD4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>AE4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>AF4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>AG4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="AH8" s="4">
+        <f>AH4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>AI4*'Other Values'!$B$31</f>
+        <v>3.8579698245238643E-3</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -11440,7 +11530,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:AI8"/>
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12405,107 +12495,141 @@
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
+      <c r="B8" s="4">
+        <f>B4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <f>E4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <f>G4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <f>I4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>J4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <f>K4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <f>M4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <f>N4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <f>O4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="P8" s="4">
+        <f>P4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="R8" s="4">
+        <f>R4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="S8" s="4">
+        <f>S4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="T8" s="4">
+        <f>T4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="U8" s="4">
+        <f>U4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="V8" s="4">
+        <f>V4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <f>W4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="X8" s="4">
+        <f>X4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>Y4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Z4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>AA4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>AB4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>AC4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>AD4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>AE4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>AF4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>AG4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="AH8" s="4">
+        <f>AH4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>AI4*'Other Values'!$B$31</f>
+        <v>2.9708482131547745E-3</v>
       </c>
     </row>
   </sheetData>
@@ -12517,7 +12641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D15" sqref="D15:AK15"/>
     </sheetView>
   </sheetViews>
@@ -14064,10 +14188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14383,6 +14507,37 @@
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <f>B30/B29</f>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -17987,8 +18142,8 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18953,107 +19108,141 @@
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
+      <c r="B8" s="4">
+        <f>B4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <f>E4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <f>G4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <f>I4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>J4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <f>K4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <f>M4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <f>N4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <f>O4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="P8" s="4">
+        <f>P4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q4*'Other Values'!$B$31</f>
+        <v>1.5970611503048245E-3</v>
+      </c>
+      <c r="R8" s="4">
+        <f>R4*'Other Values'!$B$31</f>
+        <v>1.6436490670987403E-3</v>
+      </c>
+      <c r="S8" s="4">
+        <f>S4*'Other Values'!$B$31</f>
+        <v>1.6902369838926734E-3</v>
+      </c>
+      <c r="T8" s="4">
+        <f>T4*'Other Values'!$B$31</f>
+        <v>1.7368249006865892E-3</v>
+      </c>
+      <c r="U8" s="4">
+        <f>U4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="V8" s="4">
+        <f>V4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <f>W4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="X8" s="4">
+        <f>X4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>Y4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Z4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>AA4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>AB4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>AC4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>AD4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>AE4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>AF4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>AG4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="AH8" s="4">
+        <f>AH4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>AI4*'Other Values'!$B$31</f>
+        <v>1.7834128174805243E-3</v>
       </c>
     </row>
   </sheetData>
@@ -19068,8 +19257,8 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20034,107 +20223,141 @@
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>0</v>
+      <c r="B8" s="4">
+        <f>B4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="E8" s="4">
+        <f>E4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="G8" s="4">
+        <f>G4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="I8" s="4">
+        <f>I4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="J8" s="4">
+        <f>J4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="K8" s="4">
+        <f>K4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="M8" s="4">
+        <f>M4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="N8" s="4">
+        <f>N4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="O8" s="4">
+        <f>O4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="P8" s="4">
+        <f>P4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="R8" s="4">
+        <f>R4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="S8" s="4">
+        <f>S4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="T8" s="4">
+        <f>T4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="U8" s="4">
+        <f>U4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="V8" s="4">
+        <f>V4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="W8" s="4">
+        <f>W4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="X8" s="4">
+        <f>X4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>Y4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Z4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>AA4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>AB4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>AC4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>AD4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>AE4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>AF4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>AG4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="AH8" s="4">
+        <f>AH4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>AI4*'Other Values'!$B$31</f>
+        <v>8.5412569624788255E-4</v>
       </c>
     </row>
   </sheetData>
@@ -20149,8 +20372,8 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AI7"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21115,107 +21338,141 @@
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>0</v>
+      <c r="B8" s="4">
+        <f>B4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <f>E4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <f>G4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <f>I4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <f>J4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <f>K4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="M8" s="4">
+        <f>M4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="N8" s="4">
+        <f>N4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="O8" s="4">
+        <f>O4*'Other Values'!$B$31</f>
+        <v>1.1108892894717282E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <f>P4*'Other Values'!$B$31</f>
+        <v>1.1798410384734059E-2</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q4*'Other Values'!$B$31</f>
+        <v>1.2487927874751115E-2</v>
+      </c>
+      <c r="R8" s="4">
+        <f>R4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="S8" s="4">
+        <f>S4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="T8" s="4">
+        <f>T4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="U8" s="4">
+        <f>U4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="V8" s="4">
+        <f>V4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="W8" s="4">
+        <f>W4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="X8" s="4">
+        <f>X4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>Y4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Z4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>AA4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>AB4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>AC4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>AD4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>AE4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>AF4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>AG4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="AH8" s="4">
+        <f>AH4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>AI4*'Other Values'!$B$31</f>
+        <v>1.3177445364767892E-2</v>
       </c>
     </row>
   </sheetData>
@@ -21231,7 +21488,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AI7"/>
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22196,107 +22453,141 @@
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>0</v>
+      <c r="B8" s="4">
+        <f>B4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <f>E4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <f>G4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <f>H4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <f>I4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>J4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <f>K4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <f>M4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <f>N4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <f>O4*'Other Values'!$B$31</f>
+        <v>1.128310786557337E-3</v>
+      </c>
+      <c r="P8" s="4">
+        <f>P4*'Other Values'!$B$31</f>
+        <v>1.1907117217055396E-3</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Q4*'Other Values'!$B$31</f>
+        <v>1.2531126568537422E-3</v>
+      </c>
+      <c r="R8" s="4">
+        <f>R4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="S8" s="4">
+        <f>S4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="T8" s="4">
+        <f>T4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="U8" s="4">
+        <f>U4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="V8" s="4">
+        <f>V4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <f>W4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="X8" s="4">
+        <f>X4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>Y4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Z4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>AA4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>AB4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>AC4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>AD4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>AE4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>AF4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>AG4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="AH8" s="4">
+        <f>AH4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>AI4*'Other Values'!$B$31</f>
+        <v>1.3155135920019621E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="86">
   <si>
     <t>Sources:</t>
   </si>
@@ -1698,7 +1698,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Extrapolations!$A$11:$B$11</c:f>
+              <c:f>Extrapolations!$A$12:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1715,7 +1715,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$11:$BT$11</c:f>
+              <c:f>Extrapolations!$C$12:$BT$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2019,7 +2019,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Extrapolations!$A$12:$B$12</c:f>
+              <c:f>Extrapolations!$A$13:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2036,7 +2036,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$12:$BT$12</c:f>
+              <c:f>Extrapolations!$C$13:$BT$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2287,7 +2287,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Extrapolations!$A$13:$B$13</c:f>
+              <c:f>Extrapolations!$A$14:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2304,7 +2304,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$13:$BT$13</c:f>
+              <c:f>Extrapolations!$C$14:$BT$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -3893,216 +3893,216 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$8:$BS$8</c:f>
+              <c:f>Extrapolations!$C$9:$BS$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.4412212193692241E-3</c:v>
+                  <c:v>1.0487527988911177E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4412212193692232E-3</c:v>
+                  <c:v>1.0487527988911182E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4211,7 +4211,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Extrapolations!$A$9:$B$9</c:f>
+              <c:f>Extrapolations!$A$10:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4228,7 +4228,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$9:$BT$9</c:f>
+              <c:f>Extrapolations!$C$10:$BT$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
@@ -4535,7 +4535,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Extrapolations!$A$10:$B$10</c:f>
+              <c:f>Extrapolations!$A$11:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4552,7 +4552,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$10:$BT$10</c:f>
+              <c:f>Extrapolations!$C$11:$BT$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
@@ -4834,13 +4834,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4870,13 +4870,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4906,13 +4906,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4942,13 +4942,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4978,13 +4978,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5014,13 +5014,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5050,13 +5050,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5086,13 +5086,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5122,13 +5122,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5158,13 +5158,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5194,13 +5194,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5230,13 +5230,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5637,7 +5637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -6765,7 +6765,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AI8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6884,107 +6884,141 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
+      <c r="B2" s="4">
+        <f>Extrapolations!C8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Extrapolations!D8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <f>Extrapolations!E8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="E2" s="4">
+        <f>Extrapolations!F8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <f>Extrapolations!G8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="G2" s="4">
+        <f>Extrapolations!H8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <f>Extrapolations!I8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <f>Extrapolations!J8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="J2" s="4">
+        <f>Extrapolations!K8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="K2" s="4">
+        <f>Extrapolations!L8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f>Extrapolations!M8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f>Extrapolations!N8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="N2" s="4">
+        <f>Extrapolations!O8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="O2" s="4">
+        <f>Extrapolations!P8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="P2" s="4">
+        <f>Extrapolations!Q8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>Extrapolations!R8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="R2" s="4">
+        <f>Extrapolations!S8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="S2" s="4">
+        <f>Extrapolations!T8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="T2" s="4">
+        <f>Extrapolations!U8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="U2" s="4">
+        <f>Extrapolations!V8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="V2" s="4">
+        <f>Extrapolations!W8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="W2" s="4">
+        <f>Extrapolations!X8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="X2" s="4">
+        <f>Extrapolations!Y8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>Extrapolations!Z8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>Extrapolations!AA8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>Extrapolations!AB8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>Extrapolations!AC8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>Extrapolations!AD8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>Extrapolations!AE8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>Extrapolations!AF8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>Extrapolations!AG8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>Extrapolations!AH8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AH2" s="4">
+        <f>Extrapolations!AI8</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>Extrapolations!AJ8</f>
+        <v>2.1558990043642106E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -7206,147 +7240,147 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!C8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!C9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!D8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!D9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!E8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!E9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!F8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!F9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!G8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!G9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!H8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!H9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!I8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!I9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!J8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!J9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!K8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!K9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!L8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!L9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!M8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!M9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!N8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!N9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!O8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!O9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!P8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!P9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!Q8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!Q9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!R8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!R9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!S8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!S9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!T8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!T9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!U8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!U9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!V8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!V9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!W8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!W9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!X8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!X9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!Y8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!Y9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!Z8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!Z9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AA8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!AA9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AB8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!AB9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AC8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!AC9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AD8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!AD9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AE8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!AE9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AF8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!AF9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AG8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!AG9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AG5" s="4">
-        <f>Extrapolations!AH8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!AH9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AH5" s="4">
-        <f>Extrapolations!AI8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!AI9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AI5" s="4">
-        <f>Extrapolations!AJ8</f>
-        <v>2.4412212193692241E-3</v>
+        <f>Extrapolations!AJ9</f>
+        <v>1.0487527988911177E-2</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6">
@@ -8117,139 +8151,139 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!C9</f>
+        <f>Extrapolations!C10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!D9</f>
+        <f>Extrapolations!D10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!E9</f>
+        <f>Extrapolations!E10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!F9</f>
+        <f>Extrapolations!F10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!G9</f>
+        <f>Extrapolations!G10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!H9</f>
+        <f>Extrapolations!H10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!I9</f>
+        <f>Extrapolations!I10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!J9</f>
+        <f>Extrapolations!J10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!K9</f>
+        <f>Extrapolations!K10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!L9</f>
+        <f>Extrapolations!L10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!M9</f>
+        <f>Extrapolations!M10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!N9</f>
+        <f>Extrapolations!N10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!O9</f>
+        <f>Extrapolations!O10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!P9</f>
+        <f>Extrapolations!P10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!Q9</f>
+        <f>Extrapolations!Q10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!R9</f>
+        <f>Extrapolations!R10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!S9</f>
+        <f>Extrapolations!S10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!T9</f>
+        <f>Extrapolations!T10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!U9</f>
+        <f>Extrapolations!U10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!V9</f>
+        <f>Extrapolations!V10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!W9</f>
+        <f>Extrapolations!W10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!X9</f>
+        <f>Extrapolations!X10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!Y9</f>
+        <f>Extrapolations!Y10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!Z9</f>
+        <f>Extrapolations!Z10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AA9</f>
+        <f>Extrapolations!AA10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AB9</f>
+        <f>Extrapolations!AB10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AC9</f>
+        <f>Extrapolations!AC10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AD9</f>
+        <f>Extrapolations!AD10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AE9</f>
+        <f>Extrapolations!AE10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AF9</f>
+        <f>Extrapolations!AF10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AG9</f>
+        <f>Extrapolations!AG10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="AG5" s="4">
-        <f>Extrapolations!AH9</f>
+        <f>Extrapolations!AH10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="AH5" s="4">
-        <f>Extrapolations!AI9</f>
+        <f>Extrapolations!AI10</f>
         <v>7.0214683806076091E-3</v>
       </c>
       <c r="AI5" s="4">
-        <f>Extrapolations!AJ9</f>
+        <f>Extrapolations!AJ10</f>
         <v>7.0214683806076091E-3</v>
       </c>
     </row>
@@ -9028,139 +9062,139 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!D10</f>
+        <f>Extrapolations!D11</f>
         <v>1.9362141353943107E-4</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!E10</f>
+        <f>Extrapolations!E11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!F10</f>
+        <f>Extrapolations!F11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!G10</f>
+        <f>Extrapolations!G11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!H10</f>
+        <f>Extrapolations!H11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!I10</f>
+        <f>Extrapolations!I11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!J10</f>
+        <f>Extrapolations!J11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!K10</f>
+        <f>Extrapolations!K11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!L10</f>
+        <f>Extrapolations!L11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!M10</f>
+        <f>Extrapolations!M11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!N10</f>
+        <f>Extrapolations!N11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!O10</f>
+        <f>Extrapolations!O11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!P10</f>
+        <f>Extrapolations!P11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!Q10</f>
+        <f>Extrapolations!Q11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!R10</f>
+        <f>Extrapolations!R11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!S10</f>
+        <f>Extrapolations!S11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!T10</f>
+        <f>Extrapolations!T11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!U10</f>
+        <f>Extrapolations!U11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!V10</f>
+        <f>Extrapolations!V11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!W10</f>
+        <f>Extrapolations!W11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!X10</f>
+        <f>Extrapolations!X11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!Y10</f>
+        <f>Extrapolations!Y11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!Z10</f>
+        <f>Extrapolations!Z11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!AA10</f>
+        <f>Extrapolations!AA11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AB10</f>
+        <f>Extrapolations!AB11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AC10</f>
+        <f>Extrapolations!AC11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AD10</f>
+        <f>Extrapolations!AD11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AE10</f>
+        <f>Extrapolations!AE11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AF10</f>
+        <f>Extrapolations!AF11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AG10</f>
+        <f>Extrapolations!AG11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AH10</f>
+        <f>Extrapolations!AH11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AG5" s="4">
-        <f>Extrapolations!AI10</f>
+        <f>Extrapolations!AI11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AH5" s="4">
-        <f>Extrapolations!AJ10</f>
+        <f>Extrapolations!AJ11</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AI5" s="4">
-        <f>Extrapolations!AK10</f>
+        <f>Extrapolations!AK11</f>
         <v>1.9362141353943107E-4</v>
       </c>
     </row>
@@ -9939,139 +9973,139 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!D11</f>
+        <f>Extrapolations!D12</f>
         <v>3.3209939763395591E-3</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!E11</f>
+        <f>Extrapolations!E12</f>
         <v>3.3814550029391821E-3</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!F11</f>
+        <f>Extrapolations!F12</f>
         <v>3.441916029538819E-3</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!G11</f>
+        <f>Extrapolations!G12</f>
         <v>3.5023770561384421E-3</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!H11</f>
+        <f>Extrapolations!H12</f>
         <v>3.5628380827380651E-3</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!I11</f>
+        <f>Extrapolations!I12</f>
         <v>3.6232991093377021E-3</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!J11</f>
+        <f>Extrapolations!J12</f>
         <v>3.6837601359373251E-3</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!K11</f>
+        <f>Extrapolations!K12</f>
         <v>3.7442211625369481E-3</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!L11</f>
+        <f>Extrapolations!L12</f>
         <v>3.8046821891365851E-3</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!M11</f>
+        <f>Extrapolations!M12</f>
         <v>3.8651432157362081E-3</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!N11</f>
+        <f>Extrapolations!N12</f>
         <v>3.925604242335845E-3</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!O11</f>
+        <f>Extrapolations!O12</f>
         <v>3.9860652689354681E-3</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!P11</f>
+        <f>Extrapolations!P12</f>
         <v>4.0465262955350911E-3</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!Q11</f>
+        <f>Extrapolations!Q12</f>
         <v>4.1069873221347281E-3</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!R11</f>
+        <f>Extrapolations!R12</f>
         <v>4.1674483487343511E-3</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!S11</f>
+        <f>Extrapolations!S12</f>
         <v>4.2279093753339742E-3</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!T11</f>
+        <f>Extrapolations!T12</f>
         <v>4.2883704019336111E-3</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!U11</f>
+        <f>Extrapolations!U12</f>
         <v>4.3488314285332341E-3</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!V11</f>
+        <f>Extrapolations!V12</f>
         <v>4.409292455132871E-3</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!W11</f>
+        <f>Extrapolations!W12</f>
         <v>4.4697534817324941E-3</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!X11</f>
+        <f>Extrapolations!X12</f>
         <v>4.5302145083321171E-3</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!Y11</f>
+        <f>Extrapolations!Y12</f>
         <v>4.5906755349317541E-3</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!Z11</f>
+        <f>Extrapolations!Z12</f>
         <v>4.6511365615313771E-3</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!AA11</f>
+        <f>Extrapolations!AA12</f>
         <v>4.7115975881310002E-3</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AB11</f>
+        <f>Extrapolations!AB12</f>
         <v>4.7720586147306371E-3</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AC11</f>
+        <f>Extrapolations!AC12</f>
         <v>4.8325196413302601E-3</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AD11</f>
+        <f>Extrapolations!AD12</f>
         <v>4.8929806679298971E-3</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AE11</f>
+        <f>Extrapolations!AE12</f>
         <v>4.9534416945295201E-3</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AF11</f>
+        <f>Extrapolations!AF12</f>
         <v>5.0139027211291431E-3</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AG11</f>
+        <f>Extrapolations!AG12</f>
         <v>5.0743637477287801E-3</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AH11</f>
+        <f>Extrapolations!AH12</f>
         <v>5.1348247743284031E-3</v>
       </c>
       <c r="AG5" s="4">
-        <f>Extrapolations!AI11</f>
+        <f>Extrapolations!AI12</f>
         <v>5.1952858009280262E-3</v>
       </c>
       <c r="AH5" s="4">
-        <f>Extrapolations!AJ11</f>
+        <f>Extrapolations!AJ12</f>
         <v>5.2557468275276631E-3</v>
       </c>
       <c r="AI5" s="4">
-        <f>Extrapolations!AK11</f>
+        <f>Extrapolations!AK12</f>
         <v>5.2992115229405527E-3</v>
       </c>
     </row>
@@ -10811,139 +10845,139 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>Extrapolations!AA12</f>
+        <f>Extrapolations!AA13</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="C4" s="4">
-        <f>Extrapolations!AB12</f>
+        <f>Extrapolations!AB13</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="D4" s="4">
-        <f>Extrapolations!AC12</f>
+        <f>Extrapolations!AC13</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="E4" s="4">
-        <f>Extrapolations!AD12</f>
+        <f>Extrapolations!AD13</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="F4" s="4">
-        <f>Extrapolations!AE12</f>
+        <f>Extrapolations!AE13</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="G4" s="4">
-        <f>Extrapolations!AF12</f>
+        <f>Extrapolations!AF13</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="H4" s="4">
-        <f>Extrapolations!AG12</f>
+        <f>Extrapolations!AG13</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="I4" s="4">
-        <f>Extrapolations!AH12</f>
+        <f>Extrapolations!AH13</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="J4" s="4">
-        <f>Extrapolations!AI12</f>
+        <f>Extrapolations!AI13</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="K4" s="4">
-        <f>Extrapolations!AJ12</f>
+        <f>Extrapolations!AJ13</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="L4" s="4">
-        <f>Extrapolations!AK12</f>
+        <f>Extrapolations!AK13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="M4" s="4">
-        <f>Extrapolations!AL12</f>
+        <f>Extrapolations!AL13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="N4" s="4">
-        <f>Extrapolations!AM12</f>
+        <f>Extrapolations!AM13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="O4" s="4">
-        <f>Extrapolations!AN12</f>
+        <f>Extrapolations!AN13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="P4" s="4">
-        <f>Extrapolations!AO12</f>
+        <f>Extrapolations!AO13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="Q4" s="4">
-        <f>Extrapolations!AP12</f>
+        <f>Extrapolations!AP13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="R4" s="4">
-        <f>Extrapolations!AQ12</f>
+        <f>Extrapolations!AQ13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="S4" s="4">
-        <f>Extrapolations!AR12</f>
+        <f>Extrapolations!AR13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="T4" s="4">
-        <f>Extrapolations!AS12</f>
+        <f>Extrapolations!AS13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="U4" s="4">
-        <f>Extrapolations!AT12</f>
+        <f>Extrapolations!AT13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="V4" s="4">
-        <f>Extrapolations!AU12</f>
+        <f>Extrapolations!AU13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="W4" s="4">
-        <f>Extrapolations!AV12</f>
+        <f>Extrapolations!AV13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="X4" s="4">
-        <f>Extrapolations!AW12</f>
+        <f>Extrapolations!AW13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="Y4" s="4">
-        <f>Extrapolations!AX12</f>
+        <f>Extrapolations!AX13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="Z4" s="4">
-        <f>Extrapolations!AY12</f>
+        <f>Extrapolations!AY13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AA4" s="4">
-        <f>Extrapolations!AZ12</f>
+        <f>Extrapolations!AZ13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AB4" s="4">
-        <f>Extrapolations!BA12</f>
+        <f>Extrapolations!BA13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AC4" s="4">
-        <f>Extrapolations!BB12</f>
+        <f>Extrapolations!BB13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AD4" s="4">
-        <f>Extrapolations!BC12</f>
+        <f>Extrapolations!BC13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AE4" s="4">
-        <f>Extrapolations!BD12</f>
+        <f>Extrapolations!BD13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AF4" s="4">
-        <f>Extrapolations!BE12</f>
+        <f>Extrapolations!BE13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AG4" s="4">
-        <f>Extrapolations!BF12</f>
+        <f>Extrapolations!BF13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AH4" s="4">
-        <f>Extrapolations!BG12</f>
+        <f>Extrapolations!BG13</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AI4" s="4">
-        <f>Extrapolations!BH12</f>
+        <f>Extrapolations!BH13</f>
         <v>1.5431879298095457E-3</v>
       </c>
     </row>
@@ -11932,139 +11966,139 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>Extrapolations!AA13</f>
+        <f>Extrapolations!AA14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="C4" s="4">
-        <f>Extrapolations!AB13</f>
+        <f>Extrapolations!AB14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="D4" s="4">
-        <f>Extrapolations!AC13</f>
+        <f>Extrapolations!AC14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="E4" s="4">
-        <f>Extrapolations!AD13</f>
+        <f>Extrapolations!AD14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="F4" s="4">
-        <f>Extrapolations!AE13</f>
+        <f>Extrapolations!AE14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="G4" s="4">
-        <f>Extrapolations!AF13</f>
+        <f>Extrapolations!AF14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="H4" s="4">
-        <f>Extrapolations!AG13</f>
+        <f>Extrapolations!AG14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="I4" s="4">
-        <f>Extrapolations!AH13</f>
+        <f>Extrapolations!AH14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="J4" s="4">
-        <f>Extrapolations!AI13</f>
+        <f>Extrapolations!AI14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="K4" s="4">
-        <f>Extrapolations!AJ13</f>
+        <f>Extrapolations!AJ14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="L4" s="4">
-        <f>Extrapolations!AK13</f>
+        <f>Extrapolations!AK14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="M4" s="4">
-        <f>Extrapolations!AL13</f>
+        <f>Extrapolations!AL14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="N4" s="4">
-        <f>Extrapolations!AM13</f>
+        <f>Extrapolations!AM14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="O4" s="4">
-        <f>Extrapolations!AN13</f>
+        <f>Extrapolations!AN14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="P4" s="4">
-        <f>Extrapolations!AO13</f>
+        <f>Extrapolations!AO14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="Q4" s="4">
-        <f>Extrapolations!AP13</f>
+        <f>Extrapolations!AP14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="R4" s="4">
-        <f>Extrapolations!AQ13</f>
+        <f>Extrapolations!AQ14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="S4" s="4">
-        <f>Extrapolations!AR13</f>
+        <f>Extrapolations!AR14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="T4" s="4">
-        <f>Extrapolations!AS13</f>
+        <f>Extrapolations!AS14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="U4" s="4">
-        <f>Extrapolations!AT13</f>
+        <f>Extrapolations!AT14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="V4" s="4">
-        <f>Extrapolations!AU13</f>
+        <f>Extrapolations!AU14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="W4" s="4">
-        <f>Extrapolations!AV13</f>
+        <f>Extrapolations!AV14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="X4" s="4">
-        <f>Extrapolations!AW13</f>
+        <f>Extrapolations!AW14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="Y4" s="4">
-        <f>Extrapolations!AX13</f>
+        <f>Extrapolations!AX14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="Z4" s="4">
-        <f>Extrapolations!AY13</f>
+        <f>Extrapolations!AY14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AA4" s="4">
-        <f>Extrapolations!AZ13</f>
+        <f>Extrapolations!AZ14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AB4" s="4">
-        <f>Extrapolations!BA13</f>
+        <f>Extrapolations!BA14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AC4" s="4">
-        <f>Extrapolations!BB13</f>
+        <f>Extrapolations!BB14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AD4" s="4">
-        <f>Extrapolations!BC13</f>
+        <f>Extrapolations!BC14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AE4" s="4">
-        <f>Extrapolations!BD13</f>
+        <f>Extrapolations!BD14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AF4" s="4">
-        <f>Extrapolations!BE13</f>
+        <f>Extrapolations!BE14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AG4" s="4">
-        <f>Extrapolations!BF13</f>
+        <f>Extrapolations!BF14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AH4" s="4">
-        <f>Extrapolations!BG13</f>
+        <f>Extrapolations!BG14</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AI4" s="4">
-        <f>Extrapolations!BH13</f>
+        <f>Extrapolations!BH14</f>
         <v>1.1883392852619099E-3</v>
       </c>
     </row>
@@ -12639,10 +12673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:AK15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13511,109 +13545,109 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="E14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="F14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="G14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="H14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="I14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="J14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="K14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="L14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="M14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="N14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="O14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="P14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="Q14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="R14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="S14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="T14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="U14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="V14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="W14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="X14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="Y14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="Z14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AA14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AB14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AC14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AD14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AE14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AF14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AG14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AH14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AI14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AJ14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AK14" s="4">
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -13621,225 +13655,225 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="F15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="G15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="H15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="I15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="J15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="K15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="L15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="M15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="N15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="O15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="P15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="Q15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="R15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="S15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="T15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="U15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="V15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="W15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="X15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="Y15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="Z15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AA15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AB15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AC15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AD15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AE15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AF15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AG15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AH15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AI15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AJ15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AK15" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="E16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="F16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="G16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="H16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="I16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="J16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="K16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="L16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="M16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="N16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="O16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="P16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="Q16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="R16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="S16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="T16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="U16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="V16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="W16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="X16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="Y16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="Z16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AA16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AB16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AC16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AD16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AE16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AF16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AG16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AH16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AI16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AJ16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AK16" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
     </row>
     <row r="17" spans="1:37">
@@ -13847,225 +13881,225 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="4">
-        <v>5.2992115229405527E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="E17" s="4">
-        <v>5.3934315680825738E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="F17" s="4">
-        <v>5.4328972597188054E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="G17" s="4">
-        <v>5.4639690719479918E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="H17" s="4">
-        <v>5.5418412974535475E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="I17" s="4">
-        <v>5.6194390279456462E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="J17" s="4">
-        <v>5.6977290697036269E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="K17" s="4">
-        <v>5.7753683101031145E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="L17" s="4">
-        <v>5.8065339689778806E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="M17" s="4">
-        <v>5.9168077326028174E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="N17" s="4">
-        <v>6.0262008784596468E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="O17" s="4">
-        <v>6.1333911053254144E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="P17" s="4">
-        <v>6.23926005928913E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="Q17" s="4">
-        <v>6.2631866999947458E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="R17" s="4">
-        <v>6.3166177586814537E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="S17" s="4">
-        <v>6.3698985412702644E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="T17" s="4">
-        <v>6.4221337603906021E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="U17" s="4">
-        <v>6.4770178768907465E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="V17" s="4">
-        <v>6.5040881848864238E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="W17" s="4">
-        <v>6.5657441588667436E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="X17" s="4">
-        <v>6.6279838592649453E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="Y17" s="4">
-        <v>6.6926091644649984E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="Z17" s="4">
-        <v>6.7592235851418906E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AA17" s="4">
-        <v>6.8261740810624423E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AB17" s="4">
-        <v>6.8617594497521082E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AC17" s="4">
-        <v>6.9004780853928341E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AD17" s="4">
-        <v>6.9410482983891979E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AE17" s="4">
-        <v>6.9822916342727305E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AF17" s="4">
-        <v>7.0276191171519658E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AG17" s="4">
-        <v>7.0718499244147234E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AH17" s="4">
-        <v>7.1189794928731096E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AI17" s="4">
-        <v>7.1700377368293525E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AJ17" s="4">
-        <v>7.221347583681044E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AK17" s="4">
-        <v>7.2762043320700196E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
     </row>
     <row r="18" spans="1:37">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.2992115229405527E-3</v>
       </c>
       <c r="E18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.3934315680825738E-3</v>
       </c>
       <c r="F18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.4328972597188054E-3</v>
       </c>
       <c r="G18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.4639690719479918E-3</v>
       </c>
       <c r="H18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.5418412974535475E-3</v>
       </c>
       <c r="I18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.6194390279456462E-3</v>
       </c>
       <c r="J18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.6977290697036269E-3</v>
       </c>
       <c r="K18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.7753683101031145E-3</v>
       </c>
       <c r="L18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.8065339689778806E-3</v>
       </c>
       <c r="M18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.9168077326028174E-3</v>
       </c>
       <c r="N18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.0262008784596468E-3</v>
       </c>
       <c r="O18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.1333911053254144E-3</v>
       </c>
       <c r="P18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.23926005928913E-3</v>
       </c>
       <c r="Q18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.2631866999947458E-3</v>
       </c>
       <c r="R18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.3166177586814537E-3</v>
       </c>
       <c r="S18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.3698985412702644E-3</v>
       </c>
       <c r="T18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.4221337603906021E-3</v>
       </c>
       <c r="U18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.4770178768907465E-3</v>
       </c>
       <c r="V18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.5040881848864238E-3</v>
       </c>
       <c r="W18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.5657441588667436E-3</v>
       </c>
       <c r="X18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.6279838592649453E-3</v>
       </c>
       <c r="Y18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.6926091644649984E-3</v>
       </c>
       <c r="Z18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.7592235851418906E-3</v>
       </c>
       <c r="AA18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.8261740810624423E-3</v>
       </c>
       <c r="AB18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.8617594497521082E-3</v>
       </c>
       <c r="AC18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.9004780853928341E-3</v>
       </c>
       <c r="AD18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.9410482983891979E-3</v>
       </c>
       <c r="AE18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.9822916342727305E-3</v>
       </c>
       <c r="AF18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.0276191171519658E-3</v>
       </c>
       <c r="AG18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.0718499244147234E-3</v>
       </c>
       <c r="AH18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.1189794928731096E-3</v>
       </c>
       <c r="AI18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.1700377368293525E-3</v>
       </c>
       <c r="AJ18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.221347583681044E-3</v>
       </c>
       <c r="AK18" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.2762043320700196E-3</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -14073,111 +14107,224 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="X19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AA20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AB20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AC20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AD20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AE19" s="4">
+      <c r="AE20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AF20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AG20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AH19" s="4">
+      <c r="AH20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AI19" s="4">
+      <c r="AI20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AJ20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AK19" s="4">
+      <c r="AK20" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
     </row>
@@ -14190,7 +14337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -14548,18 +14695,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT56"/>
+  <dimension ref="A1:BT57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="AJ8" sqref="C8:AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="36" max="36" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -15669,7 +15817,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="4">
-        <f t="shared" ref="C6:AJ12" si="4">TREND($AK6:$BS6,$AK$1:$BS$1,Q$1)</f>
+        <f t="shared" ref="C6:AJ13" si="4">TREND($AK6:$BS6,$AK$1:$BS$1,Q$1)</f>
         <v>4.3772593496740637E-4</v>
       </c>
       <c r="R6" s="4">
@@ -16140,281 +16288,281 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="R8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="V8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="W8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="X8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="Y8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="Z8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AA8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AB8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AC8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AD8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AE8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AF8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AG8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AH8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AI8" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AJ8" s="14">
-        <f t="shared" si="4"/>
-        <v>2.4412212193692241E-3</v>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:AI8" si="6">TREND($AK8:$BS8,$AK$1:$BS$1,C$1)</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="Y8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="Z8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AA8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AB8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AC8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AD8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AE8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AF8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AG8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AH8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AI8" s="6">
+        <f t="shared" si="6"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AJ8" s="6">
+        <f>TREND($AK8:$BS8,$AK$1:$BS$1,AJ$1)</f>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="AK8" s="15">
         <f>BNVFE!D14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AL8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AL8" s="15">
         <f>BNVFE!D14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AM8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AM8" s="15">
         <f>BNVFE!E14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AN8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AN8" s="15">
         <f>BNVFE!F14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AO8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AO8" s="15">
         <f>BNVFE!G14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AP8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AP8" s="15">
         <f>BNVFE!H14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AQ8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AQ8" s="15">
         <f>BNVFE!I14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AR8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AR8" s="15">
         <f>BNVFE!J14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AS8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AS8" s="15">
         <f>BNVFE!K14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AT8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AT8" s="15">
         <f>BNVFE!L14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AU8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AU8" s="15">
         <f>BNVFE!M14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AV8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AV8" s="15">
         <f>BNVFE!N14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AW8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AW8" s="15">
         <f>BNVFE!O14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AX8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AX8" s="15">
         <f>BNVFE!P14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AY8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AY8" s="15">
         <f>BNVFE!Q14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AZ8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AZ8" s="15">
         <f>BNVFE!R14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BA8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BA8" s="15">
         <f>BNVFE!S14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BB8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BB8" s="15">
         <f>BNVFE!T14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BC8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BC8" s="15">
         <f>BNVFE!U14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BD8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BD8" s="15">
         <f>BNVFE!V14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BE8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BE8" s="15">
         <f>BNVFE!W14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BF8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BF8" s="15">
         <f>BNVFE!X14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BG8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BG8" s="15">
         <f>BNVFE!Y14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BH8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BH8" s="15">
         <f>BNVFE!Z14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BI8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BI8" s="15">
         <f>BNVFE!AA14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BJ8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BJ8" s="15">
         <f>BNVFE!AB14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BK8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BK8" s="15">
         <f>BNVFE!AC14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BL8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BL8" s="15">
         <f>BNVFE!AD14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BM8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BM8" s="15">
         <f>BNVFE!AE14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BN8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BN8" s="15">
         <f>BNVFE!AF14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BO8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BO8" s="15">
         <f>BNVFE!AG14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BP8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BP8" s="15">
         <f>BNVFE!AH14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BQ8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BQ8" s="15">
         <f>BNVFE!AI14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BR8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BR8" s="15">
         <f>BNVFE!AJ14</f>
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BS8" s="16">
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BS8" s="15">
         <f>BNVFE!AK14</f>
-        <v>2.4412212193692232E-3</v>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="BT8" s="4"/>
     </row>
@@ -16423,565 +16571,568 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="F9" s="4">
         <f>TREND($AK9:$BS9,$AK$1:$BS$1,F$1)</f>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="U9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="V9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="X9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AB9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AC9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AD9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AE9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AF9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AH9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AI9" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AJ9" s="14">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.0487527988911177E-2</v>
       </c>
       <c r="AK9" s="15">
         <f>BNVFE!D15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AL9" s="16">
         <f>BNVFE!D15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AM9" s="16">
         <f>BNVFE!E15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AN9" s="16">
         <f>BNVFE!F15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AO9" s="16">
         <f>BNVFE!G15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AP9" s="16">
         <f>BNVFE!H15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AQ9" s="16">
         <f>BNVFE!I15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AR9" s="16">
         <f>BNVFE!J15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AS9" s="16">
         <f>BNVFE!K15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AT9" s="16">
         <f>BNVFE!L15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AU9" s="16">
         <f>BNVFE!M15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AV9" s="16">
         <f>BNVFE!N15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AW9" s="16">
         <f>BNVFE!O15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AX9" s="16">
         <f>BNVFE!P15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AY9" s="16">
         <f>BNVFE!Q15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="AZ9" s="16">
         <f>BNVFE!R15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BA9" s="16">
         <f>BNVFE!S15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BB9" s="16">
         <f>BNVFE!T15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BC9" s="16">
         <f>BNVFE!U15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BD9" s="16">
         <f>BNVFE!V15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BE9" s="16">
         <f>BNVFE!W15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BF9" s="16">
         <f>BNVFE!X15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BG9" s="16">
         <f>BNVFE!Y15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BH9" s="16">
         <f>BNVFE!Z15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BI9" s="16">
         <f>BNVFE!AA15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BJ9" s="16">
         <f>BNVFE!AB15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BK9" s="16">
         <f>BNVFE!AC15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BL9" s="16">
         <f>BNVFE!AD15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BM9" s="16">
         <f>BNVFE!AE15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BN9" s="16">
         <f>BNVFE!AF15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BO9" s="16">
         <f>BNVFE!AG15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BP9" s="16">
         <f>BNVFE!AH15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BQ9" s="16">
         <f>BNVFE!AI15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BR9" s="16">
         <f>BNVFE!AJ15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BS9" s="16">
         <f>BNVFE!AK15</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.0487527988911182E-2</v>
       </c>
       <c r="BT9" s="4"/>
     </row>
     <row r="10" spans="1:72">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
+      </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10" si="6">$AK10</f>
-        <v>1.9362141353943107E-4</v>
+        <f t="shared" si="4"/>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <f>TREND($AK10:$BS10,$AK$1:$BS$1,F$1)</f>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AB10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AC10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AE10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AF10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AH10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AI10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AJ10" s="14">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AK10" s="15">
         <f>BNVFE!D16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AL10" s="16">
         <f>BNVFE!D16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AM10" s="16">
         <f>BNVFE!E16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AN10" s="16">
         <f>BNVFE!F16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AO10" s="16">
         <f>BNVFE!G16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AP10" s="16">
         <f>BNVFE!H16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AQ10" s="16">
         <f>BNVFE!I16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AR10" s="16">
         <f>BNVFE!J16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AS10" s="16">
         <f>BNVFE!K16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AT10" s="16">
         <f>BNVFE!L16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AU10" s="16">
         <f>BNVFE!M16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AV10" s="16">
         <f>BNVFE!N16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AW10" s="16">
         <f>BNVFE!O16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AX10" s="16">
         <f>BNVFE!P16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AY10" s="16">
         <f>BNVFE!Q16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AZ10" s="16">
         <f>BNVFE!R16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BA10" s="16">
         <f>BNVFE!S16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BB10" s="16">
         <f>BNVFE!T16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BC10" s="16">
         <f>BNVFE!U16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BD10" s="16">
         <f>BNVFE!V16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BE10" s="16">
         <f>BNVFE!W16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BF10" s="16">
         <f>BNVFE!X16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BG10" s="16">
         <f>BNVFE!Y16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BH10" s="16">
         <f>BNVFE!Z16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BI10" s="16">
         <f>BNVFE!AA16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BJ10" s="16">
         <f>BNVFE!AB16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BK10" s="16">
         <f>BNVFE!AC16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BL10" s="16">
         <f>BNVFE!AD16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BM10" s="16">
         <f>BNVFE!AE16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BN10" s="16">
         <f>BNVFE!AF16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BO10" s="16">
         <f>BNVFE!AG16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BP10" s="16">
         <f>BNVFE!AH16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BQ10" s="16">
         <f>BNVFE!AI16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BR10" s="16">
         <f>BNVFE!AJ16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BS10" s="16">
         <f>BNVFE!AK16</f>
-        <v>1.9362141353943107E-4</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BT10" s="4"/>
     </row>
@@ -16990,520 +17141,589 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="4">
-        <f>TREND($AK11:$BS11,$AK$1:$BS$1,D$1)</f>
-        <v>3.3209939763395591E-3</v>
+        <f t="shared" ref="D11" si="7">$AK11</f>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="4"/>
-        <v>3.3814550029391821E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="F11" s="4">
-        <f>TREND($AK11:$BS11,$AK$1:$BS$1,F$1)</f>
-        <v>3.441916029538819E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="4"/>
-        <v>3.5023770561384421E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="4"/>
-        <v>3.5628380827380651E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
-        <v>3.6232991093377021E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="4"/>
-        <v>3.6837601359373251E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="4"/>
-        <v>3.7442211625369481E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="4"/>
-        <v>3.8046821891365851E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>3.8651432157362081E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="4"/>
-        <v>3.925604242335845E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="4"/>
-        <v>3.9860652689354681E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="4"/>
-        <v>4.0465262955350911E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="4"/>
-        <v>4.1069873221347281E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" si="4"/>
-        <v>4.1674483487343511E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" si="4"/>
-        <v>4.2279093753339742E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="4"/>
-        <v>4.2883704019336111E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="4"/>
-        <v>4.3488314285332341E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="V11" s="4">
         <f t="shared" si="4"/>
-        <v>4.409292455132871E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="W11" s="4">
         <f t="shared" si="4"/>
-        <v>4.4697534817324941E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="X11" s="4">
         <f t="shared" si="4"/>
-        <v>4.5302145083321171E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="Y11" s="4">
         <f t="shared" si="4"/>
-        <v>4.5906755349317541E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="4"/>
-        <v>4.6511365615313771E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="4"/>
-        <v>4.7115975881310002E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AB11" s="4">
         <f t="shared" si="4"/>
-        <v>4.7720586147306371E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AC11" s="4">
         <f t="shared" si="4"/>
-        <v>4.8325196413302601E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AD11" s="4">
         <f t="shared" si="4"/>
-        <v>4.8929806679298971E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AE11" s="4">
         <f t="shared" si="4"/>
-        <v>4.9534416945295201E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AF11" s="4">
         <f t="shared" si="4"/>
-        <v>5.0139027211291431E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="4"/>
-        <v>5.0743637477287801E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AH11" s="4">
         <f t="shared" si="4"/>
-        <v>5.1348247743284031E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AI11" s="4">
         <f t="shared" si="4"/>
-        <v>5.1952858009280262E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AJ11" s="14">
         <f t="shared" si="4"/>
-        <v>5.2557468275276631E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AK11" s="15">
         <f>BNVFE!D17</f>
-        <v>5.2992115229405527E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AL11" s="16">
         <f>BNVFE!D17</f>
-        <v>5.2992115229405527E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AM11" s="16">
         <f>BNVFE!E17</f>
-        <v>5.3934315680825738E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AN11" s="16">
         <f>BNVFE!F17</f>
-        <v>5.4328972597188054E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AO11" s="16">
         <f>BNVFE!G17</f>
-        <v>5.4639690719479918E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AP11" s="16">
         <f>BNVFE!H17</f>
-        <v>5.5418412974535475E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AQ11" s="16">
         <f>BNVFE!I17</f>
-        <v>5.6194390279456462E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AR11" s="16">
         <f>BNVFE!J17</f>
-        <v>5.6977290697036269E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AS11" s="16">
         <f>BNVFE!K17</f>
-        <v>5.7753683101031145E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AT11" s="16">
         <f>BNVFE!L17</f>
-        <v>5.8065339689778806E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AU11" s="16">
         <f>BNVFE!M17</f>
-        <v>5.9168077326028174E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AV11" s="16">
         <f>BNVFE!N17</f>
-        <v>6.0262008784596468E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AW11" s="16">
         <f>BNVFE!O17</f>
-        <v>6.1333911053254144E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AX11" s="16">
         <f>BNVFE!P17</f>
-        <v>6.23926005928913E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AY11" s="16">
         <f>BNVFE!Q17</f>
-        <v>6.2631866999947458E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AZ11" s="16">
         <f>BNVFE!R17</f>
-        <v>6.3166177586814537E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BA11" s="16">
         <f>BNVFE!S17</f>
-        <v>6.3698985412702644E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BB11" s="16">
         <f>BNVFE!T17</f>
-        <v>6.4221337603906021E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BC11" s="16">
         <f>BNVFE!U17</f>
-        <v>6.4770178768907465E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BD11" s="16">
         <f>BNVFE!V17</f>
-        <v>6.5040881848864238E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BE11" s="16">
         <f>BNVFE!W17</f>
-        <v>6.5657441588667436E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BF11" s="16">
         <f>BNVFE!X17</f>
-        <v>6.6279838592649453E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BG11" s="16">
         <f>BNVFE!Y17</f>
-        <v>6.6926091644649984E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BH11" s="16">
         <f>BNVFE!Z17</f>
-        <v>6.7592235851418906E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BI11" s="16">
         <f>BNVFE!AA17</f>
-        <v>6.8261740810624423E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BJ11" s="16">
         <f>BNVFE!AB17</f>
-        <v>6.8617594497521082E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BK11" s="16">
         <f>BNVFE!AC17</f>
-        <v>6.9004780853928341E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BL11" s="16">
         <f>BNVFE!AD17</f>
-        <v>6.9410482983891979E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BM11" s="16">
         <f>BNVFE!AE17</f>
-        <v>6.9822916342727305E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BN11" s="16">
         <f>BNVFE!AF17</f>
-        <v>7.0276191171519658E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BO11" s="16">
         <f>BNVFE!AG17</f>
-        <v>7.0718499244147234E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BP11" s="16">
         <f>BNVFE!AH17</f>
-        <v>7.1189794928731096E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BQ11" s="16">
         <f>BNVFE!AI17</f>
-        <v>7.1700377368293525E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BR11" s="16">
         <f>BNVFE!AJ17</f>
-        <v>7.221347583681044E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BS11" s="16">
         <f>BNVFE!AK17</f>
-        <v>7.2762043320700196E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BT11" s="4"/>
     </row>
     <row r="12" spans="1:72">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
+      <c r="D12" s="4">
+        <f>TREND($AK12:$BS12,$AK$1:$BS$1,D$1)</f>
+        <v>3.3209939763395591E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.3814550029391821E-3</v>
+      </c>
+      <c r="F12" s="4">
+        <f>TREND($AK12:$BS12,$AK$1:$BS$1,F$1)</f>
+        <v>3.441916029538819E-3</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5023770561384421E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5628380827380651E-3</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6232991093377021E-3</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6837601359373251E-3</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.7442211625369481E-3</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.8046821891365851E-3</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.8651432157362081E-3</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.925604242335845E-3</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.9860652689354681E-3</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.0465262955350911E-3</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1069873221347281E-3</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1674483487343511E-3</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2279093753339742E-3</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2883704019336111E-3</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3488314285332341E-3</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.409292455132871E-3</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.4697534817324941E-3</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5302145083321171E-3</v>
+      </c>
+      <c r="Y12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5906755349317541E-3</v>
+      </c>
+      <c r="Z12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.6511365615313771E-3</v>
+      </c>
       <c r="AA12" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>4.7115975881310002E-3</v>
       </c>
       <c r="AB12" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>4.7720586147306371E-3</v>
       </c>
       <c r="AC12" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>4.8325196413302601E-3</v>
       </c>
       <c r="AD12" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>4.8929806679298971E-3</v>
       </c>
       <c r="AE12" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>4.9534416945295201E-3</v>
       </c>
       <c r="AF12" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>5.0139027211291431E-3</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>5.0743637477287801E-3</v>
       </c>
       <c r="AH12" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>5.1348247743284031E-3</v>
       </c>
       <c r="AI12" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>5.1952858009280262E-3</v>
       </c>
       <c r="AJ12" s="14">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>5.2557468275276631E-3</v>
       </c>
       <c r="AK12" s="15">
         <f>BNVFE!D18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.2992115229405527E-3</v>
       </c>
       <c r="AL12" s="16">
         <f>BNVFE!D18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.2992115229405527E-3</v>
       </c>
       <c r="AM12" s="16">
         <f>BNVFE!E18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.3934315680825738E-3</v>
       </c>
       <c r="AN12" s="16">
         <f>BNVFE!F18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.4328972597188054E-3</v>
       </c>
       <c r="AO12" s="16">
         <f>BNVFE!G18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.4639690719479918E-3</v>
       </c>
       <c r="AP12" s="16">
         <f>BNVFE!H18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.5418412974535475E-3</v>
       </c>
       <c r="AQ12" s="16">
         <f>BNVFE!I18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.6194390279456462E-3</v>
       </c>
       <c r="AR12" s="16">
         <f>BNVFE!J18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.6977290697036269E-3</v>
       </c>
       <c r="AS12" s="16">
         <f>BNVFE!K18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.7753683101031145E-3</v>
       </c>
       <c r="AT12" s="16">
         <f>BNVFE!L18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.8065339689778806E-3</v>
       </c>
       <c r="AU12" s="16">
         <f>BNVFE!M18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.9168077326028174E-3</v>
       </c>
       <c r="AV12" s="16">
         <f>BNVFE!N18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.0262008784596468E-3</v>
       </c>
       <c r="AW12" s="16">
         <f>BNVFE!O18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.1333911053254144E-3</v>
       </c>
       <c r="AX12" s="16">
         <f>BNVFE!P18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.23926005928913E-3</v>
       </c>
       <c r="AY12" s="16">
         <f>BNVFE!Q18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.2631866999947458E-3</v>
       </c>
       <c r="AZ12" s="16">
         <f>BNVFE!R18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.3166177586814537E-3</v>
       </c>
       <c r="BA12" s="16">
         <f>BNVFE!S18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.3698985412702644E-3</v>
       </c>
       <c r="BB12" s="16">
         <f>BNVFE!T18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.4221337603906021E-3</v>
       </c>
       <c r="BC12" s="16">
         <f>BNVFE!U18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.4770178768907465E-3</v>
       </c>
       <c r="BD12" s="16">
         <f>BNVFE!V18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.5040881848864238E-3</v>
       </c>
       <c r="BE12" s="16">
         <f>BNVFE!W18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.5657441588667436E-3</v>
       </c>
       <c r="BF12" s="16">
         <f>BNVFE!X18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.6279838592649453E-3</v>
       </c>
       <c r="BG12" s="16">
         <f>BNVFE!Y18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.6926091644649984E-3</v>
       </c>
       <c r="BH12" s="16">
         <f>BNVFE!Z18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.7592235851418906E-3</v>
       </c>
       <c r="BI12" s="16">
         <f>BNVFE!AA18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.8261740810624423E-3</v>
       </c>
       <c r="BJ12" s="16">
         <f>BNVFE!AB18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.8617594497521082E-3</v>
       </c>
       <c r="BK12" s="16">
         <f>BNVFE!AC18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.9004780853928341E-3</v>
       </c>
       <c r="BL12" s="16">
         <f>BNVFE!AD18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.9410482983891979E-3</v>
       </c>
       <c r="BM12" s="16">
         <f>BNVFE!AE18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.9822916342727305E-3</v>
       </c>
       <c r="BN12" s="16">
         <f>BNVFE!AF18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.0276191171519658E-3</v>
       </c>
       <c r="BO12" s="16">
         <f>BNVFE!AG18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.0718499244147234E-3</v>
       </c>
       <c r="BP12" s="16">
         <f>BNVFE!AH18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.1189794928731096E-3</v>
       </c>
       <c r="BQ12" s="16">
         <f>BNVFE!AI18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.1700377368293525E-3</v>
       </c>
       <c r="BR12" s="16">
         <f>BNVFE!AJ18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.221347583681044E-3</v>
       </c>
       <c r="BS12" s="16">
         <f>BNVFE!AK18</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.2762043320700196E-3</v>
       </c>
       <c r="BT12" s="4"/>
     </row>
-    <row r="13" spans="1:72" s="8" customFormat="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:72">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -17512,269 +17732,462 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="4">
-        <f t="shared" ref="AA13:AI13" si="7">$AK13</f>
-        <v>1.1883392852619099E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1883392852619099E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1883392852619099E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1883392852619099E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1883392852619099E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1883392852619099E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1883392852619099E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1883392852619099E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1883392852619099E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AJ13" s="14">
-        <f>$AK13</f>
-        <v>1.1883392852619099E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AK13" s="15">
         <f>BNVFE!D19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AL13" s="16">
         <f>BNVFE!D19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AM13" s="16">
         <f>BNVFE!E19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AN13" s="16">
         <f>BNVFE!F19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AO13" s="16">
         <f>BNVFE!G19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AP13" s="16">
         <f>BNVFE!H19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AQ13" s="16">
         <f>BNVFE!I19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AR13" s="16">
         <f>BNVFE!J19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AS13" s="16">
         <f>BNVFE!K19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AT13" s="16">
         <f>BNVFE!L19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AU13" s="16">
         <f>BNVFE!M19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AV13" s="16">
         <f>BNVFE!N19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AW13" s="16">
         <f>BNVFE!O19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AX13" s="16">
         <f>BNVFE!P19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AY13" s="16">
         <f>BNVFE!Q19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AZ13" s="16">
         <f>BNVFE!R19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BA13" s="16">
         <f>BNVFE!S19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BB13" s="16">
         <f>BNVFE!T19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BC13" s="16">
         <f>BNVFE!U19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BD13" s="16">
         <f>BNVFE!V19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BE13" s="16">
         <f>BNVFE!W19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BF13" s="16">
         <f>BNVFE!X19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BG13" s="16">
         <f>BNVFE!Y19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BH13" s="16">
         <f>BNVFE!Z19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BI13" s="16">
         <f>BNVFE!AA19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BJ13" s="16">
         <f>BNVFE!AB19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BK13" s="16">
         <f>BNVFE!AC19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BL13" s="16">
         <f>BNVFE!AD19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BM13" s="16">
         <f>BNVFE!AE19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BN13" s="16">
         <f>BNVFE!AF19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BO13" s="16">
         <f>BNVFE!AG19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BP13" s="16">
         <f>BNVFE!AH19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BQ13" s="16">
         <f>BNVFE!AI19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BR13" s="16">
         <f>BNVFE!AJ19</f>
-        <v>1.1883392852619099E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BS13" s="16">
         <f>BNVFE!AK19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BT13" s="4"/>
+    </row>
+    <row r="14" spans="1:72" s="8" customFormat="1">
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="4">
+        <f t="shared" ref="AA14:AI14" si="8">$AK14</f>
         <v>1.1883392852619099E-3</v>
       </c>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H46" t="s">
-        <v>76</v>
+      <c r="AB14" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AD14" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AE14" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AG14" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AH14" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AI14" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AJ14" s="14">
+        <f>$AK14</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AK14" s="15">
+        <f>BNVFE!D20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AL14" s="16">
+        <f>BNVFE!D20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AM14" s="16">
+        <f>BNVFE!E20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AN14" s="16">
+        <f>BNVFE!F20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AO14" s="16">
+        <f>BNVFE!G20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AP14" s="16">
+        <f>BNVFE!H20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AQ14" s="16">
+        <f>BNVFE!I20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AR14" s="16">
+        <f>BNVFE!J20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AS14" s="16">
+        <f>BNVFE!K20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AT14" s="16">
+        <f>BNVFE!L20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AU14" s="16">
+        <f>BNVFE!M20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AV14" s="16">
+        <f>BNVFE!N20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AW14" s="16">
+        <f>BNVFE!O20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AX14" s="16">
+        <f>BNVFE!P20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AY14" s="16">
+        <f>BNVFE!Q20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="AZ14" s="16">
+        <f>BNVFE!R20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BA14" s="16">
+        <f>BNVFE!S20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BB14" s="16">
+        <f>BNVFE!T20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BC14" s="16">
+        <f>BNVFE!U20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BD14" s="16">
+        <f>BNVFE!V20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BE14" s="16">
+        <f>BNVFE!W20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BF14" s="16">
+        <f>BNVFE!X20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BG14" s="16">
+        <f>BNVFE!Y20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BH14" s="16">
+        <f>BNVFE!Z20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BI14" s="16">
+        <f>BNVFE!AA20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BJ14" s="16">
+        <f>BNVFE!AB20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BK14" s="16">
+        <f>BNVFE!AC20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BL14" s="16">
+        <f>BNVFE!AD20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BM14" s="16">
+        <f>BNVFE!AE20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BN14" s="16">
+        <f>BNVFE!AF20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BO14" s="16">
+        <f>BNVFE!AG20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BP14" s="16">
+        <f>BNVFE!AH20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BQ14" s="16">
+        <f>BNVFE!AI20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BR14" s="16">
+        <f>BNVFE!AJ20</f>
+        <v>1.1883392852619099E-3</v>
+      </c>
+      <c r="BS14" s="16">
+        <f>BNVFE!AK20</f>
+        <v>1.1883392852619099E-3</v>
       </c>
     </row>
     <row r="47" spans="3:8">
-      <c r="C47">
-        <v>2021</v>
-      </c>
-      <c r="D47">
-        <v>20.709724091851811</v>
-      </c>
-      <c r="E47">
-        <v>1560.8681637371849</v>
-      </c>
-      <c r="F47">
-        <v>411.91631433310613</v>
-      </c>
-      <c r="G47">
-        <v>2.4276775772258579E-3</v>
-      </c>
-      <c r="H47">
-        <v>1.5084926598642038E-3</v>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="3:8">
       <c r="C48">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D48">
-        <v>18.004733712284658</v>
+        <v>20.709724091851811</v>
       </c>
       <c r="E48">
-        <v>1795.3694584606365</v>
+        <v>1560.8681637371849</v>
       </c>
       <c r="F48">
-        <v>473.80168766120875</v>
+        <v>411.91631433310613</v>
       </c>
       <c r="G48">
-        <v>2.1105876699937984E-3</v>
+        <v>2.4276775772258579E-3</v>
       </c>
       <c r="H48">
-        <v>1.3114616364433857E-3</v>
+        <v>1.5084926598642038E-3</v>
       </c>
     </row>
     <row r="49" spans="3:48">
       <c r="C49">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D49">
-        <v>17.211393460387786</v>
+        <v>18.004733712284658</v>
       </c>
       <c r="E49">
-        <v>1878.1250390416772</v>
+        <v>1795.3694584606365</v>
       </c>
       <c r="F49">
-        <v>495.64105535118767</v>
+        <v>473.80168766120875</v>
       </c>
       <c r="G49">
-        <v>2.0175891185839068E-3</v>
+        <v>2.1105876699937984E-3</v>
       </c>
       <c r="H49">
-        <v>1.2536748720493537E-3</v>
+        <v>1.3114616364433857E-3</v>
       </c>
     </row>
     <row r="50" spans="3:48">
       <c r="C50">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D50">
         <v>17.211393460387786</v>
@@ -17794,338 +18207,358 @@
     </row>
     <row r="51" spans="3:48">
       <c r="C51">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D51">
-        <v>16.96226746103957</v>
+        <v>17.211393460387786</v>
       </c>
       <c r="E51">
-        <v>1905.7091918282579</v>
+        <v>1878.1250390416772</v>
       </c>
       <c r="F51">
-        <v>502.92056992764282</v>
+        <v>495.64105535118767</v>
       </c>
       <c r="G51">
-        <v>1.9883855618470208E-3</v>
+        <v>2.0175891185839068E-3</v>
       </c>
       <c r="H51">
-        <v>1.2355285780798469E-3</v>
+        <v>1.2536748720493537E-3</v>
       </c>
     </row>
     <row r="52" spans="3:48">
       <c r="C52">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D52">
-        <v>16.601821590736861</v>
+        <v>16.96226746103957</v>
       </c>
       <c r="E52">
-        <v>1947.0844713081717</v>
+        <v>1905.7091918282579</v>
       </c>
       <c r="F52">
-        <v>513.83959116455617</v>
+        <v>502.92056992764282</v>
       </c>
       <c r="G52">
-        <v>1.9461326398256297E-3</v>
+        <v>1.9883855618470208E-3</v>
       </c>
       <c r="H52">
-        <v>1.2092737642919642E-3</v>
+        <v>1.2355285780798469E-3</v>
       </c>
     </row>
     <row r="53" spans="3:48">
       <c r="C53">
+        <v>2009</v>
+      </c>
+      <c r="D53">
+        <v>16.601821590736861</v>
+      </c>
+      <c r="E53">
+        <v>1947.0844713081717</v>
+      </c>
+      <c r="F53">
+        <v>513.83959116455617</v>
+      </c>
+      <c r="G53">
+        <v>1.9461326398256297E-3</v>
+      </c>
+      <c r="H53">
+        <v>1.2092737642919642E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:48">
+      <c r="C54">
         <v>2006</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>15.301305075439725</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>2112.5746369594244</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>557.51278578608299</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>1.7936808365569912E-3</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>1.1145443700877325E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:48">
-      <c r="D55">
-        <v>2006</v>
-      </c>
-      <c r="E55">
-        <v>2007</v>
-      </c>
-      <c r="F55">
-        <v>2008</v>
-      </c>
-      <c r="G55">
-        <v>2009</v>
-      </c>
-      <c r="H55">
-        <v>2010</v>
-      </c>
-      <c r="I55">
-        <v>2011</v>
-      </c>
-      <c r="J55">
-        <v>2012</v>
-      </c>
-      <c r="K55">
-        <v>2013</v>
-      </c>
-      <c r="L55">
-        <v>2014</v>
-      </c>
-      <c r="M55">
-        <v>2015</v>
-      </c>
-      <c r="N55">
-        <v>2016</v>
-      </c>
-      <c r="O55">
-        <v>2017</v>
-      </c>
-      <c r="P55">
-        <v>2018</v>
-      </c>
-      <c r="Q55">
-        <v>2019</v>
-      </c>
-      <c r="R55">
-        <v>2020</v>
-      </c>
-      <c r="S55">
-        <v>2021</v>
-      </c>
-      <c r="T55">
-        <v>2022</v>
-      </c>
-      <c r="U55">
-        <v>2023</v>
-      </c>
-      <c r="V55">
-        <v>2024</v>
-      </c>
-      <c r="W55">
-        <v>2025</v>
-      </c>
-      <c r="X55">
-        <v>2026</v>
-      </c>
-      <c r="Y55">
-        <v>2027</v>
-      </c>
-      <c r="Z55">
-        <v>2028</v>
-      </c>
-      <c r="AA55">
-        <v>2029</v>
-      </c>
-      <c r="AB55">
-        <v>2030</v>
-      </c>
-      <c r="AC55">
-        <v>2031</v>
-      </c>
-      <c r="AD55">
-        <v>2032</v>
-      </c>
-      <c r="AE55">
-        <v>2033</v>
-      </c>
-      <c r="AF55">
-        <v>2034</v>
-      </c>
-      <c r="AG55">
-        <v>2035</v>
-      </c>
-      <c r="AH55">
-        <v>2036</v>
-      </c>
-      <c r="AI55">
-        <v>2037</v>
-      </c>
-      <c r="AJ55">
-        <v>2038</v>
-      </c>
-      <c r="AK55">
-        <v>2039</v>
-      </c>
-      <c r="AL55">
-        <v>2040</v>
-      </c>
-      <c r="AM55">
-        <v>2041</v>
-      </c>
-      <c r="AN55">
-        <v>2042</v>
-      </c>
-      <c r="AO55">
-        <v>2043</v>
-      </c>
-      <c r="AP55">
-        <v>2044</v>
-      </c>
-      <c r="AQ55">
-        <v>2045</v>
-      </c>
-      <c r="AR55">
-        <v>2046</v>
-      </c>
-      <c r="AS55">
-        <v>2047</v>
-      </c>
-      <c r="AT55">
-        <v>2048</v>
-      </c>
-      <c r="AU55">
-        <v>2049</v>
-      </c>
-      <c r="AV55">
-        <v>2050</v>
       </c>
     </row>
     <row r="56" spans="3:48">
-      <c r="C56" t="s">
+      <c r="D56">
+        <v>2006</v>
+      </c>
+      <c r="E56">
+        <v>2007</v>
+      </c>
+      <c r="F56">
+        <v>2008</v>
+      </c>
+      <c r="G56">
+        <v>2009</v>
+      </c>
+      <c r="H56">
+        <v>2010</v>
+      </c>
+      <c r="I56">
+        <v>2011</v>
+      </c>
+      <c r="J56">
+        <v>2012</v>
+      </c>
+      <c r="K56">
+        <v>2013</v>
+      </c>
+      <c r="L56">
+        <v>2014</v>
+      </c>
+      <c r="M56">
+        <v>2015</v>
+      </c>
+      <c r="N56">
+        <v>2016</v>
+      </c>
+      <c r="O56">
+        <v>2017</v>
+      </c>
+      <c r="P56">
+        <v>2018</v>
+      </c>
+      <c r="Q56">
+        <v>2019</v>
+      </c>
+      <c r="R56">
+        <v>2020</v>
+      </c>
+      <c r="S56">
+        <v>2021</v>
+      </c>
+      <c r="T56">
+        <v>2022</v>
+      </c>
+      <c r="U56">
+        <v>2023</v>
+      </c>
+      <c r="V56">
+        <v>2024</v>
+      </c>
+      <c r="W56">
+        <v>2025</v>
+      </c>
+      <c r="X56">
+        <v>2026</v>
+      </c>
+      <c r="Y56">
+        <v>2027</v>
+      </c>
+      <c r="Z56">
+        <v>2028</v>
+      </c>
+      <c r="AA56">
+        <v>2029</v>
+      </c>
+      <c r="AB56">
+        <v>2030</v>
+      </c>
+      <c r="AC56">
+        <v>2031</v>
+      </c>
+      <c r="AD56">
+        <v>2032</v>
+      </c>
+      <c r="AE56">
+        <v>2033</v>
+      </c>
+      <c r="AF56">
+        <v>2034</v>
+      </c>
+      <c r="AG56">
+        <v>2035</v>
+      </c>
+      <c r="AH56">
+        <v>2036</v>
+      </c>
+      <c r="AI56">
+        <v>2037</v>
+      </c>
+      <c r="AJ56">
+        <v>2038</v>
+      </c>
+      <c r="AK56">
+        <v>2039</v>
+      </c>
+      <c r="AL56">
+        <v>2040</v>
+      </c>
+      <c r="AM56">
+        <v>2041</v>
+      </c>
+      <c r="AN56">
+        <v>2042</v>
+      </c>
+      <c r="AO56">
+        <v>2043</v>
+      </c>
+      <c r="AP56">
+        <v>2044</v>
+      </c>
+      <c r="AQ56">
+        <v>2045</v>
+      </c>
+      <c r="AR56">
+        <v>2046</v>
+      </c>
+      <c r="AS56">
+        <v>2047</v>
+      </c>
+      <c r="AT56">
+        <v>2048</v>
+      </c>
+      <c r="AU56">
+        <v>2049</v>
+      </c>
+      <c r="AV56">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="57" spans="3:48">
+      <c r="C57" t="s">
         <v>77</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>6.5405985853042581E-4</v>
       </c>
-      <c r="E56">
+      <c r="E57">
         <v>6.7259020923837731E-4</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>6.9112055994632882E-4</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>7.0965091065427772E-4</v>
       </c>
-      <c r="H56">
+      <c r="H57">
         <v>7.2505830066289041E-4</v>
       </c>
-      <c r="I56">
+      <c r="I57">
         <v>7.3570728224234326E-4</v>
       </c>
-      <c r="J56">
+      <c r="J57">
         <v>7.3570728224234272E-4</v>
       </c>
-      <c r="K56">
+      <c r="K57">
         <v>7.4418518674728568E-4</v>
       </c>
-      <c r="L56">
+      <c r="L57">
         <v>7.5266309125222516E-4</v>
       </c>
-      <c r="M56">
+      <c r="M57">
         <v>7.6114099575716465E-4</v>
       </c>
-      <c r="N56">
+      <c r="N57">
         <v>7.6961890026210566E-4</v>
       </c>
-      <c r="O56">
+      <c r="O57">
         <v>7.9274406006073217E-4</v>
       </c>
-      <c r="P56">
+      <c r="P57">
         <v>8.1586921985937061E-4</v>
       </c>
-      <c r="Q56">
+      <c r="Q57">
         <v>8.3899437965800211E-4</v>
       </c>
-      <c r="R56">
+      <c r="R57">
         <v>8.6211953945663361E-4</v>
       </c>
-      <c r="S56">
+      <c r="S57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="T56">
+      <c r="T57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="U56">
+      <c r="U57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="V56">
+      <c r="V57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="W56">
+      <c r="W57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="X56">
+      <c r="X57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="Y56">
+      <c r="Y57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="Z56">
+      <c r="Z57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AA56">
+      <c r="AA57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AB56">
+      <c r="AB57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AC56">
+      <c r="AC57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AD56">
+      <c r="AD57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AE56">
+      <c r="AE57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AF56">
+      <c r="AF57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AG56">
+      <c r="AG57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AH56">
+      <c r="AH57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AI56">
+      <c r="AI57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AJ56">
+      <c r="AJ57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AK56">
+      <c r="AK57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AL56">
+      <c r="AL57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AM56">
+      <c r="AM57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AN56">
+      <c r="AN57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AO56">
+      <c r="AO57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AP56">
+      <c r="AP57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AQ56">
+      <c r="AQ57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AR56">
+      <c r="AR57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AS56">
+      <c r="AS57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AT56">
+      <c r="AT57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AU56">
+      <c r="AU57">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AV56">
+      <c r="AV57">
         <v>8.8524469925526836E-4</v>
       </c>
     </row>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1421,6 +1421,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1456,151 +1457,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>6.3882446012192978E-4</c:v>
+                  <c:v>6.9582439808897785E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>6.574596268394961E-4</c:v>
+                  <c:v>7.1673221414198711E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>6.7609479355706936E-4</c:v>
+                  <c:v>7.3764003019498965E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>6.9472996027463568E-4</c:v>
+                  <c:v>7.5854784624799208E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>7.7945566230099462E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>7.133651269922097E-4</c:v>
+                  <c:v>8.0036347835399509E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,6 +1686,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2006,6 +2008,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2274,6 +2277,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2527,6 +2531,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2791,6 +2796,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3043,6 +3049,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3295,6 +3302,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3577,6 +3585,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3874,6 +3883,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4188,6 +4198,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4522,6 +4533,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5637,7 +5649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -12675,8 +12687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12870,106 +12882,106 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>6.574596268394961E-4</v>
+        <v>7.1673221414198711E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>6.7609479355706936E-4</v>
+        <v>7.3764003019498965E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>6.9472996027463568E-4</v>
+        <v>7.5854784624799208E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>7.7945566230099462E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AH8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AI8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AJ8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AK8" s="4">
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -14701,7 +14713,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ8" sqref="C8:AJ8"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14948,199 +14960,199 @@
       <c r="V2" s="11"/>
       <c r="W2" s="14">
         <f t="shared" ref="W2:AJ2" si="0">X2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="X2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="Y2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="Z2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AA2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AB2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AC2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AD2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AE2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AF2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AG2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AH2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AI2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AJ2" s="14">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AK2" s="14">
         <f>AL2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AL2" s="16">
         <f>BNVFE!D8</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="AM2" s="16">
         <f>BNVFE!E8</f>
-        <v>6.574596268394961E-4</v>
+        <v>7.1673221414198711E-4</v>
       </c>
       <c r="AN2" s="16">
         <f>BNVFE!F8</f>
-        <v>6.7609479355706936E-4</v>
+        <v>7.3764003019498965E-4</v>
       </c>
       <c r="AO2" s="16">
         <f>BNVFE!G8</f>
-        <v>6.9472996027463568E-4</v>
+        <v>7.5854784624799208E-4</v>
       </c>
       <c r="AP2" s="16">
         <f>BNVFE!H8</f>
-        <v>7.133651269922097E-4</v>
+        <v>7.7945566230099462E-4</v>
       </c>
       <c r="AQ2" s="16">
         <f>BNVFE!I8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AR2" s="16">
         <f>BNVFE!J8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AS2" s="16">
         <f>BNVFE!K8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AT2" s="16">
         <f>BNVFE!L8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AU2" s="16">
         <f>BNVFE!M8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AV2" s="16">
         <f>BNVFE!N8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AW2" s="16">
         <f>BNVFE!O8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AX2" s="16">
         <f>BNVFE!P8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AY2" s="16">
         <f>BNVFE!Q8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AZ2" s="16">
         <f>BNVFE!R8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BA2" s="16">
         <f>BNVFE!S8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BB2" s="16">
         <f>BNVFE!T8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BC2" s="16">
         <f>BNVFE!U8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BD2" s="16">
         <f>BNVFE!V8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BE2" s="16">
         <f>BNVFE!W8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BF2" s="16">
         <f>BNVFE!X8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BG2" s="16">
         <f>BNVFE!Y8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BH2" s="16">
         <f>BNVFE!Z8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BI2" s="16">
         <f>BNVFE!AA8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BJ2" s="16">
         <f>BNVFE!AB8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BK2" s="16">
         <f>BNVFE!AC8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BL2" s="16">
         <f>BNVFE!AD8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BM2" s="16">
         <f>BNVFE!AE8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BN2" s="16">
         <f>BNVFE!AF8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BO2" s="16">
         <f>BNVFE!AG8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BP2" s="16">
         <f>BNVFE!AH8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BQ2" s="16">
         <f>BNVFE!AI8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BR2" s="16">
         <f>BNVFE!AJ8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BS2" s="16">
         <f>BNVFE!AK8</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="BT2" s="4"/>
     </row>
@@ -18575,8 +18587,8 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:AI8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18697,139 +18709,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0341515703882498E-3</v>
+        <v>2.2156513728622709E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>2.0934898644099742E-3</v>
+        <v>2.2822262608205375E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>2.1528281584317203E-3</v>
+        <v>2.3488011487787825E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2121664524534447E-3</v>
+        <v>2.4153760367370269E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.4819509246952719E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="AH2" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
       <c r="AI2" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)</f>
-        <v>2.2715047464751934E-3</v>
+        <v>2.5485258126535103E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -18838,139 +18850,139 @@
       </c>
       <c r="B3" s="4">
         <f>B$4</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:AI5" si="0">C$4</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>6.574596268394961E-4</v>
+        <v>7.1673221414198711E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>6.7609479355706936E-4</v>
+        <v>7.3764003019498965E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>6.9472996027463568E-4</v>
+        <v>7.5854784624799208E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>7.7945566230099462E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AH3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AI3" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -18979,139 +18991,139 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!W2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!X2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!Y2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!Z2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AA2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>6.574596268394961E-4</v>
+        <v>7.1673221414198711E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>6.7609479355706936E-4</v>
+        <v>7.3764003019498965E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>6.9472996027463568E-4</v>
+        <v>7.5854784624799208E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>7.133651269922097E-4</v>
+        <v>7.7945566230099462E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AG4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AH4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AI4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -19120,139 +19132,139 @@
       </c>
       <c r="B5" s="4">
         <f>B$4</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>6.574596268394961E-4</v>
+        <v>7.1673221414198711E-4</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>6.7609479355706936E-4</v>
+        <v>7.3764003019498965E-4</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>6.9472996027463568E-4</v>
+        <v>7.5854784624799208E-4</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>7.7945566230099462E-4</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="0"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -19261,139 +19273,139 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>1.406254370768406E-3</v>
+        <v>1.5317292342142891E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>1.4472762575032591E-3</v>
+        <v>1.57775393981519E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>1.4882981442381274E-3</v>
+        <v>1.6237786454160756E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5293200309729807E-3</v>
+        <v>1.6698033510169615E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7158280566178471E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AH$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
       <c r="AI6" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AI$4*(1-'Other Values'!$B$6)</f>
-        <v>1.5703419177078507E-3</v>
+        <v>1.7618527622187286E-3</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -19402,139 +19414,139 @@
       </c>
       <c r="B7" s="4">
         <f>B4</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:AI7" si="1">C4</f>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="1"/>
-        <v>6.3882446012192978E-4</v>
+        <v>6.9582439808897785E-4</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="1"/>
-        <v>6.574596268394961E-4</v>
+        <v>7.1673221414198711E-4</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="1"/>
-        <v>6.7609479355706936E-4</v>
+        <v>7.3764003019498965E-4</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="1"/>
-        <v>6.9472996027463568E-4</v>
+        <v>7.5854784624799208E-4</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>7.7945566230099462E-4</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AF7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AH7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
       <c r="AI7" s="4">
         <f t="shared" si="1"/>
-        <v>7.133651269922097E-4</v>
+        <v>8.0036347835399509E-4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -19543,139 +19555,139 @@
       </c>
       <c r="B8" s="4">
         <f>B4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q4*'Other Values'!$B$31</f>
-        <v>1.5970611503048245E-3</v>
+        <v>1.7395609952224446E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R4*'Other Values'!$B$31</f>
-        <v>1.6436490670987403E-3</v>
+        <v>1.7918305353549677E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S4*'Other Values'!$B$31</f>
-        <v>1.6902369838926734E-3</v>
+        <v>1.8441000754874741E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T4*'Other Values'!$B$31</f>
-        <v>1.7368249006865892E-3</v>
+        <v>1.8963696156199801E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>1.9486391557524865E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="AH8" s="4">
         <f>AH4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
       <c r="AI8" s="4">
         <f>AI4*'Other Values'!$B$31</f>
-        <v>1.7834128174805243E-3</v>
+        <v>2.0009086958849877E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="87">
   <si>
     <t>Sources:</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Hydrogen Efficiency Adjustment</t>
+  </si>
+  <si>
+    <t>electric vehicle</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1424,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1686,7 +1688,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1700,7 +1701,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Extrapolations!$A$12:$B$12</c:f>
+              <c:f>Extrapolations!$A$13:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1717,7 +1718,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$12:$BT$12</c:f>
+              <c:f>Extrapolations!$C$13:$BT$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2008,7 +2009,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2022,7 +2022,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Extrapolations!$A$13:$B$13</c:f>
+              <c:f>Extrapolations!$A$14:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2039,7 +2039,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$13:$BT$13</c:f>
+              <c:f>Extrapolations!$C$14:$BT$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2277,7 +2277,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2291,7 +2290,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Extrapolations!$A$14:$B$14</c:f>
+              <c:f>Extrapolations!$A$15:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2308,7 +2307,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$14:$BT$14</c:f>
+              <c:f>Extrapolations!$C$15:$BT$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2531,7 +2530,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2796,7 +2794,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3049,7 +3046,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3302,7 +3298,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3585,7 +3580,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3883,7 +3877,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3908,211 +3901,211 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0487527988911177E-2</c:v>
+                  <c:v>1.0424816773970053E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.0487527988911182E-2</c:v>
+                  <c:v>1.0424816773970049E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4198,7 +4191,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4222,7 +4214,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Extrapolations!$A$10:$B$10</c:f>
+              <c:f>Extrapolations!$A$11:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4239,216 +4231,216 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$10:$BT$10</c:f>
+              <c:f>Extrapolations!$C$11:$BT$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.0214683806076091E-3</c:v>
+                  <c:v>3.7455550122320706E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.0214683806076135E-3</c:v>
+                  <c:v>3.7455550122320676E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4533,7 +4525,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4547,7 +4538,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Extrapolations!$A$11:$B$11</c:f>
+              <c:f>Extrapolations!$A$12:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4564,7 +4555,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Extrapolations!$C$11:$BT$11</c:f>
+              <c:f>Extrapolations!$C$12:$BT$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
@@ -4846,13 +4837,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4882,13 +4873,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4918,13 +4909,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4954,13 +4945,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4990,13 +4981,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5026,13 +5017,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5062,13 +5053,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5098,13 +5089,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5134,13 +5125,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5170,13 +5161,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5206,13 +5197,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5242,13 +5233,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6777,7 +6768,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6898,139 +6889,139 @@
       </c>
       <c r="B2" s="4">
         <f>Extrapolations!C8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="C2" s="4">
         <f>Extrapolations!D8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="D2" s="4">
         <f>Extrapolations!E8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="E2" s="4">
         <f>Extrapolations!F8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="F2" s="4">
         <f>Extrapolations!G8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="G2" s="4">
         <f>Extrapolations!H8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="H2" s="4">
         <f>Extrapolations!I8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="I2" s="4">
         <f>Extrapolations!J8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="J2" s="4">
         <f>Extrapolations!K8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="K2" s="4">
         <f>Extrapolations!L8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="L2" s="4">
         <f>Extrapolations!M8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="M2" s="4">
         <f>Extrapolations!N8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="N2" s="4">
         <f>Extrapolations!O8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="O2" s="4">
         <f>Extrapolations!P8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="P2" s="4">
         <f>Extrapolations!Q8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="Q2" s="4">
         <f>Extrapolations!R8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="R2" s="4">
         <f>Extrapolations!S8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="S2" s="4">
         <f>Extrapolations!T8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="T2" s="4">
         <f>Extrapolations!U8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="U2" s="4">
         <f>Extrapolations!V8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="V2" s="4">
         <f>Extrapolations!W8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="W2" s="4">
         <f>Extrapolations!X8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="X2" s="4">
         <f>Extrapolations!Y8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="Y2" s="4">
         <f>Extrapolations!Z8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="Z2" s="4">
         <f>Extrapolations!AA8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AA2" s="4">
         <f>Extrapolations!AB8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AB2" s="4">
         <f>Extrapolations!AC8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AC2" s="4">
         <f>Extrapolations!AD8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AD2" s="4">
         <f>Extrapolations!AE8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AE2" s="4">
         <f>Extrapolations!AF8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AF2" s="4">
         <f>Extrapolations!AG8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AG2" s="4">
         <f>Extrapolations!AH8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AH2" s="4">
         <f>Extrapolations!AI8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AI2" s="4">
         <f>Extrapolations!AJ8</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -7253,146 +7244,146 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!C9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!D9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!E9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!F9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!G9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!H9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!I9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!J9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!K9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!L9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!M9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!N9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!O9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!P9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Q9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!R9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!S9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!T9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!U9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!V9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!W9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!X9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!Y9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!Z9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AA9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AB9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AC9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AD9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AE9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AF9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AG9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AG5" s="4">
         <f>Extrapolations!AH9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AH5" s="4">
         <f>Extrapolations!AI9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AI5" s="4">
         <f>Extrapolations!AJ9</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
@@ -7722,7 +7713,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AI8"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7841,107 +7832,141 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
+      <c r="B2" s="4">
+        <f>Extrapolations!C10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Extrapolations!D10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <f>Extrapolations!E10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <f>Extrapolations!F10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <f>Extrapolations!G10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <f>Extrapolations!H10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <f>Extrapolations!I10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <f>Extrapolations!J10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <f>Extrapolations!K10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <f>Extrapolations!L10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="L2" s="4">
+        <f>Extrapolations!M10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="M2" s="4">
+        <f>Extrapolations!N10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="N2" s="4">
+        <f>Extrapolations!O10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="O2" s="4">
+        <f>Extrapolations!P10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <f>Extrapolations!Q10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>Extrapolations!R10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="R2" s="4">
+        <f>Extrapolations!S10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="S2" s="4">
+        <f>Extrapolations!T10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="T2" s="4">
+        <f>Extrapolations!U10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="U2" s="4">
+        <f>Extrapolations!V10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="V2" s="4">
+        <f>Extrapolations!W10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="W2" s="4">
+        <f>Extrapolations!X10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="X2" s="4">
+        <f>Extrapolations!Y10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>Extrapolations!Z10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>Extrapolations!AA10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>Extrapolations!AB10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>Extrapolations!AC10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>Extrapolations!AD10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>Extrapolations!AE10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>Extrapolations!AF10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>Extrapolations!AG10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>Extrapolations!AH10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="AH2" s="4">
+        <f>Extrapolations!AI10</f>
+        <v>1.3495815062532836E-2</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>Extrapolations!AJ10</f>
+        <v>1.3495815062532836E-2</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -8163,140 +8188,140 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!C10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!C11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!D10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!D11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!E10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!E11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!F10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!F11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!G10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!G11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!H10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!H11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!I10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!I11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!J10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!J11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!K10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!K11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!L10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!L11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!M10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!M11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!N10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!N11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!O10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!O11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!P10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!P11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!Q10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!Q11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!R10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!R11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!S10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!S11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!T10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!T11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!U10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!U11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!V10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!V11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!W10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!W11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!X10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!X11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!Y10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!Y11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!Z10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!Z11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AA10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!AA11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AB10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!AB11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AC10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!AC11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AD10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!AD11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AE10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!AE11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AF10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!AF11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AG10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!AG11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AG5" s="4">
-        <f>Extrapolations!AH10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!AH11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AH5" s="4">
-        <f>Extrapolations!AI10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!AI11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AI5" s="4">
-        <f>Extrapolations!AJ10</f>
-        <v>7.0214683806076091E-3</v>
+        <f>Extrapolations!AJ11</f>
+        <v>3.7455550122320706E-3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -9074,139 +9099,139 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!D11</f>
+        <f>Extrapolations!D12</f>
         <v>1.9362141353943107E-4</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!E11</f>
+        <f>Extrapolations!E12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!F11</f>
+        <f>Extrapolations!F12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!G11</f>
+        <f>Extrapolations!G12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!H11</f>
+        <f>Extrapolations!H12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!I11</f>
+        <f>Extrapolations!I12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!J11</f>
+        <f>Extrapolations!J12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!K11</f>
+        <f>Extrapolations!K12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!L11</f>
+        <f>Extrapolations!L12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!M11</f>
+        <f>Extrapolations!M12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!N11</f>
+        <f>Extrapolations!N12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!O11</f>
+        <f>Extrapolations!O12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!P11</f>
+        <f>Extrapolations!P12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!Q11</f>
+        <f>Extrapolations!Q12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!R11</f>
+        <f>Extrapolations!R12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!S11</f>
+        <f>Extrapolations!S12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!T11</f>
+        <f>Extrapolations!T12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!U11</f>
+        <f>Extrapolations!U12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!V11</f>
+        <f>Extrapolations!V12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!W11</f>
+        <f>Extrapolations!W12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!X11</f>
+        <f>Extrapolations!X12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!Y11</f>
+        <f>Extrapolations!Y12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!Z11</f>
+        <f>Extrapolations!Z12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!AA11</f>
+        <f>Extrapolations!AA12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AB11</f>
+        <f>Extrapolations!AB12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AC11</f>
+        <f>Extrapolations!AC12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AD11</f>
+        <f>Extrapolations!AD12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AE11</f>
+        <f>Extrapolations!AE12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AF11</f>
+        <f>Extrapolations!AF12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AG11</f>
+        <f>Extrapolations!AG12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AH11</f>
+        <f>Extrapolations!AH12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AG5" s="4">
-        <f>Extrapolations!AI11</f>
+        <f>Extrapolations!AI12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AH5" s="4">
-        <f>Extrapolations!AJ11</f>
+        <f>Extrapolations!AJ12</f>
         <v>1.9362141353943097E-4</v>
       </c>
       <c r="AI5" s="4">
-        <f>Extrapolations!AK11</f>
+        <f>Extrapolations!AK12</f>
         <v>1.9362141353943107E-4</v>
       </c>
     </row>
@@ -9985,139 +10010,139 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>Extrapolations!D12</f>
+        <f>Extrapolations!D13</f>
         <v>3.3209939763395591E-3</v>
       </c>
       <c r="C5" s="4">
-        <f>Extrapolations!E12</f>
+        <f>Extrapolations!E13</f>
         <v>3.3814550029391821E-3</v>
       </c>
       <c r="D5" s="4">
-        <f>Extrapolations!F12</f>
+        <f>Extrapolations!F13</f>
         <v>3.441916029538819E-3</v>
       </c>
       <c r="E5" s="4">
-        <f>Extrapolations!G12</f>
+        <f>Extrapolations!G13</f>
         <v>3.5023770561384421E-3</v>
       </c>
       <c r="F5" s="4">
-        <f>Extrapolations!H12</f>
+        <f>Extrapolations!H13</f>
         <v>3.5628380827380651E-3</v>
       </c>
       <c r="G5" s="4">
-        <f>Extrapolations!I12</f>
+        <f>Extrapolations!I13</f>
         <v>3.6232991093377021E-3</v>
       </c>
       <c r="H5" s="4">
-        <f>Extrapolations!J12</f>
+        <f>Extrapolations!J13</f>
         <v>3.6837601359373251E-3</v>
       </c>
       <c r="I5" s="4">
-        <f>Extrapolations!K12</f>
+        <f>Extrapolations!K13</f>
         <v>3.7442211625369481E-3</v>
       </c>
       <c r="J5" s="4">
-        <f>Extrapolations!L12</f>
+        <f>Extrapolations!L13</f>
         <v>3.8046821891365851E-3</v>
       </c>
       <c r="K5" s="4">
-        <f>Extrapolations!M12</f>
+        <f>Extrapolations!M13</f>
         <v>3.8651432157362081E-3</v>
       </c>
       <c r="L5" s="4">
-        <f>Extrapolations!N12</f>
+        <f>Extrapolations!N13</f>
         <v>3.925604242335845E-3</v>
       </c>
       <c r="M5" s="4">
-        <f>Extrapolations!O12</f>
+        <f>Extrapolations!O13</f>
         <v>3.9860652689354681E-3</v>
       </c>
       <c r="N5" s="4">
-        <f>Extrapolations!P12</f>
+        <f>Extrapolations!P13</f>
         <v>4.0465262955350911E-3</v>
       </c>
       <c r="O5" s="4">
-        <f>Extrapolations!Q12</f>
+        <f>Extrapolations!Q13</f>
         <v>4.1069873221347281E-3</v>
       </c>
       <c r="P5" s="4">
-        <f>Extrapolations!R12</f>
+        <f>Extrapolations!R13</f>
         <v>4.1674483487343511E-3</v>
       </c>
       <c r="Q5" s="4">
-        <f>Extrapolations!S12</f>
+        <f>Extrapolations!S13</f>
         <v>4.2279093753339742E-3</v>
       </c>
       <c r="R5" s="4">
-        <f>Extrapolations!T12</f>
+        <f>Extrapolations!T13</f>
         <v>4.2883704019336111E-3</v>
       </c>
       <c r="S5" s="4">
-        <f>Extrapolations!U12</f>
+        <f>Extrapolations!U13</f>
         <v>4.3488314285332341E-3</v>
       </c>
       <c r="T5" s="4">
-        <f>Extrapolations!V12</f>
+        <f>Extrapolations!V13</f>
         <v>4.409292455132871E-3</v>
       </c>
       <c r="U5" s="4">
-        <f>Extrapolations!W12</f>
+        <f>Extrapolations!W13</f>
         <v>4.4697534817324941E-3</v>
       </c>
       <c r="V5" s="4">
-        <f>Extrapolations!X12</f>
+        <f>Extrapolations!X13</f>
         <v>4.5302145083321171E-3</v>
       </c>
       <c r="W5" s="4">
-        <f>Extrapolations!Y12</f>
+        <f>Extrapolations!Y13</f>
         <v>4.5906755349317541E-3</v>
       </c>
       <c r="X5" s="4">
-        <f>Extrapolations!Z12</f>
+        <f>Extrapolations!Z13</f>
         <v>4.6511365615313771E-3</v>
       </c>
       <c r="Y5" s="4">
-        <f>Extrapolations!AA12</f>
+        <f>Extrapolations!AA13</f>
         <v>4.7115975881310002E-3</v>
       </c>
       <c r="Z5" s="4">
-        <f>Extrapolations!AB12</f>
+        <f>Extrapolations!AB13</f>
         <v>4.7720586147306371E-3</v>
       </c>
       <c r="AA5" s="4">
-        <f>Extrapolations!AC12</f>
+        <f>Extrapolations!AC13</f>
         <v>4.8325196413302601E-3</v>
       </c>
       <c r="AB5" s="4">
-        <f>Extrapolations!AD12</f>
+        <f>Extrapolations!AD13</f>
         <v>4.8929806679298971E-3</v>
       </c>
       <c r="AC5" s="4">
-        <f>Extrapolations!AE12</f>
+        <f>Extrapolations!AE13</f>
         <v>4.9534416945295201E-3</v>
       </c>
       <c r="AD5" s="4">
-        <f>Extrapolations!AF12</f>
+        <f>Extrapolations!AF13</f>
         <v>5.0139027211291431E-3</v>
       </c>
       <c r="AE5" s="4">
-        <f>Extrapolations!AG12</f>
+        <f>Extrapolations!AG13</f>
         <v>5.0743637477287801E-3</v>
       </c>
       <c r="AF5" s="4">
-        <f>Extrapolations!AH12</f>
+        <f>Extrapolations!AH13</f>
         <v>5.1348247743284031E-3</v>
       </c>
       <c r="AG5" s="4">
-        <f>Extrapolations!AI12</f>
+        <f>Extrapolations!AI13</f>
         <v>5.1952858009280262E-3</v>
       </c>
       <c r="AH5" s="4">
-        <f>Extrapolations!AJ12</f>
+        <f>Extrapolations!AJ13</f>
         <v>5.2557468275276631E-3</v>
       </c>
       <c r="AI5" s="4">
-        <f>Extrapolations!AK12</f>
+        <f>Extrapolations!AK13</f>
         <v>5.2992115229405527E-3</v>
       </c>
     </row>
@@ -10857,139 +10882,139 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>Extrapolations!AA13</f>
+        <f>Extrapolations!AA14</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="C4" s="4">
-        <f>Extrapolations!AB13</f>
+        <f>Extrapolations!AB14</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="D4" s="4">
-        <f>Extrapolations!AC13</f>
+        <f>Extrapolations!AC14</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="E4" s="4">
-        <f>Extrapolations!AD13</f>
+        <f>Extrapolations!AD14</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="F4" s="4">
-        <f>Extrapolations!AE13</f>
+        <f>Extrapolations!AE14</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="G4" s="4">
-        <f>Extrapolations!AF13</f>
+        <f>Extrapolations!AF14</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="H4" s="4">
-        <f>Extrapolations!AG13</f>
+        <f>Extrapolations!AG14</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="I4" s="4">
-        <f>Extrapolations!AH13</f>
+        <f>Extrapolations!AH14</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="J4" s="4">
-        <f>Extrapolations!AI13</f>
+        <f>Extrapolations!AI14</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="K4" s="4">
-        <f>Extrapolations!AJ13</f>
+        <f>Extrapolations!AJ14</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="L4" s="4">
-        <f>Extrapolations!AK13</f>
+        <f>Extrapolations!AK14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="M4" s="4">
-        <f>Extrapolations!AL13</f>
+        <f>Extrapolations!AL14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="N4" s="4">
-        <f>Extrapolations!AM13</f>
+        <f>Extrapolations!AM14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="O4" s="4">
-        <f>Extrapolations!AN13</f>
+        <f>Extrapolations!AN14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="P4" s="4">
-        <f>Extrapolations!AO13</f>
+        <f>Extrapolations!AO14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="Q4" s="4">
-        <f>Extrapolations!AP13</f>
+        <f>Extrapolations!AP14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="R4" s="4">
-        <f>Extrapolations!AQ13</f>
+        <f>Extrapolations!AQ14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="S4" s="4">
-        <f>Extrapolations!AR13</f>
+        <f>Extrapolations!AR14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="T4" s="4">
-        <f>Extrapolations!AS13</f>
+        <f>Extrapolations!AS14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="U4" s="4">
-        <f>Extrapolations!AT13</f>
+        <f>Extrapolations!AT14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="V4" s="4">
-        <f>Extrapolations!AU13</f>
+        <f>Extrapolations!AU14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="W4" s="4">
-        <f>Extrapolations!AV13</f>
+        <f>Extrapolations!AV14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="X4" s="4">
-        <f>Extrapolations!AW13</f>
+        <f>Extrapolations!AW14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="Y4" s="4">
-        <f>Extrapolations!AX13</f>
+        <f>Extrapolations!AX14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="Z4" s="4">
-        <f>Extrapolations!AY13</f>
+        <f>Extrapolations!AY14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AA4" s="4">
-        <f>Extrapolations!AZ13</f>
+        <f>Extrapolations!AZ14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AB4" s="4">
-        <f>Extrapolations!BA13</f>
+        <f>Extrapolations!BA14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AC4" s="4">
-        <f>Extrapolations!BB13</f>
+        <f>Extrapolations!BB14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AD4" s="4">
-        <f>Extrapolations!BC13</f>
+        <f>Extrapolations!BC14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AE4" s="4">
-        <f>Extrapolations!BD13</f>
+        <f>Extrapolations!BD14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AF4" s="4">
-        <f>Extrapolations!BE13</f>
+        <f>Extrapolations!BE14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AG4" s="4">
-        <f>Extrapolations!BF13</f>
+        <f>Extrapolations!BF14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AH4" s="4">
-        <f>Extrapolations!BG13</f>
+        <f>Extrapolations!BG14</f>
         <v>1.5431879298095457E-3</v>
       </c>
       <c r="AI4" s="4">
-        <f>Extrapolations!BH13</f>
+        <f>Extrapolations!BH14</f>
         <v>1.5431879298095457E-3</v>
       </c>
     </row>
@@ -11978,139 +12003,139 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>Extrapolations!AA14</f>
+        <f>Extrapolations!AA15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="C4" s="4">
-        <f>Extrapolations!AB14</f>
+        <f>Extrapolations!AB15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="D4" s="4">
-        <f>Extrapolations!AC14</f>
+        <f>Extrapolations!AC15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="E4" s="4">
-        <f>Extrapolations!AD14</f>
+        <f>Extrapolations!AD15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="F4" s="4">
-        <f>Extrapolations!AE14</f>
+        <f>Extrapolations!AE15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="G4" s="4">
-        <f>Extrapolations!AF14</f>
+        <f>Extrapolations!AF15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="H4" s="4">
-        <f>Extrapolations!AG14</f>
+        <f>Extrapolations!AG15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="I4" s="4">
-        <f>Extrapolations!AH14</f>
+        <f>Extrapolations!AH15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="J4" s="4">
-        <f>Extrapolations!AI14</f>
+        <f>Extrapolations!AI15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="K4" s="4">
-        <f>Extrapolations!AJ14</f>
+        <f>Extrapolations!AJ15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="L4" s="4">
-        <f>Extrapolations!AK14</f>
+        <f>Extrapolations!AK15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="M4" s="4">
-        <f>Extrapolations!AL14</f>
+        <f>Extrapolations!AL15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="N4" s="4">
-        <f>Extrapolations!AM14</f>
+        <f>Extrapolations!AM15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="O4" s="4">
-        <f>Extrapolations!AN14</f>
+        <f>Extrapolations!AN15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="P4" s="4">
-        <f>Extrapolations!AO14</f>
+        <f>Extrapolations!AO15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="Q4" s="4">
-        <f>Extrapolations!AP14</f>
+        <f>Extrapolations!AP15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="R4" s="4">
-        <f>Extrapolations!AQ14</f>
+        <f>Extrapolations!AQ15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="S4" s="4">
-        <f>Extrapolations!AR14</f>
+        <f>Extrapolations!AR15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="T4" s="4">
-        <f>Extrapolations!AS14</f>
+        <f>Extrapolations!AS15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="U4" s="4">
-        <f>Extrapolations!AT14</f>
+        <f>Extrapolations!AT15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="V4" s="4">
-        <f>Extrapolations!AU14</f>
+        <f>Extrapolations!AU15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="W4" s="4">
-        <f>Extrapolations!AV14</f>
+        <f>Extrapolations!AV15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="X4" s="4">
-        <f>Extrapolations!AW14</f>
+        <f>Extrapolations!AW15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="Y4" s="4">
-        <f>Extrapolations!AX14</f>
+        <f>Extrapolations!AX15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="Z4" s="4">
-        <f>Extrapolations!AY14</f>
+        <f>Extrapolations!AY15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AA4" s="4">
-        <f>Extrapolations!AZ14</f>
+        <f>Extrapolations!AZ15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AB4" s="4">
-        <f>Extrapolations!BA14</f>
+        <f>Extrapolations!BA15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AC4" s="4">
-        <f>Extrapolations!BB14</f>
+        <f>Extrapolations!BB15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AD4" s="4">
-        <f>Extrapolations!BC14</f>
+        <f>Extrapolations!BC15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AE4" s="4">
-        <f>Extrapolations!BD14</f>
+        <f>Extrapolations!BD15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AF4" s="4">
-        <f>Extrapolations!BE14</f>
+        <f>Extrapolations!BE15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AG4" s="4">
-        <f>Extrapolations!BF14</f>
+        <f>Extrapolations!BF15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AH4" s="4">
-        <f>Extrapolations!BG14</f>
+        <f>Extrapolations!BG15</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="AI4" s="4">
-        <f>Extrapolations!BH14</f>
+        <f>Extrapolations!BH15</f>
         <v>1.1883392852619099E-3</v>
       </c>
     </row>
@@ -12685,10 +12710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17:AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13557,109 +13582,109 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="E14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="F14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="G14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="H14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="I14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="J14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="K14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="L14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="M14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="N14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="O14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="P14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="Q14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="R14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="S14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="T14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="U14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="V14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="W14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="X14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="Y14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="Z14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AA14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AB14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AC14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AD14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AE14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AF14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AG14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AH14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AI14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AJ14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AK14" s="4">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -13673,106 +13698,106 @@
         <v>5</v>
       </c>
       <c r="D15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="F15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="G15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="H15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="I15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="J15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="K15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="L15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="M15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="N15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="O15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="P15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="Q15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="R15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="S15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="T15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="U15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="V15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="W15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="X15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="Y15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="Z15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AA15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AB15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AC15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AD15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AE15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AF15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AG15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AH15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AI15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AJ15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AK15" s="4">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -13783,222 +13808,222 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="E16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="F16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="G16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="H16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="I16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="J16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="K16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="L16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="M16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="N16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="O16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="P16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="Q16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="R16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="S16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="T16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="U16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="V16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="W16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="X16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="Y16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="Z16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AA16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AB16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AC16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AD16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AE16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AF16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AG16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AH16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AI16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AJ16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AK16" s="4">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
     </row>
     <row r="17" spans="1:37">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="E17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="F17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="G17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="H17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="I17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="J17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="K17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="L17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="M17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="N17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="O17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="P17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="Q17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="R17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="S17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="T17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="U17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="V17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="W17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="X17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="Y17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="Z17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AA17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AB17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AC17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AD17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AE17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AF17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AG17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AH17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AI17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AJ17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AK17" s="4">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -14006,225 +14031,225 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="4">
-        <v>5.2992115229405527E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="E18" s="4">
-        <v>5.3934315680825738E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="F18" s="4">
-        <v>5.4328972597188054E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="G18" s="4">
-        <v>5.4639690719479918E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="H18" s="4">
-        <v>5.5418412974535475E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="I18" s="4">
-        <v>5.6194390279456462E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="J18" s="4">
-        <v>5.6977290697036269E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="K18" s="4">
-        <v>5.7753683101031145E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="L18" s="4">
-        <v>5.8065339689778806E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="M18" s="4">
-        <v>5.9168077326028174E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="N18" s="4">
-        <v>6.0262008784596468E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="O18" s="4">
-        <v>6.1333911053254144E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="P18" s="4">
-        <v>6.23926005928913E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="Q18" s="4">
-        <v>6.2631866999947458E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="R18" s="4">
-        <v>6.3166177586814537E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="S18" s="4">
-        <v>6.3698985412702644E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="T18" s="4">
-        <v>6.4221337603906021E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="U18" s="4">
-        <v>6.4770178768907465E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="V18" s="4">
-        <v>6.5040881848864238E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="W18" s="4">
-        <v>6.5657441588667436E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="X18" s="4">
-        <v>6.6279838592649453E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="Y18" s="4">
-        <v>6.6926091644649984E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="Z18" s="4">
-        <v>6.7592235851418906E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AA18" s="4">
-        <v>6.8261740810624423E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AB18" s="4">
-        <v>6.8617594497521082E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AC18" s="4">
-        <v>6.9004780853928341E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AD18" s="4">
-        <v>6.9410482983891979E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AE18" s="4">
-        <v>6.9822916342727305E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AF18" s="4">
-        <v>7.0276191171519658E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AG18" s="4">
-        <v>7.0718499244147234E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AH18" s="4">
-        <v>7.1189794928731096E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AI18" s="4">
-        <v>7.1700377368293525E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AJ18" s="4">
-        <v>7.221347583681044E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AK18" s="4">
-        <v>7.2762043320700196E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
     </row>
     <row r="19" spans="1:37">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.2992115229405527E-3</v>
       </c>
       <c r="E19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.3934315680825738E-3</v>
       </c>
       <c r="F19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.4328972597188054E-3</v>
       </c>
       <c r="G19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.4639690719479918E-3</v>
       </c>
       <c r="H19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.5418412974535475E-3</v>
       </c>
       <c r="I19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.6194390279456462E-3</v>
       </c>
       <c r="J19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.6977290697036269E-3</v>
       </c>
       <c r="K19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.7753683101031145E-3</v>
       </c>
       <c r="L19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.8065339689778806E-3</v>
       </c>
       <c r="M19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>5.9168077326028174E-3</v>
       </c>
       <c r="N19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.0262008784596468E-3</v>
       </c>
       <c r="O19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.1333911053254144E-3</v>
       </c>
       <c r="P19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.23926005928913E-3</v>
       </c>
       <c r="Q19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.2631866999947458E-3</v>
       </c>
       <c r="R19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.3166177586814537E-3</v>
       </c>
       <c r="S19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.3698985412702644E-3</v>
       </c>
       <c r="T19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.4221337603906021E-3</v>
       </c>
       <c r="U19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.4770178768907465E-3</v>
       </c>
       <c r="V19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.5040881848864238E-3</v>
       </c>
       <c r="W19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.5657441588667436E-3</v>
       </c>
       <c r="X19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.6279838592649453E-3</v>
       </c>
       <c r="Y19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.6926091644649984E-3</v>
       </c>
       <c r="Z19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.7592235851418906E-3</v>
       </c>
       <c r="AA19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.8261740810624423E-3</v>
       </c>
       <c r="AB19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.8617594497521082E-3</v>
       </c>
       <c r="AC19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.9004780853928341E-3</v>
       </c>
       <c r="AD19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.9410482983891979E-3</v>
       </c>
       <c r="AE19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>6.9822916342727305E-3</v>
       </c>
       <c r="AF19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.0276191171519658E-3</v>
       </c>
       <c r="AG19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.0718499244147234E-3</v>
       </c>
       <c r="AH19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.1189794928731096E-3</v>
       </c>
       <c r="AI19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.1700377368293525E-3</v>
       </c>
       <c r="AJ19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.221347583681044E-3</v>
       </c>
       <c r="AK19" s="4">
-        <v>1.5431879298095457E-3</v>
+        <v>7.2762043320700196E-3</v>
       </c>
     </row>
     <row r="20" spans="1:37">
@@ -14232,111 +14257,224 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="V20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="W20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>1.5431879298095457E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AA21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AB21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AC21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AD21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AE20" s="4">
+      <c r="AE21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AF20" s="4">
+      <c r="AF21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AG20" s="4">
+      <c r="AG21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AH20" s="4">
+      <c r="AH21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AI20" s="4">
+      <c r="AI21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AJ21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AK20" s="4">
+      <c r="AK21" s="4">
         <v>1.1883392852619099E-3</v>
       </c>
     </row>
@@ -14707,13 +14845,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT57"/>
+  <dimension ref="A1:BT58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="BJ19" sqref="BJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15829,7 +15967,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="4">
-        <f t="shared" ref="C6:AJ13" si="4">TREND($AK6:$BS6,$AK$1:$BS$1,Q$1)</f>
+        <f t="shared" ref="C6:AJ14" si="4">TREND($AK6:$BS6,$AK$1:$BS$1,Q$1)</f>
         <v>4.3772593496740637E-4</v>
       </c>
       <c r="R6" s="4">
@@ -16302,279 +16440,279 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" ref="C8:AI8" si="6">TREND($AK8:$BS8,$AK$1:$BS$1,C$1)</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="T8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="V8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="W8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AD8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AE8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AF8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AG8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AH8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AI8" s="6">
         <f t="shared" si="6"/>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AJ8" s="6">
         <f>TREND($AK8:$BS8,$AK$1:$BS$1,AJ$1)</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AK8" s="15">
         <f>BNVFE!D14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AL8" s="15">
         <f>BNVFE!D14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AM8" s="15">
         <f>BNVFE!E14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AN8" s="15">
         <f>BNVFE!F14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AO8" s="15">
         <f>BNVFE!G14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AP8" s="15">
         <f>BNVFE!H14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AQ8" s="15">
         <f>BNVFE!I14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AR8" s="15">
         <f>BNVFE!J14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AS8" s="15">
         <f>BNVFE!K14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AT8" s="15">
         <f>BNVFE!L14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AU8" s="15">
         <f>BNVFE!M14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AV8" s="15">
         <f>BNVFE!N14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AW8" s="15">
         <f>BNVFE!O14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AX8" s="15">
         <f>BNVFE!P14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AY8" s="15">
         <f>BNVFE!Q14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AZ8" s="15">
         <f>BNVFE!R14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BA8" s="15">
         <f>BNVFE!S14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BB8" s="15">
         <f>BNVFE!T14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BC8" s="15">
         <f>BNVFE!U14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BD8" s="15">
         <f>BNVFE!V14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BE8" s="15">
         <f>BNVFE!W14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BF8" s="15">
         <f>BNVFE!X14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BG8" s="15">
         <f>BNVFE!Y14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BH8" s="15">
         <f>BNVFE!Z14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BI8" s="15">
         <f>BNVFE!AA14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BJ8" s="15">
         <f>BNVFE!AB14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BK8" s="15">
         <f>BNVFE!AC14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BL8" s="15">
         <f>BNVFE!AD14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BM8" s="15">
         <f>BNVFE!AE14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BN8" s="15">
         <f>BNVFE!AF14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BO8" s="15">
         <f>BNVFE!AG14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BP8" s="15">
         <f>BNVFE!AH14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BQ8" s="15">
         <f>BNVFE!AI14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BR8" s="15">
         <f>BNVFE!AJ14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BS8" s="15">
         <f>BNVFE!AK14</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BT8" s="4"/>
     </row>
@@ -16587,279 +16725,279 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="F9" s="4">
         <f>TREND($AK9:$BS9,$AK$1:$BS$1,F$1)</f>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="U9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="V9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="X9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AB9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AC9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AD9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AE9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AF9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AH9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AI9" s="4">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AJ9" s="14">
         <f t="shared" si="4"/>
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AK9" s="15">
         <f>BNVFE!D15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AL9" s="16">
         <f>BNVFE!D15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AM9" s="16">
         <f>BNVFE!E15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AN9" s="16">
         <f>BNVFE!F15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AO9" s="16">
         <f>BNVFE!G15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AP9" s="16">
         <f>BNVFE!H15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AQ9" s="16">
         <f>BNVFE!I15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AR9" s="16">
         <f>BNVFE!J15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AS9" s="16">
         <f>BNVFE!K15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AT9" s="16">
         <f>BNVFE!L15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AU9" s="16">
         <f>BNVFE!M15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AV9" s="16">
         <f>BNVFE!N15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AW9" s="16">
         <f>BNVFE!O15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AX9" s="16">
         <f>BNVFE!P15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AY9" s="16">
         <f>BNVFE!Q15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AZ9" s="16">
         <f>BNVFE!R15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BA9" s="16">
         <f>BNVFE!S15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BB9" s="16">
         <f>BNVFE!T15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BC9" s="16">
         <f>BNVFE!U15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BD9" s="16">
         <f>BNVFE!V15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BE9" s="16">
         <f>BNVFE!W15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BF9" s="16">
         <f>BNVFE!X15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BG9" s="16">
         <f>BNVFE!Y15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BH9" s="16">
         <f>BNVFE!Z15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BI9" s="16">
         <f>BNVFE!AA15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BJ9" s="16">
         <f>BNVFE!AB15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BK9" s="16">
         <f>BNVFE!AC15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BL9" s="16">
         <f>BNVFE!AD15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BM9" s="16">
         <f>BNVFE!AE15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BN9" s="16">
         <f>BNVFE!AF15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BO9" s="16">
         <f>BNVFE!AG15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BP9" s="16">
         <f>BNVFE!AH15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BQ9" s="16">
         <f>BNVFE!AI15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BR9" s="16">
         <f>BNVFE!AJ15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BS9" s="16">
         <f>BNVFE!AK15</f>
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BT9" s="4"/>
     </row>
@@ -16872,561 +17010,564 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="F10" s="4">
         <f>TREND($AK10:$BS10,$AK$1:$BS$1,F$1)</f>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AB10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AC10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AE10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AF10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AH10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AI10" s="4">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AJ10" s="14">
         <f t="shared" si="4"/>
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AK10" s="15">
         <f>BNVFE!D16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AL10" s="16">
         <f>BNVFE!D16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AM10" s="16">
         <f>BNVFE!E16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AN10" s="16">
         <f>BNVFE!F16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AO10" s="16">
         <f>BNVFE!G16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AP10" s="16">
         <f>BNVFE!H16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AQ10" s="16">
         <f>BNVFE!I16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AR10" s="16">
         <f>BNVFE!J16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AS10" s="16">
         <f>BNVFE!K16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AT10" s="16">
         <f>BNVFE!L16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AU10" s="16">
         <f>BNVFE!M16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AV10" s="16">
         <f>BNVFE!N16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AW10" s="16">
         <f>BNVFE!O16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AX10" s="16">
         <f>BNVFE!P16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AY10" s="16">
         <f>BNVFE!Q16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AZ10" s="16">
         <f>BNVFE!R16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BA10" s="16">
         <f>BNVFE!S16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BB10" s="16">
         <f>BNVFE!T16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BC10" s="16">
         <f>BNVFE!U16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BD10" s="16">
         <f>BNVFE!V16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BE10" s="16">
         <f>BNVFE!W16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BF10" s="16">
         <f>BNVFE!X16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BG10" s="16">
         <f>BNVFE!Y16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BH10" s="16">
         <f>BNVFE!Z16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BI10" s="16">
         <f>BNVFE!AA16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BJ10" s="16">
         <f>BNVFE!AB16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BK10" s="16">
         <f>BNVFE!AC16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BL10" s="16">
         <f>BNVFE!AD16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BM10" s="16">
         <f>BNVFE!AE16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BN10" s="16">
         <f>BNVFE!AF16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BO10" s="16">
         <f>BNVFE!AG16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BP10" s="16">
         <f>BNVFE!AH16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BQ10" s="16">
         <f>BNVFE!AI16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BR10" s="16">
         <f>BNVFE!AJ16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BS10" s="16">
         <f>BNVFE!AK16</f>
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BT10" s="4"/>
     </row>
     <row r="11" spans="1:72">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="4"/>
+        <v>3.7455550122320706E-3</v>
+      </c>
       <c r="D11" s="4">
-        <f t="shared" ref="D11" si="7">$AK11</f>
-        <v>1.9362141353943107E-4</v>
+        <f t="shared" si="4"/>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <f>TREND($AK11:$BS11,$AK$1:$BS$1,F$1)</f>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="V11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="W11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="X11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="Y11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AB11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AC11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AD11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AE11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AF11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AH11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AI11" s="4">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AJ11" s="14">
         <f t="shared" si="4"/>
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AK11" s="15">
         <f>BNVFE!D17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AL11" s="16">
         <f>BNVFE!D17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AM11" s="16">
         <f>BNVFE!E17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AN11" s="16">
         <f>BNVFE!F17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AO11" s="16">
         <f>BNVFE!G17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AP11" s="16">
         <f>BNVFE!H17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AQ11" s="16">
         <f>BNVFE!I17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AR11" s="16">
         <f>BNVFE!J17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AS11" s="16">
         <f>BNVFE!K17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AT11" s="16">
         <f>BNVFE!L17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AU11" s="16">
         <f>BNVFE!M17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AV11" s="16">
         <f>BNVFE!N17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AW11" s="16">
         <f>BNVFE!O17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AX11" s="16">
         <f>BNVFE!P17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AY11" s="16">
         <f>BNVFE!Q17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AZ11" s="16">
         <f>BNVFE!R17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BA11" s="16">
         <f>BNVFE!S17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BB11" s="16">
         <f>BNVFE!T17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BC11" s="16">
         <f>BNVFE!U17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BD11" s="16">
         <f>BNVFE!V17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BE11" s="16">
         <f>BNVFE!W17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BF11" s="16">
         <f>BNVFE!X17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BG11" s="16">
         <f>BNVFE!Y17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BH11" s="16">
         <f>BNVFE!Z17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BI11" s="16">
         <f>BNVFE!AA17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BJ11" s="16">
         <f>BNVFE!AB17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BK11" s="16">
         <f>BNVFE!AC17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BL11" s="16">
         <f>BNVFE!AD17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BM11" s="16">
         <f>BNVFE!AE17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BN11" s="16">
         <f>BNVFE!AF17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BO11" s="16">
         <f>BNVFE!AG17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BP11" s="16">
         <f>BNVFE!AH17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BQ11" s="16">
         <f>BNVFE!AI17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BR11" s="16">
         <f>BNVFE!AJ17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BS11" s="16">
         <f>BNVFE!AK17</f>
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BT11" s="4"/>
     </row>
@@ -17435,520 +17576,589 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="4">
-        <f>TREND($AK12:$BS12,$AK$1:$BS$1,D$1)</f>
-        <v>3.3209939763395591E-3</v>
+        <f t="shared" ref="D12" si="7">$AK12</f>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="4"/>
-        <v>3.3814550029391821E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="F12" s="4">
-        <f>TREND($AK12:$BS12,$AK$1:$BS$1,F$1)</f>
-        <v>3.441916029538819E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="4"/>
-        <v>3.5023770561384421E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="4"/>
-        <v>3.5628380827380651E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
-        <v>3.6232991093377021E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="4"/>
-        <v>3.6837601359373251E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="4"/>
-        <v>3.7442211625369481E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="4"/>
-        <v>3.8046821891365851E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="4"/>
-        <v>3.8651432157362081E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="4"/>
-        <v>3.925604242335845E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="4"/>
-        <v>3.9860652689354681E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="4"/>
-        <v>4.0465262955350911E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="4"/>
-        <v>4.1069873221347281E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="R12" s="4">
         <f t="shared" si="4"/>
-        <v>4.1674483487343511E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" si="4"/>
-        <v>4.2279093753339742E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="4"/>
-        <v>4.2883704019336111E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="4"/>
-        <v>4.3488314285332341E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" si="4"/>
-        <v>4.409292455132871E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="4"/>
-        <v>4.4697534817324941E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="X12" s="4">
         <f t="shared" si="4"/>
-        <v>4.5302145083321171E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="Y12" s="4">
         <f t="shared" si="4"/>
-        <v>4.5906755349317541E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="4"/>
-        <v>4.6511365615313771E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="4"/>
-        <v>4.7115975881310002E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AB12" s="4">
         <f t="shared" si="4"/>
-        <v>4.7720586147306371E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AC12" s="4">
         <f t="shared" si="4"/>
-        <v>4.8325196413302601E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AD12" s="4">
         <f t="shared" si="4"/>
-        <v>4.8929806679298971E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AE12" s="4">
         <f t="shared" si="4"/>
-        <v>4.9534416945295201E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AF12" s="4">
         <f t="shared" si="4"/>
-        <v>5.0139027211291431E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="4"/>
-        <v>5.0743637477287801E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AH12" s="4">
         <f t="shared" si="4"/>
-        <v>5.1348247743284031E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AI12" s="4">
         <f t="shared" si="4"/>
-        <v>5.1952858009280262E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AJ12" s="14">
         <f t="shared" si="4"/>
-        <v>5.2557468275276631E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AK12" s="15">
         <f>BNVFE!D18</f>
-        <v>5.2992115229405527E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AL12" s="16">
         <f>BNVFE!D18</f>
-        <v>5.2992115229405527E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AM12" s="16">
         <f>BNVFE!E18</f>
-        <v>5.3934315680825738E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AN12" s="16">
         <f>BNVFE!F18</f>
-        <v>5.4328972597188054E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AO12" s="16">
         <f>BNVFE!G18</f>
-        <v>5.4639690719479918E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AP12" s="16">
         <f>BNVFE!H18</f>
-        <v>5.5418412974535475E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AQ12" s="16">
         <f>BNVFE!I18</f>
-        <v>5.6194390279456462E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AR12" s="16">
         <f>BNVFE!J18</f>
-        <v>5.6977290697036269E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AS12" s="16">
         <f>BNVFE!K18</f>
-        <v>5.7753683101031145E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AT12" s="16">
         <f>BNVFE!L18</f>
-        <v>5.8065339689778806E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AU12" s="16">
         <f>BNVFE!M18</f>
-        <v>5.9168077326028174E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AV12" s="16">
         <f>BNVFE!N18</f>
-        <v>6.0262008784596468E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AW12" s="16">
         <f>BNVFE!O18</f>
-        <v>6.1333911053254144E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AX12" s="16">
         <f>BNVFE!P18</f>
-        <v>6.23926005928913E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AY12" s="16">
         <f>BNVFE!Q18</f>
-        <v>6.2631866999947458E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AZ12" s="16">
         <f>BNVFE!R18</f>
-        <v>6.3166177586814537E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BA12" s="16">
         <f>BNVFE!S18</f>
-        <v>6.3698985412702644E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BB12" s="16">
         <f>BNVFE!T18</f>
-        <v>6.4221337603906021E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BC12" s="16">
         <f>BNVFE!U18</f>
-        <v>6.4770178768907465E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BD12" s="16">
         <f>BNVFE!V18</f>
-        <v>6.5040881848864238E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BE12" s="16">
         <f>BNVFE!W18</f>
-        <v>6.5657441588667436E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BF12" s="16">
         <f>BNVFE!X18</f>
-        <v>6.6279838592649453E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BG12" s="16">
         <f>BNVFE!Y18</f>
-        <v>6.6926091644649984E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BH12" s="16">
         <f>BNVFE!Z18</f>
-        <v>6.7592235851418906E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BI12" s="16">
         <f>BNVFE!AA18</f>
-        <v>6.8261740810624423E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BJ12" s="16">
         <f>BNVFE!AB18</f>
-        <v>6.8617594497521082E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BK12" s="16">
         <f>BNVFE!AC18</f>
-        <v>6.9004780853928341E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BL12" s="16">
         <f>BNVFE!AD18</f>
-        <v>6.9410482983891979E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BM12" s="16">
         <f>BNVFE!AE18</f>
-        <v>6.9822916342727305E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BN12" s="16">
         <f>BNVFE!AF18</f>
-        <v>7.0276191171519658E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BO12" s="16">
         <f>BNVFE!AG18</f>
-        <v>7.0718499244147234E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BP12" s="16">
         <f>BNVFE!AH18</f>
-        <v>7.1189794928731096E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BQ12" s="16">
         <f>BNVFE!AI18</f>
-        <v>7.1700377368293525E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BR12" s="16">
         <f>BNVFE!AJ18</f>
-        <v>7.221347583681044E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BS12" s="16">
         <f>BNVFE!AK18</f>
-        <v>7.2762043320700196E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BT12" s="4"/>
     </row>
     <row r="13" spans="1:72">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
+      <c r="D13" s="4">
+        <f>TREND($AK13:$BS13,$AK$1:$BS$1,D$1)</f>
+        <v>3.3209939763395591E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.3814550029391821E-3</v>
+      </c>
+      <c r="F13" s="4">
+        <f>TREND($AK13:$BS13,$AK$1:$BS$1,F$1)</f>
+        <v>3.441916029538819E-3</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5023770561384421E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5628380827380651E-3</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6232991093377021E-3</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6837601359373251E-3</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.7442211625369481E-3</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.8046821891365851E-3</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.8651432157362081E-3</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.925604242335845E-3</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.9860652689354681E-3</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.0465262955350911E-3</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1069873221347281E-3</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1674483487343511E-3</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2279093753339742E-3</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2883704019336111E-3</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3488314285332341E-3</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.409292455132871E-3</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.4697534817324941E-3</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5302145083321171E-3</v>
+      </c>
+      <c r="Y13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5906755349317541E-3</v>
+      </c>
+      <c r="Z13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.6511365615313771E-3</v>
+      </c>
       <c r="AA13" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>4.7115975881310002E-3</v>
       </c>
       <c r="AB13" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>4.7720586147306371E-3</v>
       </c>
       <c r="AC13" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>4.8325196413302601E-3</v>
       </c>
       <c r="AD13" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>4.8929806679298971E-3</v>
       </c>
       <c r="AE13" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>4.9534416945295201E-3</v>
       </c>
       <c r="AF13" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>5.0139027211291431E-3</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>5.0743637477287801E-3</v>
       </c>
       <c r="AH13" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>5.1348247743284031E-3</v>
       </c>
       <c r="AI13" s="4">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>5.1952858009280262E-3</v>
       </c>
       <c r="AJ13" s="14">
         <f t="shared" si="4"/>
-        <v>1.5431879298095448E-3</v>
+        <v>5.2557468275276631E-3</v>
       </c>
       <c r="AK13" s="15">
         <f>BNVFE!D19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.2992115229405527E-3</v>
       </c>
       <c r="AL13" s="16">
         <f>BNVFE!D19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.2992115229405527E-3</v>
       </c>
       <c r="AM13" s="16">
         <f>BNVFE!E19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.3934315680825738E-3</v>
       </c>
       <c r="AN13" s="16">
         <f>BNVFE!F19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.4328972597188054E-3</v>
       </c>
       <c r="AO13" s="16">
         <f>BNVFE!G19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.4639690719479918E-3</v>
       </c>
       <c r="AP13" s="16">
         <f>BNVFE!H19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.5418412974535475E-3</v>
       </c>
       <c r="AQ13" s="16">
         <f>BNVFE!I19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.6194390279456462E-3</v>
       </c>
       <c r="AR13" s="16">
         <f>BNVFE!J19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.6977290697036269E-3</v>
       </c>
       <c r="AS13" s="16">
         <f>BNVFE!K19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.7753683101031145E-3</v>
       </c>
       <c r="AT13" s="16">
         <f>BNVFE!L19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.8065339689778806E-3</v>
       </c>
       <c r="AU13" s="16">
         <f>BNVFE!M19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>5.9168077326028174E-3</v>
       </c>
       <c r="AV13" s="16">
         <f>BNVFE!N19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.0262008784596468E-3</v>
       </c>
       <c r="AW13" s="16">
         <f>BNVFE!O19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.1333911053254144E-3</v>
       </c>
       <c r="AX13" s="16">
         <f>BNVFE!P19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.23926005928913E-3</v>
       </c>
       <c r="AY13" s="16">
         <f>BNVFE!Q19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.2631866999947458E-3</v>
       </c>
       <c r="AZ13" s="16">
         <f>BNVFE!R19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.3166177586814537E-3</v>
       </c>
       <c r="BA13" s="16">
         <f>BNVFE!S19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.3698985412702644E-3</v>
       </c>
       <c r="BB13" s="16">
         <f>BNVFE!T19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.4221337603906021E-3</v>
       </c>
       <c r="BC13" s="16">
         <f>BNVFE!U19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.4770178768907465E-3</v>
       </c>
       <c r="BD13" s="16">
         <f>BNVFE!V19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.5040881848864238E-3</v>
       </c>
       <c r="BE13" s="16">
         <f>BNVFE!W19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.5657441588667436E-3</v>
       </c>
       <c r="BF13" s="16">
         <f>BNVFE!X19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.6279838592649453E-3</v>
       </c>
       <c r="BG13" s="16">
         <f>BNVFE!Y19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.6926091644649984E-3</v>
       </c>
       <c r="BH13" s="16">
         <f>BNVFE!Z19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.7592235851418906E-3</v>
       </c>
       <c r="BI13" s="16">
         <f>BNVFE!AA19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.8261740810624423E-3</v>
       </c>
       <c r="BJ13" s="16">
         <f>BNVFE!AB19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.8617594497521082E-3</v>
       </c>
       <c r="BK13" s="16">
         <f>BNVFE!AC19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.9004780853928341E-3</v>
       </c>
       <c r="BL13" s="16">
         <f>BNVFE!AD19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.9410482983891979E-3</v>
       </c>
       <c r="BM13" s="16">
         <f>BNVFE!AE19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>6.9822916342727305E-3</v>
       </c>
       <c r="BN13" s="16">
         <f>BNVFE!AF19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.0276191171519658E-3</v>
       </c>
       <c r="BO13" s="16">
         <f>BNVFE!AG19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.0718499244147234E-3</v>
       </c>
       <c r="BP13" s="16">
         <f>BNVFE!AH19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.1189794928731096E-3</v>
       </c>
       <c r="BQ13" s="16">
         <f>BNVFE!AI19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.1700377368293525E-3</v>
       </c>
       <c r="BR13" s="16">
         <f>BNVFE!AJ19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.221347583681044E-3</v>
       </c>
       <c r="BS13" s="16">
         <f>BNVFE!AK19</f>
-        <v>1.5431879298095457E-3</v>
+        <v>7.2762043320700196E-3</v>
       </c>
       <c r="BT13" s="4"/>
     </row>
-    <row r="14" spans="1:72" s="8" customFormat="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:72">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
@@ -17957,269 +18167,462 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="4">
-        <f t="shared" ref="AA14:AI14" si="8">$AK14</f>
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AD14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AE14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AG14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AH14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AI14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AJ14" s="14">
+        <f t="shared" si="4"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AK14" s="15">
+        <f>BNVFE!D20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AL14" s="16">
+        <f>BNVFE!D20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AM14" s="16">
+        <f>BNVFE!E20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AN14" s="16">
+        <f>BNVFE!F20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AO14" s="16">
+        <f>BNVFE!G20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AP14" s="16">
+        <f>BNVFE!H20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AQ14" s="16">
+        <f>BNVFE!I20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AR14" s="16">
+        <f>BNVFE!J20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AS14" s="16">
+        <f>BNVFE!K20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AT14" s="16">
+        <f>BNVFE!L20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AU14" s="16">
+        <f>BNVFE!M20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AV14" s="16">
+        <f>BNVFE!N20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AW14" s="16">
+        <f>BNVFE!O20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AX14" s="16">
+        <f>BNVFE!P20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AY14" s="16">
+        <f>BNVFE!Q20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AZ14" s="16">
+        <f>BNVFE!R20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BA14" s="16">
+        <f>BNVFE!S20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BB14" s="16">
+        <f>BNVFE!T20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BC14" s="16">
+        <f>BNVFE!U20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BD14" s="16">
+        <f>BNVFE!V20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BE14" s="16">
+        <f>BNVFE!W20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BF14" s="16">
+        <f>BNVFE!X20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BG14" s="16">
+        <f>BNVFE!Y20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BH14" s="16">
+        <f>BNVFE!Z20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BI14" s="16">
+        <f>BNVFE!AA20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BJ14" s="16">
+        <f>BNVFE!AB20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BK14" s="16">
+        <f>BNVFE!AC20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BL14" s="16">
+        <f>BNVFE!AD20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BM14" s="16">
+        <f>BNVFE!AE20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BN14" s="16">
+        <f>BNVFE!AF20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BO14" s="16">
+        <f>BNVFE!AG20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BP14" s="16">
+        <f>BNVFE!AH20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BQ14" s="16">
+        <f>BNVFE!AI20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BR14" s="16">
+        <f>BNVFE!AJ20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BS14" s="16">
+        <f>BNVFE!AK20</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BT14" s="4"/>
+    </row>
+    <row r="15" spans="1:72" s="8" customFormat="1">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="4">
+        <f t="shared" ref="AA15:AI15" si="8">$AK15</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AB15" s="4">
         <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AC15" s="4">
         <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AD15" s="4">
         <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AE14" s="4">
+      <c r="AE15" s="4">
         <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AF14" s="4">
+      <c r="AF15" s="4">
         <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AG15" s="4">
         <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AH15" s="4">
         <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AI15" s="4">
         <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AJ14" s="14">
-        <f>$AK14</f>
+      <c r="AJ15" s="14">
+        <f>$AK15</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AK14" s="15">
-        <f>BNVFE!D20</f>
+      <c r="AK15" s="15">
+        <f>BNVFE!D21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AL14" s="16">
-        <f>BNVFE!D20</f>
+      <c r="AL15" s="16">
+        <f>BNVFE!D21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AM14" s="16">
-        <f>BNVFE!E20</f>
+      <c r="AM15" s="16">
+        <f>BNVFE!E21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AN14" s="16">
-        <f>BNVFE!F20</f>
+      <c r="AN15" s="16">
+        <f>BNVFE!F21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AO14" s="16">
-        <f>BNVFE!G20</f>
+      <c r="AO15" s="16">
+        <f>BNVFE!G21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AP14" s="16">
-        <f>BNVFE!H20</f>
+      <c r="AP15" s="16">
+        <f>BNVFE!H21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AQ14" s="16">
-        <f>BNVFE!I20</f>
+      <c r="AQ15" s="16">
+        <f>BNVFE!I21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AR14" s="16">
-        <f>BNVFE!J20</f>
+      <c r="AR15" s="16">
+        <f>BNVFE!J21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AS14" s="16">
-        <f>BNVFE!K20</f>
+      <c r="AS15" s="16">
+        <f>BNVFE!K21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AT14" s="16">
-        <f>BNVFE!L20</f>
+      <c r="AT15" s="16">
+        <f>BNVFE!L21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AU14" s="16">
-        <f>BNVFE!M20</f>
+      <c r="AU15" s="16">
+        <f>BNVFE!M21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AV14" s="16">
-        <f>BNVFE!N20</f>
+      <c r="AV15" s="16">
+        <f>BNVFE!N21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AW14" s="16">
-        <f>BNVFE!O20</f>
+      <c r="AW15" s="16">
+        <f>BNVFE!O21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AX14" s="16">
-        <f>BNVFE!P20</f>
+      <c r="AX15" s="16">
+        <f>BNVFE!P21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AY14" s="16">
-        <f>BNVFE!Q20</f>
+      <c r="AY15" s="16">
+        <f>BNVFE!Q21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AZ14" s="16">
-        <f>BNVFE!R20</f>
+      <c r="AZ15" s="16">
+        <f>BNVFE!R21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BA14" s="16">
-        <f>BNVFE!S20</f>
+      <c r="BA15" s="16">
+        <f>BNVFE!S21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BB14" s="16">
-        <f>BNVFE!T20</f>
+      <c r="BB15" s="16">
+        <f>BNVFE!T21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BC14" s="16">
-        <f>BNVFE!U20</f>
+      <c r="BC15" s="16">
+        <f>BNVFE!U21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BD14" s="16">
-        <f>BNVFE!V20</f>
+      <c r="BD15" s="16">
+        <f>BNVFE!V21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BE14" s="16">
-        <f>BNVFE!W20</f>
+      <c r="BE15" s="16">
+        <f>BNVFE!W21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BF14" s="16">
-        <f>BNVFE!X20</f>
+      <c r="BF15" s="16">
+        <f>BNVFE!X21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BG14" s="16">
-        <f>BNVFE!Y20</f>
+      <c r="BG15" s="16">
+        <f>BNVFE!Y21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BH14" s="16">
-        <f>BNVFE!Z20</f>
+      <c r="BH15" s="16">
+        <f>BNVFE!Z21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BI14" s="16">
-        <f>BNVFE!AA20</f>
+      <c r="BI15" s="16">
+        <f>BNVFE!AA21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BJ14" s="16">
-        <f>BNVFE!AB20</f>
+      <c r="BJ15" s="16">
+        <f>BNVFE!AB21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BK14" s="16">
-        <f>BNVFE!AC20</f>
+      <c r="BK15" s="16">
+        <f>BNVFE!AC21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BL14" s="16">
-        <f>BNVFE!AD20</f>
+      <c r="BL15" s="16">
+        <f>BNVFE!AD21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BM14" s="16">
-        <f>BNVFE!AE20</f>
+      <c r="BM15" s="16">
+        <f>BNVFE!AE21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BN14" s="16">
-        <f>BNVFE!AF20</f>
+      <c r="BN15" s="16">
+        <f>BNVFE!AF21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BO14" s="16">
-        <f>BNVFE!AG20</f>
+      <c r="BO15" s="16">
+        <f>BNVFE!AG21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BP14" s="16">
-        <f>BNVFE!AH20</f>
+      <c r="BP15" s="16">
+        <f>BNVFE!AH21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BQ14" s="16">
-        <f>BNVFE!AI20</f>
+      <c r="BQ15" s="16">
+        <f>BNVFE!AI21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BR14" s="16">
-        <f>BNVFE!AJ20</f>
+      <c r="BR15" s="16">
+        <f>BNVFE!AJ21</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BS14" s="16">
-        <f>BNVFE!AK20</f>
+      <c r="BS15" s="16">
+        <f>BNVFE!AK21</f>
         <v>1.1883392852619099E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8">
-      <c r="C47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="48" spans="3:8">
-      <c r="C48">
-        <v>2021</v>
-      </c>
-      <c r="D48">
-        <v>20.709724091851811</v>
-      </c>
-      <c r="E48">
-        <v>1560.8681637371849</v>
-      </c>
-      <c r="F48">
-        <v>411.91631433310613</v>
-      </c>
-      <c r="G48">
-        <v>2.4276775772258579E-3</v>
-      </c>
-      <c r="H48">
-        <v>1.5084926598642038E-3</v>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="3:48">
       <c r="C49">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D49">
-        <v>18.004733712284658</v>
+        <v>20.709724091851811</v>
       </c>
       <c r="E49">
-        <v>1795.3694584606365</v>
+        <v>1560.8681637371849</v>
       </c>
       <c r="F49">
-        <v>473.80168766120875</v>
+        <v>411.91631433310613</v>
       </c>
       <c r="G49">
-        <v>2.1105876699937984E-3</v>
+        <v>2.4276775772258579E-3</v>
       </c>
       <c r="H49">
-        <v>1.3114616364433857E-3</v>
+        <v>1.5084926598642038E-3</v>
       </c>
     </row>
     <row r="50" spans="3:48">
       <c r="C50">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D50">
-        <v>17.211393460387786</v>
+        <v>18.004733712284658</v>
       </c>
       <c r="E50">
-        <v>1878.1250390416772</v>
+        <v>1795.3694584606365</v>
       </c>
       <c r="F50">
-        <v>495.64105535118767</v>
+        <v>473.80168766120875</v>
       </c>
       <c r="G50">
-        <v>2.0175891185839068E-3</v>
+        <v>2.1105876699937984E-3</v>
       </c>
       <c r="H50">
-        <v>1.2536748720493537E-3</v>
+        <v>1.3114616364433857E-3</v>
       </c>
     </row>
     <row r="51" spans="3:48">
       <c r="C51">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D51">
         <v>17.211393460387786</v>
@@ -18239,338 +18642,358 @@
     </row>
     <row r="52" spans="3:48">
       <c r="C52">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D52">
-        <v>16.96226746103957</v>
+        <v>17.211393460387786</v>
       </c>
       <c r="E52">
-        <v>1905.7091918282579</v>
+        <v>1878.1250390416772</v>
       </c>
       <c r="F52">
-        <v>502.92056992764282</v>
+        <v>495.64105535118767</v>
       </c>
       <c r="G52">
-        <v>1.9883855618470208E-3</v>
+        <v>2.0175891185839068E-3</v>
       </c>
       <c r="H52">
-        <v>1.2355285780798469E-3</v>
+        <v>1.2536748720493537E-3</v>
       </c>
     </row>
     <row r="53" spans="3:48">
       <c r="C53">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D53">
-        <v>16.601821590736861</v>
+        <v>16.96226746103957</v>
       </c>
       <c r="E53">
-        <v>1947.0844713081717</v>
+        <v>1905.7091918282579</v>
       </c>
       <c r="F53">
-        <v>513.83959116455617</v>
+        <v>502.92056992764282</v>
       </c>
       <c r="G53">
-        <v>1.9461326398256297E-3</v>
+        <v>1.9883855618470208E-3</v>
       </c>
       <c r="H53">
-        <v>1.2092737642919642E-3</v>
+        <v>1.2355285780798469E-3</v>
       </c>
     </row>
     <row r="54" spans="3:48">
       <c r="C54">
+        <v>2009</v>
+      </c>
+      <c r="D54">
+        <v>16.601821590736861</v>
+      </c>
+      <c r="E54">
+        <v>1947.0844713081717</v>
+      </c>
+      <c r="F54">
+        <v>513.83959116455617</v>
+      </c>
+      <c r="G54">
+        <v>1.9461326398256297E-3</v>
+      </c>
+      <c r="H54">
+        <v>1.2092737642919642E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:48">
+      <c r="C55">
         <v>2006</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>15.301305075439725</v>
       </c>
-      <c r="E54">
+      <c r="E55">
         <v>2112.5746369594244</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>557.51278578608299</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>1.7936808365569912E-3</v>
       </c>
-      <c r="H54">
+      <c r="H55">
         <v>1.1145443700877325E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="3:48">
-      <c r="D56">
-        <v>2006</v>
-      </c>
-      <c r="E56">
-        <v>2007</v>
-      </c>
-      <c r="F56">
-        <v>2008</v>
-      </c>
-      <c r="G56">
-        <v>2009</v>
-      </c>
-      <c r="H56">
-        <v>2010</v>
-      </c>
-      <c r="I56">
-        <v>2011</v>
-      </c>
-      <c r="J56">
-        <v>2012</v>
-      </c>
-      <c r="K56">
-        <v>2013</v>
-      </c>
-      <c r="L56">
-        <v>2014</v>
-      </c>
-      <c r="M56">
-        <v>2015</v>
-      </c>
-      <c r="N56">
-        <v>2016</v>
-      </c>
-      <c r="O56">
-        <v>2017</v>
-      </c>
-      <c r="P56">
-        <v>2018</v>
-      </c>
-      <c r="Q56">
-        <v>2019</v>
-      </c>
-      <c r="R56">
-        <v>2020</v>
-      </c>
-      <c r="S56">
-        <v>2021</v>
-      </c>
-      <c r="T56">
-        <v>2022</v>
-      </c>
-      <c r="U56">
-        <v>2023</v>
-      </c>
-      <c r="V56">
-        <v>2024</v>
-      </c>
-      <c r="W56">
-        <v>2025</v>
-      </c>
-      <c r="X56">
-        <v>2026</v>
-      </c>
-      <c r="Y56">
-        <v>2027</v>
-      </c>
-      <c r="Z56">
-        <v>2028</v>
-      </c>
-      <c r="AA56">
-        <v>2029</v>
-      </c>
-      <c r="AB56">
-        <v>2030</v>
-      </c>
-      <c r="AC56">
-        <v>2031</v>
-      </c>
-      <c r="AD56">
-        <v>2032</v>
-      </c>
-      <c r="AE56">
-        <v>2033</v>
-      </c>
-      <c r="AF56">
-        <v>2034</v>
-      </c>
-      <c r="AG56">
-        <v>2035</v>
-      </c>
-      <c r="AH56">
-        <v>2036</v>
-      </c>
-      <c r="AI56">
-        <v>2037</v>
-      </c>
-      <c r="AJ56">
-        <v>2038</v>
-      </c>
-      <c r="AK56">
-        <v>2039</v>
-      </c>
-      <c r="AL56">
-        <v>2040</v>
-      </c>
-      <c r="AM56">
-        <v>2041</v>
-      </c>
-      <c r="AN56">
-        <v>2042</v>
-      </c>
-      <c r="AO56">
-        <v>2043</v>
-      </c>
-      <c r="AP56">
-        <v>2044</v>
-      </c>
-      <c r="AQ56">
-        <v>2045</v>
-      </c>
-      <c r="AR56">
-        <v>2046</v>
-      </c>
-      <c r="AS56">
-        <v>2047</v>
-      </c>
-      <c r="AT56">
-        <v>2048</v>
-      </c>
-      <c r="AU56">
-        <v>2049</v>
-      </c>
-      <c r="AV56">
-        <v>2050</v>
       </c>
     </row>
     <row r="57" spans="3:48">
-      <c r="C57" t="s">
+      <c r="D57">
+        <v>2006</v>
+      </c>
+      <c r="E57">
+        <v>2007</v>
+      </c>
+      <c r="F57">
+        <v>2008</v>
+      </c>
+      <c r="G57">
+        <v>2009</v>
+      </c>
+      <c r="H57">
+        <v>2010</v>
+      </c>
+      <c r="I57">
+        <v>2011</v>
+      </c>
+      <c r="J57">
+        <v>2012</v>
+      </c>
+      <c r="K57">
+        <v>2013</v>
+      </c>
+      <c r="L57">
+        <v>2014</v>
+      </c>
+      <c r="M57">
+        <v>2015</v>
+      </c>
+      <c r="N57">
+        <v>2016</v>
+      </c>
+      <c r="O57">
+        <v>2017</v>
+      </c>
+      <c r="P57">
+        <v>2018</v>
+      </c>
+      <c r="Q57">
+        <v>2019</v>
+      </c>
+      <c r="R57">
+        <v>2020</v>
+      </c>
+      <c r="S57">
+        <v>2021</v>
+      </c>
+      <c r="T57">
+        <v>2022</v>
+      </c>
+      <c r="U57">
+        <v>2023</v>
+      </c>
+      <c r="V57">
+        <v>2024</v>
+      </c>
+      <c r="W57">
+        <v>2025</v>
+      </c>
+      <c r="X57">
+        <v>2026</v>
+      </c>
+      <c r="Y57">
+        <v>2027</v>
+      </c>
+      <c r="Z57">
+        <v>2028</v>
+      </c>
+      <c r="AA57">
+        <v>2029</v>
+      </c>
+      <c r="AB57">
+        <v>2030</v>
+      </c>
+      <c r="AC57">
+        <v>2031</v>
+      </c>
+      <c r="AD57">
+        <v>2032</v>
+      </c>
+      <c r="AE57">
+        <v>2033</v>
+      </c>
+      <c r="AF57">
+        <v>2034</v>
+      </c>
+      <c r="AG57">
+        <v>2035</v>
+      </c>
+      <c r="AH57">
+        <v>2036</v>
+      </c>
+      <c r="AI57">
+        <v>2037</v>
+      </c>
+      <c r="AJ57">
+        <v>2038</v>
+      </c>
+      <c r="AK57">
+        <v>2039</v>
+      </c>
+      <c r="AL57">
+        <v>2040</v>
+      </c>
+      <c r="AM57">
+        <v>2041</v>
+      </c>
+      <c r="AN57">
+        <v>2042</v>
+      </c>
+      <c r="AO57">
+        <v>2043</v>
+      </c>
+      <c r="AP57">
+        <v>2044</v>
+      </c>
+      <c r="AQ57">
+        <v>2045</v>
+      </c>
+      <c r="AR57">
+        <v>2046</v>
+      </c>
+      <c r="AS57">
+        <v>2047</v>
+      </c>
+      <c r="AT57">
+        <v>2048</v>
+      </c>
+      <c r="AU57">
+        <v>2049</v>
+      </c>
+      <c r="AV57">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="58" spans="3:48">
+      <c r="C58" t="s">
         <v>77</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>6.5405985853042581E-4</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>6.7259020923837731E-4</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>6.9112055994632882E-4</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>7.0965091065427772E-4</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>7.2505830066289041E-4</v>
       </c>
-      <c r="I57">
+      <c r="I58">
         <v>7.3570728224234326E-4</v>
       </c>
-      <c r="J57">
+      <c r="J58">
         <v>7.3570728224234272E-4</v>
       </c>
-      <c r="K57">
+      <c r="K58">
         <v>7.4418518674728568E-4</v>
       </c>
-      <c r="L57">
+      <c r="L58">
         <v>7.5266309125222516E-4</v>
       </c>
-      <c r="M57">
+      <c r="M58">
         <v>7.6114099575716465E-4</v>
       </c>
-      <c r="N57">
+      <c r="N58">
         <v>7.6961890026210566E-4</v>
       </c>
-      <c r="O57">
+      <c r="O58">
         <v>7.9274406006073217E-4</v>
       </c>
-      <c r="P57">
+      <c r="P58">
         <v>8.1586921985937061E-4</v>
       </c>
-      <c r="Q57">
+      <c r="Q58">
         <v>8.3899437965800211E-4</v>
       </c>
-      <c r="R57">
+      <c r="R58">
         <v>8.6211953945663361E-4</v>
       </c>
-      <c r="S57">
+      <c r="S58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="T57">
+      <c r="T58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="U57">
+      <c r="U58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="V57">
+      <c r="V58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="W57">
+      <c r="W58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="X57">
+      <c r="X58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="Y57">
+      <c r="Y58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="Z57">
+      <c r="Z58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AA57">
+      <c r="AA58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AB57">
+      <c r="AB58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AC57">
+      <c r="AC58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AD57">
+      <c r="AD58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AE57">
+      <c r="AE58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AF57">
+      <c r="AF58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AG57">
+      <c r="AG58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AH57">
+      <c r="AH58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AI57">
+      <c r="AI58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AJ57">
+      <c r="AJ58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AK57">
+      <c r="AK58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AL57">
+      <c r="AL58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AM57">
+      <c r="AM58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AN57">
+      <c r="AN58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AO57">
+      <c r="AO58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AP57">
+      <c r="AP58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AQ57">
+      <c r="AQ58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AR57">
+      <c r="AR58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AS57">
+      <c r="AS58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AT57">
+      <c r="AT58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AU57">
+      <c r="AU58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AV57">
+      <c r="AV58">
         <v>8.8524469925526836E-4</v>
       </c>
     </row>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF98C1-B4E6-401E-932F-EAFD36B4016C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,12 +41,15 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -319,13 +323,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1005,33 +1009,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1163,7 +1167,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1231,7 +1235,7 @@
     <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1241,160 +1245,160 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="153"/>
   </cellXfs>
   <cellStyles count="154">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5427,6 +5431,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5462,6 +5483,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5637,17 +5675,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="107.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="107.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5842,7 +5880,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5850,7 +5888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5860,9 +5898,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -6761,7 +6799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6771,9 +6809,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -7706,7 +7744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7716,9 +7754,9 @@
       <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -8651,7 +8689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8661,9 +8699,9 @@
       <selection activeCell="B7" sqref="B7:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -9562,7 +9600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9572,9 +9610,9 @@
       <selection activeCell="B7" sqref="B7:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -10473,7 +10511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10483,9 +10521,9 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -11594,7 +11632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11604,9 +11642,9 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -12709,18 +12747,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:AK17"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="30.73046875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -14484,19 +14522,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="6" max="6" width="11.1328125" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -14554,7 +14592,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="9">
-        <v>13.666666666666666</v>
+        <v>16.402434831574382</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -14844,20 +14882,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BT58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ19" sqref="BJ19"/>
+      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="36" max="36" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19004,7 +19042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -19014,9 +19052,9 @@
       <selection activeCell="B4" sqref="B4:AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -20119,7 +20157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -20129,9 +20167,9 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -21234,7 +21272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21244,9 +21282,9 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -22349,7 +22387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -22359,9 +22397,9 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -23464,7 +23502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23474,9 +23512,9 @@
       <selection activeCell="B7" sqref="B7:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
